--- a/PICom/ph2teams.xlsx
+++ b/PICom/ph2teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dimacsVRP\PICom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23950DE-F24B-4CBA-9239-A05A595E7837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F315338-747C-4639-928F-D313383E5FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2115,15 +2115,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.6640625" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="2"/>
-    <col min="15" max="16" width="8.6640625" style="3"/>
+    <col min="13" max="13" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.25" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" style="3"/>
     <col min="17" max="17" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -2165,7 +2167,7 @@
       <c r="L1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="N1" t="s">
@@ -2224,7 +2226,7 @@
       <c r="L2" s="2">
         <v>827.3</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>4.6100000000000002E-5</v>
       </c>
       <c r="N2">
@@ -2286,7 +2288,7 @@
       <c r="L3" s="2">
         <v>827.3</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>9.6299999999999996E-5</v>
       </c>
       <c r="N3">
@@ -2348,7 +2350,7 @@
       <c r="L4" s="2">
         <v>826.3</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>1.3687199999999999E-4</v>
       </c>
       <c r="N4">
@@ -2410,7 +2412,7 @@
       <c r="L5" s="2">
         <v>822.9</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>1.3462899999999999E-4</v>
       </c>
       <c r="N5">
@@ -2472,7 +2474,7 @@
       <c r="L6" s="2">
         <v>827.3</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>5.8900000000000002E-5</v>
       </c>
       <c r="N6">
@@ -2534,7 +2536,7 @@
       <c r="L7" s="2">
         <v>827.3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>6.1326000000000002E-5</v>
       </c>
       <c r="N7">
@@ -2596,7 +2598,7 @@
       <c r="L8" s="2">
         <v>827.3</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>7.2200000000000007E-5</v>
       </c>
       <c r="N8">
@@ -2658,7 +2660,7 @@
       <c r="L9" s="2">
         <v>827.3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>8.8900000000000006E-5</v>
       </c>
       <c r="N9">
@@ -2720,7 +2722,7 @@
       <c r="L10" s="2">
         <v>827.3</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>8.3100000000000001E-5</v>
       </c>
       <c r="N10">
@@ -2782,7 +2784,7 @@
       <c r="L11" s="2">
         <v>589.1</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>7.2200000000000007E-5</v>
       </c>
       <c r="N11">
@@ -2844,7 +2846,7 @@
       <c r="L12" s="2">
         <v>589.1</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="1">
         <v>1.3114800000000001E-4</v>
       </c>
       <c r="N12">
@@ -2906,7 +2908,7 @@
       <c r="L13" s="2">
         <v>588.70000000000005</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>5.1051000000000004E-4</v>
       </c>
       <c r="N13">
@@ -2968,7 +2970,7 @@
       <c r="L14" s="2">
         <v>588.1</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>3.1221500000000002E-4</v>
       </c>
       <c r="N14">
@@ -3030,7 +3032,7 @@
       <c r="L15" s="2">
         <v>586.4</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="1">
         <v>8.8399999999999994E-5</v>
       </c>
       <c r="N15">
@@ -3092,7 +3094,7 @@
       <c r="L16" s="2">
         <v>586</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>8.3300000000000005E-5</v>
       </c>
       <c r="N16">
@@ -3154,7 +3156,7 @@
       <c r="L17" s="2">
         <v>585.79999999999995</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="1">
         <v>1.20388E-4</v>
       </c>
       <c r="N17">
@@ -3216,7 +3218,7 @@
       <c r="L18" s="2">
         <v>585.79999999999995</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="1">
         <v>1.19389E-4</v>
       </c>
       <c r="N18">
@@ -3278,7 +3280,7 @@
       <c r="L19" s="2">
         <v>1637.7</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="1">
         <v>1.06347E-4</v>
       </c>
       <c r="N19">
@@ -3340,7 +3342,7 @@
       <c r="L20" s="2">
         <v>1466.6</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="1">
         <v>1.20767E-4</v>
       </c>
       <c r="N20">
@@ -3402,7 +3404,7 @@
       <c r="L21" s="2">
         <v>1208.7</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="1">
         <v>3.1795599999999999E-4</v>
       </c>
       <c r="N21">
@@ -3464,7 +3466,7 @@
       <c r="L22" s="2">
         <v>971.5</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="1">
         <v>1.1714589999999999E-3</v>
       </c>
       <c r="N22">
@@ -3526,7 +3528,7 @@
       <c r="L23" s="2">
         <v>1355.3</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="1">
         <v>5.5503900000000001E-4</v>
       </c>
       <c r="N23">
@@ -3588,7 +3590,7 @@
       <c r="L24" s="2">
         <v>1234.5999999999999</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="1">
         <v>1.4840949999999999E-3</v>
       </c>
       <c r="N24">
@@ -3650,7 +3652,7 @@
       <c r="L25" s="2">
         <v>1064.5999999999999</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="1">
         <v>8.9550999999999997E-4</v>
       </c>
       <c r="N25">
@@ -3712,7 +3714,7 @@
       <c r="L26" s="2">
         <v>932.1</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="1">
         <v>6.8884199999999995E-4</v>
       </c>
       <c r="N26">
@@ -3774,7 +3776,7 @@
       <c r="L27" s="2">
         <v>1146.9000000000001</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="1">
         <v>5.3112299999999999E-4</v>
       </c>
       <c r="N27">
@@ -3836,7 +3838,7 @@
       <c r="L28" s="2">
         <v>1068</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="1">
         <v>1.0809929999999999E-3</v>
       </c>
       <c r="N28">
@@ -3898,7 +3900,7 @@
       <c r="L29" s="2">
         <v>1048.7</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="1">
         <v>1.465416E-3</v>
       </c>
       <c r="N29">
@@ -3960,7 +3962,7 @@
       <c r="L30" s="2">
         <v>948.6</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="1">
         <v>-2.7391552999999999E-2</v>
       </c>
       <c r="N30">
@@ -4022,7 +4024,7 @@
       <c r="L31" s="2">
         <v>1143.2</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="1">
         <v>7.4671999999999998E-4</v>
       </c>
       <c r="N31">
@@ -4084,7 +4086,7 @@
       <c r="L32" s="2">
         <v>1029.5999999999999</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="1">
         <v>1.1396690000000001E-3</v>
       </c>
       <c r="N32">
@@ -4146,7 +4148,7 @@
       <c r="L33" s="2">
         <v>870.8</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="1">
         <v>6.5811500000000002E-4</v>
       </c>
       <c r="N33">
@@ -4208,7 +4210,7 @@
       <c r="L34" s="2">
         <v>731.3</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="1">
         <v>1.042304E-3</v>
       </c>
       <c r="N34">
@@ -4270,7 +4272,7 @@
       <c r="L35" s="2">
         <v>949.8</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="1">
         <v>1.5277769999999999E-3</v>
       </c>
       <c r="N35">
@@ -4332,7 +4334,7 @@
       <c r="L36" s="2">
         <v>875.9</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="1">
         <v>1.954538E-3</v>
       </c>
       <c r="N36">
@@ -4394,7 +4396,7 @@
       <c r="L37" s="2">
         <v>794</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="1">
         <v>5.3929609999999999E-3</v>
       </c>
       <c r="N37">
@@ -4456,7 +4458,7 @@
       <c r="L38" s="2">
         <v>701</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="1">
         <v>1.9208750000000001E-3</v>
       </c>
       <c r="N38">
@@ -4518,7 +4520,7 @@
       <c r="L39" s="2">
         <v>854.8</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="1">
         <v>1.0002559999999999E-3</v>
       </c>
       <c r="N39">
@@ -4580,7 +4582,7 @@
       <c r="L40" s="2">
         <v>900.5</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="1">
         <v>6.5863809999999997E-3</v>
       </c>
       <c r="N40">
@@ -4642,7 +4644,7 @@
       <c r="L41" s="2">
         <v>746.7</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="1">
         <v>0.19481158800000001</v>
       </c>
       <c r="N41">
@@ -4704,7 +4706,7 @@
       <c r="L42" s="2">
         <v>1619.8</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="1">
         <v>9.1566E-4</v>
       </c>
       <c r="N42">
@@ -4766,7 +4768,7 @@
       <c r="L43" s="2">
         <v>1457.4</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="1">
         <v>4.9496700000000002E-4</v>
       </c>
       <c r="N43">
@@ -4828,7 +4830,7 @@
       <c r="L44" s="2">
         <v>1258</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="1">
         <v>1.69637E-3</v>
       </c>
       <c r="N44">
@@ -4890,7 +4892,7 @@
       <c r="L45" s="2">
         <v>1132.3</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="1">
         <v>4.1318799999999999E-4</v>
       </c>
       <c r="N45">
@@ -4952,7 +4954,7 @@
       <c r="L46" s="2">
         <v>1513.7</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="1">
         <v>3.36762E-4</v>
       </c>
       <c r="N46">
@@ -5014,7 +5016,7 @@
       <c r="L47" s="2">
         <v>1372.7</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="1">
         <v>8.1059399999999998E-4</v>
       </c>
       <c r="N47">
@@ -5076,7 +5078,7 @@
       <c r="L48" s="2">
         <v>1207.8</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="1">
         <v>5.2893099999999995E-4</v>
       </c>
       <c r="N48">
@@ -5138,7 +5140,7 @@
       <c r="L49" s="2">
         <v>1114.2</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="1">
         <v>6.0665299999999997E-4</v>
       </c>
       <c r="N49">
@@ -5200,7 +5202,7 @@
       <c r="L50" s="2">
         <v>1261.8</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="1">
         <v>2.2005129999999999E-3</v>
       </c>
       <c r="N50">
@@ -5262,7 +5264,7 @@
       <c r="L51" s="2">
         <v>1092.3</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="1">
         <v>1.141134E-3</v>
       </c>
       <c r="N51">
@@ -5324,7 +5326,7 @@
       <c r="L52" s="2">
         <v>923.7</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="1">
         <v>3.4683219999999998E-3</v>
       </c>
       <c r="N52">
@@ -5386,7 +5388,7 @@
       <c r="L53" s="2">
         <v>783.5</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="1">
         <v>1.943696E-3</v>
       </c>
       <c r="N53">
@@ -5448,7 +5450,7 @@
       <c r="L54" s="2">
         <v>1154</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="1">
         <v>8.3777700000000005E-4</v>
       </c>
       <c r="N54">
@@ -5510,7 +5512,7 @@
       <c r="L55" s="2">
         <v>1051.0999999999999</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="1">
         <v>1.410609E-3</v>
       </c>
       <c r="N55">
@@ -5572,7 +5574,7 @@
       <c r="L56" s="2">
         <v>962.9</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="1">
         <v>1.2195470000000001E-3</v>
       </c>
       <c r="N56">
@@ -5634,7 +5636,7 @@
       <c r="L57" s="2">
         <v>776.1</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="1">
         <v>7.7659640000000002E-3</v>
       </c>
       <c r="N57">
@@ -5696,7 +5698,7 @@
       <c r="L58" s="2">
         <v>2624.7</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="1">
         <v>2.4845959999999999E-3</v>
       </c>
       <c r="N58">
@@ -5758,7 +5760,7 @@
       <c r="L59" s="2">
         <v>2698.6</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="1">
         <v>4.6134300000000002E-4</v>
       </c>
       <c r="N59">
@@ -5820,7 +5822,7 @@
       <c r="L60" s="2">
         <v>2694.3</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="1">
         <v>5.3950600000000004E-4</v>
       </c>
       <c r="N60">
@@ -5882,7 +5884,7 @@
       <c r="L61" s="2">
         <v>2675.8</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="1">
         <v>1.901767E-3</v>
       </c>
       <c r="N61">
@@ -5944,7 +5946,7 @@
       <c r="L62" s="2">
         <v>2625.6</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="1">
         <v>3.0523799999999999E-3</v>
       </c>
       <c r="N62">
@@ -6006,7 +6008,7 @@
       <c r="L63" s="2">
         <v>2694.9</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="1">
         <v>4.4554799999999998E-4</v>
       </c>
       <c r="N63">
@@ -6068,7 +6070,7 @@
       <c r="L64" s="2">
         <v>2694.9</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="1">
         <v>4.8303099999999998E-4</v>
       </c>
       <c r="N64">
@@ -6130,7 +6132,7 @@
       <c r="L65" s="2">
         <v>2694.9</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="1">
         <v>5.0698099999999999E-4</v>
       </c>
       <c r="N65">
@@ -6192,7 +6194,7 @@
       <c r="L66" s="2">
         <v>2684</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="1">
         <v>6.9034200000000004E-4</v>
       </c>
       <c r="N66">
@@ -6254,7 +6256,7 @@
       <c r="L67" s="2">
         <v>2639.6</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="1">
         <v>1.2276120000000001E-3</v>
       </c>
       <c r="N67">
@@ -6316,7 +6318,7 @@
       <c r="L68" s="2">
         <v>1791.2</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="1">
         <v>5.9762189999999996E-3</v>
       </c>
       <c r="N68">
@@ -6378,7 +6380,7 @@
       <c r="L69" s="2">
         <v>1922.1</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="1">
         <v>6.0042799999999996E-4</v>
       </c>
       <c r="N69">
@@ -6440,7 +6442,7 @@
       <c r="L70" s="2">
         <v>1851.4</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="1">
         <v>2.1918689999999999E-3</v>
       </c>
       <c r="N70">
@@ -6502,7 +6504,7 @@
       <c r="L71" s="2">
         <v>1763.4</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="1">
         <v>1.7139314999999999E-2</v>
       </c>
       <c r="N71">
@@ -6564,7 +6566,7 @@
       <c r="L72" s="2">
         <v>1695</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="1">
         <v>8.7404735999999997E-2</v>
       </c>
       <c r="N72">
@@ -6626,7 +6628,7 @@
       <c r="L73" s="2">
         <v>1869.6</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="1">
         <v>5.347643E-3</v>
       </c>
       <c r="N73">
@@ -6688,7 +6690,7 @@
       <c r="L74" s="2">
         <v>1844.8</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="1">
         <v>1.5416060000000001E-3</v>
       </c>
       <c r="N74">
@@ -6750,7 +6752,7 @@
       <c r="L75" s="2">
         <v>1842.2</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="1">
         <v>1.022958E-3</v>
       </c>
       <c r="N75">
@@ -6812,7 +6814,7 @@
       <c r="L76" s="2">
         <v>1813.7</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="1">
         <v>1.822827E-3</v>
       </c>
       <c r="N76">
@@ -6874,7 +6876,7 @@
       <c r="L77" s="2">
         <v>1815</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="1">
         <v>1.9712240000000002E-3</v>
       </c>
       <c r="N77">
@@ -6936,7 +6938,7 @@
       <c r="L78" s="2">
         <v>3297.7</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="1">
         <v>0.258366975</v>
       </c>
       <c r="N78">
@@ -6998,7 +7000,7 @@
       <c r="L79" s="2">
         <v>4667.2</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="1">
         <v>9.3044819999999993E-3</v>
       </c>
       <c r="N79">
@@ -7060,7 +7062,7 @@
       <c r="L80" s="2">
         <v>3919.9</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="1">
         <v>1.8919602000000001E-2</v>
       </c>
       <c r="N80">
@@ -7122,7 +7124,7 @@
       <c r="L81" s="2">
         <v>3375.8</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="1">
         <v>9.6413200000000004E-2</v>
       </c>
       <c r="N81">
@@ -7184,7 +7186,7 @@
       <c r="L82" s="2">
         <v>3048.1</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="1">
         <v>0.32532516900000003</v>
       </c>
       <c r="N82">
@@ -7246,7 +7248,7 @@
       <c r="L83" s="2">
         <v>4053.2</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="1">
         <v>6.4682693999999999E-2</v>
       </c>
       <c r="N83">
@@ -7308,7 +7310,7 @@
       <c r="L84" s="2">
         <v>3562.8</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="1">
         <v>0.11396108200000001</v>
       </c>
       <c r="N84">
@@ -7370,7 +7372,7 @@
       <c r="L85" s="2">
         <v>3144.1</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="1">
         <v>4.6743918000000002E-2</v>
       </c>
       <c r="N85">
@@ -7432,7 +7434,7 @@
       <c r="L86" s="2">
         <v>2944.8</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="1">
         <v>0.19892288999999999</v>
       </c>
       <c r="N86">
@@ -7494,7 +7496,7 @@
       <c r="L87" s="2">
         <v>3734.7</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="1">
         <v>5.1517751000000001E-2</v>
       </c>
       <c r="N87">
@@ -7556,7 +7558,7 @@
       <c r="L88" s="2">
         <v>2549.4</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="1">
         <v>1.0838311E-2</v>
       </c>
       <c r="N88">
@@ -7618,7 +7620,7 @@
       <c r="L89" s="2">
         <v>3468</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="1">
         <v>8.6530340000000004E-3</v>
       </c>
       <c r="N89">
@@ -7680,7 +7682,7 @@
       <c r="L90" s="2">
         <v>3008.2</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="1">
         <v>5.275292E-3</v>
       </c>
       <c r="N90">
@@ -7742,7 +7744,7 @@
       <c r="L91" s="2">
         <v>2537.5</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="1">
         <v>4.5403099999999997E-3</v>
       </c>
       <c r="N91">
@@ -7804,7 +7806,7 @@
       <c r="L92" s="2">
         <v>1928.5</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="1">
         <v>2.4782188E-2</v>
       </c>
       <c r="N92">
@@ -7866,7 +7868,7 @@
       <c r="L93" s="2">
         <v>3063.8</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="1">
         <v>0.10241750099999999</v>
       </c>
       <c r="N93">
@@ -7928,7 +7930,7 @@
       <c r="L94" s="2">
         <v>2675.5</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="1">
         <v>2.5347852000000001E-2</v>
       </c>
       <c r="N94">
@@ -7990,7 +7992,7 @@
       <c r="L95" s="2">
         <v>2304.6999999999998</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="1">
         <v>6.5031719999999998E-3</v>
       </c>
       <c r="N95">
@@ -8052,7 +8054,7 @@
       <c r="L96" s="2">
         <v>1842.4</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="1">
         <v>2.4442478E-2</v>
       </c>
       <c r="N96">
@@ -8114,7 +8116,7 @@
       <c r="L97" s="2">
         <v>2844</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="1">
         <v>3.3395187999999999E-2</v>
       </c>
       <c r="N97">
@@ -8176,7 +8178,7 @@
       <c r="L98" s="2">
         <v>2994.9</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="1">
         <v>0.31554000399999999</v>
       </c>
       <c r="N98">
@@ -8238,7 +8240,7 @@
       <c r="L99" s="2">
         <v>3516.9</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="1">
         <v>2.0853410000000001E-3</v>
       </c>
       <c r="N99">
@@ -8300,7 +8302,7 @@
       <c r="L100" s="2">
         <v>3221.6</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="1">
         <v>9.7037080000000001E-3</v>
       </c>
       <c r="N100">
@@ -8362,7 +8364,7 @@
       <c r="L101" s="2">
         <v>3008.4</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="1">
         <v>0.16766630799999999</v>
       </c>
       <c r="N101">
@@ -8424,7 +8426,7 @@
       <c r="L102" s="2">
         <v>2856.7</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="1">
         <v>0.300005362</v>
       </c>
       <c r="N102">
@@ -8486,7 +8488,7 @@
       <c r="L103" s="2">
         <v>3327.5</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="1">
         <v>1.0304436E-2</v>
       </c>
       <c r="N103">
@@ -8548,7 +8550,7 @@
       <c r="L104" s="2">
         <v>3310.5</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="1">
         <v>0.16706649900000001</v>
       </c>
       <c r="N104">
@@ -8610,7 +8612,7 @@
       <c r="L105" s="2">
         <v>3177.8</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="1">
         <v>4.4376750000000003E-3</v>
       </c>
       <c r="N105">
@@ -8672,7 +8674,7 @@
       <c r="L106" s="2">
         <v>3071</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="1">
         <v>0.31056451899999998</v>
       </c>
       <c r="N106">
@@ -8734,7 +8736,7 @@
       <c r="L107" s="2">
         <v>3074.8</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="1">
         <v>4.5129349999999999E-2</v>
       </c>
       <c r="N107">
@@ -8796,7 +8798,7 @@
       <c r="L108" s="2">
         <v>1990.2</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="1">
         <v>1.8939953999999998E-2</v>
       </c>
       <c r="N108">
@@ -8858,7 +8860,7 @@
       <c r="L109" s="2">
         <v>2797.4</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="1">
         <v>5.9688885999999997E-2</v>
       </c>
       <c r="N109">
@@ -8920,7 +8922,7 @@
       <c r="L110" s="2">
         <v>2481.6</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="1">
         <v>4.1412239999999998E-3</v>
       </c>
       <c r="N110">
@@ -8982,7 +8984,7 @@
       <c r="L111" s="2">
         <v>2229.1</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="1">
         <v>8.2329235000000001E-2</v>
       </c>
       <c r="N111">
@@ -9044,7 +9046,7 @@
       <c r="L112" s="2">
         <v>1854.8</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="1">
         <v>0.230770102</v>
       </c>
       <c r="N112">
@@ -9106,7 +9108,7 @@
       <c r="L113" s="2">
         <v>2491.4</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="1">
         <v>1.5439042E-2</v>
       </c>
       <c r="N113">
@@ -9168,7 +9170,7 @@
       <c r="L114" s="2">
         <v>2495.1</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="1">
         <v>6.3002371000000001E-2</v>
       </c>
       <c r="N114">
@@ -9230,7 +9232,7 @@
       <c r="L115" s="2">
         <v>2287.6999999999998</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="1">
         <v>5.4127082E-2</v>
       </c>
       <c r="N115">
@@ -9292,7 +9294,7 @@
       <c r="L116" s="2">
         <v>2151.1999999999998</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="1">
         <v>2.7130218000000001E-2</v>
       </c>
       <c r="N116">
@@ -9354,7 +9356,7 @@
       <c r="L117" s="2">
         <v>2086.6</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="1">
         <v>0.14858416799999999</v>
       </c>
       <c r="N117">
@@ -9416,7 +9418,7 @@
       <c r="L118" s="2">
         <v>6826.5</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="1">
         <v>1.3237764000000001E-2</v>
       </c>
       <c r="N118">
@@ -9478,7 +9480,7 @@
       <c r="L119" s="2">
         <v>7138.8</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="1">
         <v>9.0864099999999996E-4</v>
       </c>
       <c r="N119">
@@ -9540,7 +9542,7 @@
       <c r="L120" s="2">
         <v>7113.3</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="1">
         <v>3.28262E-3</v>
       </c>
       <c r="N120">
@@ -9602,7 +9604,7 @@
       <c r="L121" s="2">
         <v>6929.9</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="1">
         <v>1.2695242000000001E-2</v>
       </c>
       <c r="N121">
@@ -9664,7 +9666,7 @@
       <c r="L122" s="2">
         <v>6778.1</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="1">
         <v>2.2815185000000002E-2</v>
       </c>
       <c r="N122">
@@ -9726,7 +9728,7 @@
       <c r="L123" s="2">
         <v>7138.8</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="1">
         <v>1.382037E-3</v>
       </c>
       <c r="N123">
@@ -9788,7 +9790,7 @@
       <c r="L124" s="2">
         <v>7140.1</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="1">
         <v>1.2113650000000001E-3</v>
       </c>
       <c r="N124">
@@ -9850,7 +9852,7 @@
       <c r="L125" s="2">
         <v>7136.2</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="1">
         <v>1.5167900000000001E-3</v>
       </c>
       <c r="N125">
@@ -9912,7 +9914,7 @@
       <c r="L126" s="2">
         <v>7083</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="1">
         <v>2.384232E-3</v>
       </c>
       <c r="N126">
@@ -9974,7 +9976,7 @@
       <c r="L127" s="2">
         <v>6952</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="1">
         <v>0.39161459100000001</v>
       </c>
       <c r="N127">
@@ -10036,7 +10038,7 @@
       <c r="L128" s="2">
         <v>3665.1</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="1">
         <v>2.8655856E-2</v>
       </c>
       <c r="N128">
@@ -10098,7 +10100,7 @@
       <c r="L129" s="2">
         <v>4100.3</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="1">
         <v>1.7137649999999999E-3</v>
       </c>
       <c r="N129">
@@ -10160,7 +10162,7 @@
       <c r="L130" s="2">
         <v>3914.1</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="1">
         <v>3.4775790000000002E-3</v>
       </c>
       <c r="N130">
@@ -10222,7 +10224,7 @@
       <c r="L131" s="2">
         <v>3755.9</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="1">
         <v>2.8543799000000002E-2</v>
       </c>
       <c r="N131">
@@ -10284,7 +10286,7 @@
       <c r="L132" s="2">
         <v>3525</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="1">
         <v>7.5235238999999995E-2</v>
       </c>
       <c r="N132">
@@ -10346,7 +10348,7 @@
       <c r="L133" s="2">
         <v>3923.2</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="1">
         <v>5.2932120000000003E-3</v>
       </c>
       <c r="N133">
@@ -10408,7 +10410,7 @@
       <c r="L134" s="2">
         <v>3860.1</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="1">
         <v>5.4690320000000004E-3</v>
       </c>
       <c r="N134">
@@ -10470,7 +10472,7 @@
       <c r="L135" s="2">
         <v>3870.9</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="1">
         <v>1.2633554999999999E-2</v>
       </c>
       <c r="N135">
@@ -10532,7 +10534,7 @@
       <c r="L136" s="2">
         <v>3780.5</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="1">
         <v>0.12410363000000001</v>
       </c>
       <c r="N136">
@@ -10594,7 +10596,7 @@
       <c r="L137" s="2">
         <v>3842.1</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="1">
         <v>0.219766718</v>
       </c>
       <c r="N137">
@@ -10656,7 +10658,7 @@
       <c r="L138" s="2">
         <v>8098.9</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="1">
         <v>0.32679803699999999</v>
       </c>
       <c r="N138">
@@ -10718,7 +10720,7 @@
       <c r="L139" s="2">
         <v>10313.9</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="1">
         <v>9.9025527000000002E-2</v>
       </c>
       <c r="N139">
@@ -10780,7 +10782,7 @@
       <c r="L140" s="2">
         <v>8881.4</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="1">
         <v>6.9838768999999995E-2</v>
       </c>
       <c r="N140">
@@ -10842,7 +10844,7 @@
       <c r="L141" s="2">
         <v>7809.8</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="1">
         <v>0.50840400799999996</v>
       </c>
       <c r="N141">
@@ -10904,7 +10906,7 @@
       <c r="L142" s="2">
         <v>7278.9</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="1">
         <v>0.96722457900000003</v>
       </c>
       <c r="N142">
@@ -10966,7 +10968,7 @@
       <c r="L143" s="2">
         <v>9208.2999999999993</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="1">
         <v>0.107784053</v>
       </c>
       <c r="N143">
@@ -11028,7 +11030,7 @@
       <c r="L144" s="2">
         <v>8378.2000000000007</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="1">
         <v>0.63608348100000001</v>
       </c>
       <c r="N144">
@@ -11090,7 +11092,7 @@
       <c r="L145" s="2">
         <v>7631.8</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="1">
         <v>1.223705869</v>
       </c>
       <c r="N145">
@@ -11152,7 +11154,7 @@
       <c r="L146" s="2">
         <v>7276.6</v>
       </c>
-      <c r="M146">
+      <c r="M146" s="1">
         <v>0.94751412199999996</v>
       </c>
       <c r="N146">
@@ -11214,7 +11216,7 @@
       <c r="L147" s="2">
         <v>8716.2000000000007</v>
       </c>
-      <c r="M147">
+      <c r="M147" s="1">
         <v>0.68181846400000001</v>
       </c>
       <c r="N147">
@@ -11276,7 +11278,7 @@
       <c r="L148" s="2">
         <v>5668.8</v>
       </c>
-      <c r="M148">
+      <c r="M148" s="1">
         <v>0.40881667500000002</v>
       </c>
       <c r="N148">
@@ -11338,7 +11340,7 @@
       <c r="L149" s="2">
         <v>7534</v>
       </c>
-      <c r="M149">
+      <c r="M149" s="1">
         <v>0.21008089099999999</v>
       </c>
       <c r="N149">
@@ -11400,7 +11402,7 @@
       <c r="L150" s="2">
         <v>6488.4</v>
       </c>
-      <c r="M150">
+      <c r="M150" s="1">
         <v>0.115565469</v>
       </c>
       <c r="N150">
@@ -11462,7 +11464,7 @@
       <c r="L151" s="2">
         <v>5378.1</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="1">
         <v>4.973495E-2</v>
       </c>
       <c r="N151">
@@ -11524,7 +11526,7 @@
       <c r="L152" s="2">
         <v>4213.7</v>
       </c>
-      <c r="M152">
+      <c r="M152" s="1">
         <v>0.28667216899999998</v>
       </c>
       <c r="N152">
@@ -11586,7 +11588,7 @@
       <c r="L153" s="2">
         <v>6581.3</v>
       </c>
-      <c r="M153">
+      <c r="M153" s="1">
         <v>0.62964879299999998</v>
       </c>
       <c r="N153">
@@ -11648,7 +11650,7 @@
       <c r="L154" s="2">
         <v>5818.3</v>
       </c>
-      <c r="M154">
+      <c r="M154" s="1">
         <v>-4.065883E-2</v>
       </c>
       <c r="N154">
@@ -11710,7 +11712,7 @@
       <c r="L155" s="2">
         <v>4893.5</v>
       </c>
-      <c r="M155">
+      <c r="M155" s="1">
         <v>5.9416439000000001E-2</v>
       </c>
       <c r="N155">
@@ -11772,7 +11774,7 @@
       <c r="L156" s="2">
         <v>4007.5</v>
       </c>
-      <c r="M156">
+      <c r="M156" s="1">
         <v>0.25767053699999998</v>
       </c>
       <c r="N156">
@@ -11834,7 +11836,7 @@
       <c r="L157" s="2">
         <v>6080</v>
       </c>
-      <c r="M157">
+      <c r="M157" s="1">
         <v>0.199561659</v>
       </c>
       <c r="N157">
@@ -11896,7 +11898,7 @@
       <c r="L158" s="2">
         <v>7609.2</v>
       </c>
-      <c r="M158">
+      <c r="M158" s="1">
         <v>0.39107661900000001</v>
       </c>
       <c r="N158">
@@ -11958,7 +11960,7 @@
       <c r="L159" s="2">
         <v>8551.6</v>
       </c>
-      <c r="M159">
+      <c r="M159" s="1">
         <v>0.10483136699999999</v>
       </c>
       <c r="N159">
@@ -12020,7 +12022,7 @@
       <c r="L160" s="2">
         <v>7924.7</v>
       </c>
-      <c r="M160">
+      <c r="M160" s="1">
         <v>0.56810266200000004</v>
       </c>
       <c r="N160">
@@ -12082,7 +12084,7 @@
       <c r="L161" s="2">
         <v>7563.1</v>
       </c>
-      <c r="M161">
+      <c r="M161" s="1">
         <v>0.63249663700000003</v>
       </c>
       <c r="N161">
@@ -12144,7 +12146,7 @@
       <c r="L162" s="2">
         <v>7305.6</v>
       </c>
-      <c r="M162">
+      <c r="M162" s="1">
         <v>0.84279250000000006</v>
       </c>
       <c r="N162">
@@ -12206,7 +12208,7 @@
       <c r="L163" s="2">
         <v>8205.1</v>
       </c>
-      <c r="M163">
+      <c r="M163" s="1">
         <v>0.48430202100000003</v>
       </c>
       <c r="N163">
@@ -12268,7 +12270,7 @@
       <c r="L164" s="2">
         <v>8196.5</v>
       </c>
-      <c r="M164">
+      <c r="M164" s="1">
         <v>0.54105857099999999</v>
       </c>
       <c r="N164">
@@ -12330,7 +12332,7 @@
       <c r="L165" s="2">
         <v>7965.2</v>
       </c>
-      <c r="M165">
+      <c r="M165" s="1">
         <v>0.672842104</v>
       </c>
       <c r="N165">
@@ -12392,7 +12394,7 @@
       <c r="L166" s="2">
         <v>7788.2</v>
       </c>
-      <c r="M166">
+      <c r="M166" s="1">
         <v>0.32832280699999999</v>
       </c>
       <c r="N166">
@@ -12454,7 +12456,7 @@
       <c r="L167" s="2">
         <v>7758.6</v>
       </c>
-      <c r="M167">
+      <c r="M167" s="1">
         <v>0.67382695599999998</v>
       </c>
       <c r="N167">
@@ -12516,7 +12518,7 @@
       <c r="L168" s="2">
         <v>4272.8999999999996</v>
       </c>
-      <c r="M168">
+      <c r="M168" s="1">
         <v>0.70026995999999997</v>
       </c>
       <c r="N168">
@@ -12578,7 +12580,7 @@
       <c r="L169" s="2">
         <v>6147.3</v>
       </c>
-      <c r="M169">
+      <c r="M169" s="1">
         <v>5.3594972999999997E-2</v>
       </c>
       <c r="N169">
@@ -12640,7 +12642,7 @@
       <c r="L170" s="2">
         <v>5407.5</v>
       </c>
-      <c r="M170">
+      <c r="M170" s="1">
         <v>1.8297257000000001E-2</v>
       </c>
       <c r="N170">
@@ -12702,7 +12704,7 @@
       <c r="L171" s="2">
         <v>4573</v>
       </c>
-      <c r="M171">
+      <c r="M171" s="1">
         <v>0.110233703</v>
       </c>
       <c r="N171">
@@ -12764,7 +12766,7 @@
       <c r="L172" s="2">
         <v>3597.9</v>
       </c>
-      <c r="M172">
+      <c r="M172" s="1">
         <v>5.9967101000000002E-2</v>
       </c>
       <c r="N172">
@@ -12826,7 +12828,7 @@
       <c r="L173" s="2">
         <v>5394.7</v>
       </c>
-      <c r="M173">
+      <c r="M173" s="1">
         <v>2.5857316000000002E-2</v>
       </c>
       <c r="N173">
@@ -12888,7 +12890,7 @@
       <c r="L174" s="2">
         <v>5328.1</v>
       </c>
-      <c r="M174">
+      <c r="M174" s="1">
         <v>-4.1274292999999997E-2</v>
       </c>
       <c r="N174">
@@ -12950,7 +12952,7 @@
       <c r="L175" s="2">
         <v>4987.8</v>
       </c>
-      <c r="M175">
+      <c r="M175" s="1">
         <v>0.102241738</v>
       </c>
       <c r="N175">
@@ -13012,7 +13014,7 @@
       <c r="L176" s="2">
         <v>4703.1000000000004</v>
       </c>
-      <c r="M176">
+      <c r="M176" s="1">
         <v>-3.8114516000000001E-2</v>
       </c>
       <c r="N176">
@@ -13074,7 +13076,7 @@
       <c r="L177" s="2">
         <v>4524.8999999999996</v>
       </c>
-      <c r="M177">
+      <c r="M177" s="1">
         <v>0.37389177299999998</v>
       </c>
       <c r="N177">
@@ -13136,7 +13138,7 @@
       <c r="L178" s="2">
         <v>13643.7</v>
       </c>
-      <c r="M178">
+      <c r="M178" s="1">
         <v>6.1018412000000001E-2</v>
       </c>
       <c r="N178">
@@ -13198,7 +13200,7 @@
       <c r="L179" s="2">
         <v>14076.6</v>
       </c>
-      <c r="M179">
+      <c r="M179" s="1">
         <v>6.3149210000000002E-3</v>
       </c>
       <c r="N179">
@@ -13260,7 +13262,7 @@
       <c r="L180" s="2">
         <v>13953</v>
       </c>
-      <c r="M180">
+      <c r="M180" s="1">
         <v>9.9743350000000008E-3</v>
       </c>
       <c r="N180">
@@ -13322,7 +13324,7 @@
       <c r="L181" s="2">
         <v>13757</v>
       </c>
-      <c r="M181">
+      <c r="M181" s="1">
         <v>2.2745523E-2</v>
       </c>
       <c r="N181">
@@ -13384,7 +13386,7 @@
       <c r="L182" s="2">
         <v>13573.1</v>
       </c>
-      <c r="M182">
+      <c r="M182" s="1">
         <v>5.7581430000000003E-2</v>
       </c>
       <c r="N182">
@@ -13446,7 +13448,7 @@
       <c r="L183" s="2">
         <v>14066.8</v>
       </c>
-      <c r="M183">
+      <c r="M183" s="1">
         <v>6.7232339999999998E-3</v>
       </c>
       <c r="N183">
@@ -13508,7 +13510,7 @@
       <c r="L184" s="2">
         <v>14070.9</v>
       </c>
-      <c r="M184">
+      <c r="M184" s="1">
         <v>7.7740229999999997E-3</v>
       </c>
       <c r="N184">
@@ -13570,7 +13572,7 @@
       <c r="L185" s="2">
         <v>14066.8</v>
       </c>
-      <c r="M185">
+      <c r="M185" s="1">
         <v>1.1194661E-2</v>
       </c>
       <c r="N185">
@@ -13632,7 +13634,7 @@
       <c r="L186" s="2">
         <v>13992</v>
       </c>
-      <c r="M186">
+      <c r="M186" s="1">
         <v>6.1291166000000001E-2</v>
       </c>
       <c r="N186">
@@ -13694,7 +13696,7 @@
       <c r="L187" s="2">
         <v>13695.2</v>
       </c>
-      <c r="M187">
+      <c r="M187" s="1">
         <v>-0.14096978399999999</v>
       </c>
       <c r="N187">
@@ -13756,7 +13758,7 @@
       <c r="L188" s="2">
         <v>7139</v>
       </c>
-      <c r="M188">
+      <c r="M188" s="1">
         <v>0.207514113</v>
       </c>
       <c r="N188">
@@ -13818,7 +13820,7 @@
       <c r="L189" s="2">
         <v>7752.2</v>
       </c>
-      <c r="M189">
+      <c r="M189" s="1">
         <v>7.3086760000000001E-3</v>
       </c>
       <c r="N189">
@@ -13880,7 +13882,7 @@
       <c r="L190" s="2">
         <v>7471.5</v>
       </c>
-      <c r="M190">
+      <c r="M190" s="1">
         <v>1.4515447000000001E-2</v>
       </c>
       <c r="N190">
@@ -13942,7 +13944,7 @@
       <c r="L191" s="2">
         <v>7215</v>
       </c>
-      <c r="M191">
+      <c r="M191" s="1">
         <v>5.2188342999999998E-2</v>
       </c>
       <c r="N191">
@@ -14004,7 +14006,7 @@
       <c r="L192" s="2">
         <v>6891.1</v>
       </c>
-      <c r="M192">
+      <c r="M192" s="1">
         <v>0.52919857000000003</v>
       </c>
       <c r="N192">
@@ -14066,7 +14068,7 @@
       <c r="L193" s="2">
         <v>7553.8</v>
       </c>
-      <c r="M193">
+      <c r="M193" s="1">
         <v>5.5558586E-2</v>
       </c>
       <c r="N193">
@@ -14128,7 +14130,7 @@
       <c r="L194" s="2">
         <v>7455.4</v>
       </c>
-      <c r="M194">
+      <c r="M194" s="1">
         <v>2.7236832999999998E-2</v>
       </c>
       <c r="N194">
@@ -14190,7 +14192,7 @@
       <c r="L195" s="2">
         <v>7499.4</v>
       </c>
-      <c r="M195">
+      <c r="M195" s="1">
         <v>0.31081599999999998</v>
       </c>
       <c r="N195">
@@ -14252,7 +14254,7 @@
       <c r="L196" s="2">
         <v>7315.3</v>
       </c>
-      <c r="M196">
+      <c r="M196" s="1">
         <v>4.9083202999999999E-2</v>
       </c>
       <c r="N196">
@@ -14314,7 +14316,7 @@
       <c r="L197" s="2">
         <v>7313.2</v>
       </c>
-      <c r="M197">
+      <c r="M197" s="1">
         <v>4.5827502999999999E-2</v>
       </c>
       <c r="N197">
@@ -14376,7 +14378,7 @@
       <c r="L198" s="2">
         <v>17679.3</v>
       </c>
-      <c r="M198">
+      <c r="M198" s="1">
         <v>1.2684937270000001</v>
       </c>
       <c r="N198">
@@ -14438,7 +14440,7 @@
       <c r="L199" s="2">
         <v>21311.200000000001</v>
       </c>
-      <c r="M199">
+      <c r="M199" s="1">
         <v>0.64732944599999998</v>
       </c>
       <c r="N199">
@@ -14500,7 +14502,7 @@
       <c r="L200" s="2">
         <v>18578.099999999999</v>
       </c>
-      <c r="M200">
+      <c r="M200" s="1">
         <v>2.078188291</v>
       </c>
       <c r="N200">
@@ -14562,7 +14564,7 @@
       <c r="L201" s="2">
         <v>16983.3</v>
       </c>
-      <c r="M201">
+      <c r="M201" s="1">
         <v>2.3784284389999999</v>
       </c>
       <c r="N201">
@@ -14624,7 +14626,7 @@
       <c r="L202" s="2">
         <v>15925.5</v>
       </c>
-      <c r="M202">
+      <c r="M202" s="1">
         <v>2.9575519039999998</v>
       </c>
       <c r="N202">
@@ -14686,7 +14688,7 @@
       <c r="L203" s="2">
         <v>19369.400000000001</v>
       </c>
-      <c r="M203">
+      <c r="M203" s="1">
         <v>1.080138278</v>
       </c>
       <c r="N203">
@@ -14748,7 +14750,7 @@
       <c r="L204" s="2">
         <v>17818.3</v>
       </c>
-      <c r="M204">
+      <c r="M204" s="1">
         <v>3.5617491999999999</v>
       </c>
       <c r="N204">
@@ -14810,7 +14812,7 @@
       <c r="L205" s="2">
         <v>16615.400000000001</v>
       </c>
-      <c r="M205">
+      <c r="M205" s="1">
         <v>3.797648535</v>
       </c>
       <c r="N205">
@@ -14872,7 +14874,7 @@
       <c r="L206" s="2">
         <v>15742.4</v>
       </c>
-      <c r="M206">
+      <c r="M206" s="1">
         <v>3.6021331980000002</v>
       </c>
       <c r="N206">
@@ -14934,7 +14936,7 @@
       <c r="L207" s="2">
         <v>18537.599999999999</v>
       </c>
-      <c r="M207">
+      <c r="M207" s="1">
         <v>1.6367299799999999</v>
       </c>
       <c r="N207">
@@ -14996,7 +14998,7 @@
       <c r="L208" s="2">
         <v>11859.3</v>
       </c>
-      <c r="M208">
+      <c r="M208" s="1">
         <v>0.68977112900000004</v>
       </c>
       <c r="N208">
@@ -15058,7 +15060,7 @@
       <c r="L209" s="2">
         <v>15154.8</v>
       </c>
-      <c r="M209">
+      <c r="M209" s="1">
         <v>0.86133888300000006</v>
       </c>
       <c r="N209">
@@ -15120,7 +15122,7 @@
       <c r="L210" s="2">
         <v>13009.3</v>
       </c>
-      <c r="M210">
+      <c r="M210" s="1">
         <v>0.79483603000000003</v>
       </c>
       <c r="N210">
@@ -15182,7 +15184,7 @@
       <c r="L211" s="2">
         <v>10465.4</v>
       </c>
-      <c r="M211">
+      <c r="M211" s="1">
         <v>0.59524518699999995</v>
       </c>
       <c r="N211">
@@ -15244,7 +15246,7 @@
       <c r="L212" s="2">
         <v>7945</v>
       </c>
-      <c r="M212">
+      <c r="M212" s="1">
         <v>0.75424637000000005</v>
       </c>
       <c r="N212">
@@ -15306,7 +15308,7 @@
       <c r="L213" s="2">
         <v>13837.6</v>
       </c>
-      <c r="M213">
+      <c r="M213" s="1">
         <v>0.82092548399999998</v>
       </c>
       <c r="N213">
@@ -15368,7 +15370,7 @@
       <c r="L214" s="2">
         <v>11905.9</v>
       </c>
-      <c r="M214">
+      <c r="M214" s="1">
         <v>0.75117774900000001</v>
       </c>
       <c r="N214">
@@ -15430,7 +15432,7 @@
       <c r="L215" s="2">
         <v>9786.6</v>
       </c>
-      <c r="M215">
+      <c r="M215" s="1">
         <v>0.12251928600000001</v>
       </c>
       <c r="N215">
@@ -15492,7 +15494,7 @@
       <c r="L216" s="2">
         <v>7534.6</v>
       </c>
-      <c r="M216">
+      <c r="M216" s="1">
         <v>1.7009579050000001</v>
       </c>
       <c r="N216">
@@ -15554,7 +15556,7 @@
       <c r="L217" s="2">
         <v>12778.9</v>
       </c>
-      <c r="M217">
+      <c r="M217" s="1">
         <v>0.46840830100000003</v>
       </c>
       <c r="N217">
@@ -15616,7 +15618,7 @@
       <c r="L218" s="2">
         <v>15803.7</v>
       </c>
-      <c r="M218">
+      <c r="M218" s="1">
         <v>2.914227624</v>
       </c>
       <c r="N218">
@@ -15678,7 +15680,7 @@
       <c r="L219" s="2">
         <v>17053.5</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="1">
         <v>1.4525790409999999</v>
       </c>
       <c r="N219">
@@ -15740,7 +15742,7 @@
       <c r="L220" s="2">
         <v>16001.2</v>
       </c>
-      <c r="M220">
+      <c r="M220" s="1">
         <v>1.944684077</v>
       </c>
       <c r="N220">
@@ -15802,7 +15804,7 @@
       <c r="L221" s="2">
         <v>15333.7</v>
       </c>
-      <c r="M221">
+      <c r="M221" s="1">
         <v>3.3003852710000001</v>
       </c>
       <c r="N221">
@@ -15864,7 +15866,7 @@
       <c r="L222" s="2">
         <v>14887.9</v>
       </c>
-      <c r="M222">
+      <c r="M222" s="1">
         <v>3.805485537</v>
       </c>
       <c r="N222">
@@ -15926,7 +15928,7 @@
       <c r="L223" s="2">
         <v>16659.8</v>
       </c>
-      <c r="M223">
+      <c r="M223" s="1">
         <v>2.3545867409999999</v>
       </c>
       <c r="N223">
@@ -15988,7 +15990,7 @@
       <c r="L224" s="2">
         <v>16621.900000000001</v>
       </c>
-      <c r="M224">
+      <c r="M224" s="1">
         <v>1.944818079</v>
       </c>
       <c r="N224">
@@ -16050,7 +16052,7 @@
       <c r="L225" s="2">
         <v>16166.5</v>
       </c>
-      <c r="M225">
+      <c r="M225" s="1">
         <v>2.6170015009999998</v>
       </c>
       <c r="N225">
@@ -16112,7 +16114,7 @@
       <c r="L226" s="2">
         <v>16043.4</v>
       </c>
-      <c r="M226">
+      <c r="M226" s="1">
         <v>1.9249173100000001</v>
       </c>
       <c r="N226">
@@ -16174,7 +16176,7 @@
       <c r="L227" s="2">
         <v>15986.2</v>
       </c>
-      <c r="M227">
+      <c r="M227" s="1">
         <v>1.8223039670000001</v>
       </c>
       <c r="N227">
@@ -16236,7 +16238,7 @@
       <c r="L228" s="2">
         <v>8989.9</v>
       </c>
-      <c r="M228">
+      <c r="M228" s="1">
         <v>0.13791994499999999</v>
       </c>
       <c r="N228">
@@ -16298,7 +16300,7 @@
       <c r="L229" s="2">
         <v>11989.7</v>
       </c>
-      <c r="M229">
+      <c r="M229" s="1">
         <v>-3.6108744999999998E-2</v>
       </c>
       <c r="N229">
@@ -16360,7 +16362,7 @@
       <c r="L230" s="2">
         <v>10375.700000000001</v>
       </c>
-      <c r="M230">
+      <c r="M230" s="1">
         <v>0.21660653199999999</v>
       </c>
       <c r="N230">
@@ -16422,7 +16424,7 @@
       <c r="L231" s="2">
         <v>8895.2000000000007</v>
       </c>
-      <c r="M231">
+      <c r="M231" s="1">
         <v>7.0357522000000006E-2</v>
       </c>
       <c r="N231">
@@ -16484,7 +16486,7 @@
       <c r="L232" s="2">
         <v>6985</v>
       </c>
-      <c r="M232">
+      <c r="M232" s="1">
         <v>0.168804651</v>
       </c>
       <c r="N232">
@@ -16546,7 +16548,7 @@
       <c r="L233" s="2">
         <v>11080.7</v>
       </c>
-      <c r="M233">
+      <c r="M233" s="1">
         <v>8.4380212999999996E-2</v>
       </c>
       <c r="N233">
@@ -16608,7 +16610,7 @@
       <c r="L234" s="2">
         <v>10862.6</v>
       </c>
-      <c r="M234">
+      <c r="M234" s="1">
         <v>0.11953736500000001</v>
       </c>
       <c r="N234">
@@ -16670,7 +16672,7 @@
       <c r="L235" s="2">
         <v>10308.6</v>
       </c>
-      <c r="M235">
+      <c r="M235" s="1">
         <v>-2.4474860000000001E-2</v>
       </c>
       <c r="N235">
@@ -16732,7 +16734,7 @@
       <c r="L236" s="2">
         <v>9814.7000000000007</v>
       </c>
-      <c r="M236">
+      <c r="M236" s="1">
         <v>-3.1419310000000002E-3</v>
       </c>
       <c r="N236">
@@ -16794,7 +16796,7 @@
       <c r="L237" s="2">
         <v>9472.2000000000007</v>
       </c>
-      <c r="M237">
+      <c r="M237" s="1">
         <v>0.299029394</v>
       </c>
       <c r="N237">
@@ -16856,7 +16858,7 @@
       <c r="L238" s="2">
         <v>24098.799999999999</v>
       </c>
-      <c r="M238">
+      <c r="M238" s="1">
         <v>0.38659912600000002</v>
       </c>
       <c r="N238">
@@ -16918,7 +16920,7 @@
       <c r="L239" s="2">
         <v>25156.9</v>
       </c>
-      <c r="M239">
+      <c r="M239" s="1">
         <v>7.5782109999999996E-3</v>
       </c>
       <c r="N239">
@@ -16980,7 +16982,7 @@
       <c r="L240" s="2">
         <v>24993.5</v>
       </c>
-      <c r="M240">
+      <c r="M240" s="1">
         <v>6.4027042000000006E-2</v>
       </c>
       <c r="N240">
@@ -17042,7 +17044,7 @@
       <c r="L241" s="2">
         <v>24292.6</v>
       </c>
-      <c r="M241">
+      <c r="M241" s="1">
         <v>0.49579274200000001</v>
       </c>
       <c r="N241">
@@ -17104,7 +17106,7 @@
       <c r="L242" s="2">
         <v>23853.8</v>
       </c>
-      <c r="M242">
+      <c r="M242" s="1">
         <v>0.53559251299999999</v>
       </c>
       <c r="N242">
@@ -17166,7 +17168,7 @@
       <c r="L243" s="2">
         <v>25138.6</v>
       </c>
-      <c r="M243">
+      <c r="M243" s="1">
         <v>1.0685342E-2</v>
       </c>
       <c r="N243">
@@ -17228,7 +17230,7 @@
       <c r="L244" s="2">
         <v>25133.3</v>
       </c>
-      <c r="M244">
+      <c r="M244" s="1">
         <v>1.1921806E-2</v>
       </c>
       <c r="N244">
@@ -17290,7 +17292,7 @@
       <c r="L245" s="2">
         <v>25127.3</v>
       </c>
-      <c r="M245">
+      <c r="M245" s="1">
         <v>1.718445E-2</v>
       </c>
       <c r="N245">
@@ -17352,7 +17354,7 @@
       <c r="L246" s="2">
         <v>24881.4</v>
       </c>
-      <c r="M246">
+      <c r="M246" s="1">
         <v>-5.2695831999999998E-2</v>
       </c>
       <c r="N246">
@@ -17414,7 +17416,7 @@
       <c r="L247" s="2">
         <v>24296.5</v>
       </c>
-      <c r="M247">
+      <c r="M247" s="1">
         <v>0.33103639899999998</v>
       </c>
       <c r="N247">
@@ -17476,7 +17478,7 @@
       <c r="L248" s="2">
         <v>10955.9</v>
       </c>
-      <c r="M248">
+      <c r="M248" s="1">
         <v>0.14696488899999999</v>
       </c>
       <c r="N248">
@@ -17538,7 +17540,7 @@
       <c r="L249" s="2">
         <v>11631.9</v>
       </c>
-      <c r="M249">
+      <c r="M249" s="1">
         <v>1.3932313E-2</v>
       </c>
       <c r="N249">
@@ -17600,7 +17602,7 @@
       <c r="L250" s="2">
         <v>11395.4</v>
       </c>
-      <c r="M250">
+      <c r="M250" s="1">
         <v>3.4963235000000002E-2</v>
       </c>
       <c r="N250">
@@ -17662,7 +17664,7 @@
       <c r="L251" s="2">
         <v>11141.3</v>
       </c>
-      <c r="M251">
+      <c r="M251" s="1">
         <v>7.9925652E-2</v>
       </c>
       <c r="N251">
@@ -17724,7 +17726,7 @@
       <c r="L252" s="2">
         <v>10697.6</v>
       </c>
-      <c r="M252">
+      <c r="M252" s="1">
         <v>0.30813395900000001</v>
       </c>
       <c r="N252">
@@ -17786,7 +17788,7 @@
       <c r="L253" s="2">
         <v>11406.9</v>
       </c>
-      <c r="M253">
+      <c r="M253" s="1">
         <v>3.2055585999999997E-2</v>
       </c>
       <c r="N253">
@@ -17848,7 +17850,7 @@
       <c r="L254" s="2">
         <v>11319.1</v>
       </c>
-      <c r="M254">
+      <c r="M254" s="1">
         <v>0.13520928500000001</v>
       </c>
       <c r="N254">
@@ -17910,7 +17912,7 @@
       <c r="L255" s="2">
         <v>11336.1</v>
       </c>
-      <c r="M255">
+      <c r="M255" s="1">
         <v>8.4637559000000001E-2</v>
       </c>
       <c r="N255">
@@ -17972,7 +17974,7 @@
       <c r="L256" s="2">
         <v>11166.5</v>
       </c>
-      <c r="M256">
+      <c r="M256" s="1">
         <v>0.10644655</v>
       </c>
       <c r="N256">
@@ -18034,7 +18036,7 @@
       <c r="L257" s="2">
         <v>11145.3</v>
       </c>
-      <c r="M257">
+      <c r="M257" s="1">
         <v>5.5730268999999999E-2</v>
       </c>
       <c r="N257">
@@ -18096,7 +18098,7 @@
       <c r="L258" s="2">
         <v>31313</v>
       </c>
-      <c r="M258">
+      <c r="M258" s="1">
         <v>1.336231317</v>
       </c>
       <c r="N258">
@@ -18158,7 +18160,7 @@
       <c r="L259" s="2">
         <v>36467.599999999999</v>
       </c>
-      <c r="M259">
+      <c r="M259" s="1">
         <v>0.51405739500000003</v>
       </c>
       <c r="N259">
@@ -18220,7 +18222,7 @@
       <c r="L260" s="2">
         <v>32411.1</v>
       </c>
-      <c r="M260">
+      <c r="M260" s="1">
         <v>1.5153793739999999</v>
       </c>
       <c r="N260">
@@ -18282,7 +18284,7 @@
       <c r="L261" s="2">
         <v>29589.200000000001</v>
       </c>
-      <c r="M261">
+      <c r="M261" s="1">
         <v>2.436983439</v>
       </c>
       <c r="N261">
@@ -18344,7 +18346,7 @@
       <c r="L262" s="2">
         <v>28089.4</v>
       </c>
-      <c r="M262">
+      <c r="M262" s="1">
         <v>3.0766752159999999</v>
       </c>
       <c r="N262">
@@ -18406,7 +18408,7 @@
       <c r="L263" s="2">
         <v>33670.6</v>
       </c>
-      <c r="M263">
+      <c r="M263" s="1">
         <v>0.94586339399999997</v>
       </c>
       <c r="N263">
@@ -18468,7 +18470,7 @@
       <c r="L264" s="2">
         <v>31159.4</v>
       </c>
-      <c r="M264">
+      <c r="M264" s="1">
         <v>2.1053624399999999</v>
       </c>
       <c r="N264">
@@ -18530,7 +18532,7 @@
       <c r="L265" s="2">
         <v>29192.9</v>
       </c>
-      <c r="M265">
+      <c r="M265" s="1">
         <v>2.908374539</v>
       </c>
       <c r="N265">
@@ -18592,7 +18594,7 @@
       <c r="L266" s="2">
         <v>27876.799999999999</v>
       </c>
-      <c r="M266">
+      <c r="M266" s="1">
         <v>2.8984582940000001</v>
       </c>
       <c r="N266">
@@ -18654,7 +18656,7 @@
       <c r="L267" s="2">
         <v>32610</v>
       </c>
-      <c r="M267">
+      <c r="M267" s="1">
         <v>1.298865186</v>
       </c>
       <c r="N267">
@@ -18716,7 +18718,7 @@
       <c r="L268" s="2">
         <v>20056.7</v>
       </c>
-      <c r="M268">
+      <c r="M268" s="1">
         <v>0.309044557</v>
       </c>
       <c r="N268">
@@ -18778,7 +18780,7 @@
       <c r="L269" s="2">
         <v>25084.1</v>
       </c>
-      <c r="M269">
+      <c r="M269" s="1">
         <v>0.371408342</v>
       </c>
       <c r="N269">
@@ -18840,7 +18842,7 @@
       <c r="L270" s="2">
         <v>21322.400000000001</v>
       </c>
-      <c r="M270">
+      <c r="M270" s="1">
         <v>0.29420647700000002</v>
       </c>
       <c r="N270">
@@ -18902,7 +18904,7 @@
       <c r="L271" s="2">
         <v>17266</v>
       </c>
-      <c r="M271">
+      <c r="M271" s="1">
         <v>0.64045262800000002</v>
       </c>
       <c r="N271">
@@ -18964,7 +18966,7 @@
       <c r="L272" s="2">
         <v>13277.2</v>
       </c>
-      <c r="M272">
+      <c r="M272" s="1">
         <v>1.885062217</v>
       </c>
       <c r="N272">
@@ -19026,7 +19028,7 @@
       <c r="L273" s="2">
         <v>22826.5</v>
       </c>
-      <c r="M273">
+      <c r="M273" s="1">
         <v>0.44819930600000002</v>
       </c>
       <c r="N273">
@@ -19088,7 +19090,7 @@
       <c r="L274" s="2">
         <v>19774</v>
       </c>
-      <c r="M274">
+      <c r="M274" s="1">
         <v>0.428251349</v>
       </c>
       <c r="N274">
@@ -19150,7 +19152,7 @@
       <c r="L275" s="2">
         <v>16426.7</v>
       </c>
-      <c r="M275">
+      <c r="M275" s="1">
         <v>0.310721419</v>
       </c>
       <c r="N275">
@@ -19212,7 +19214,7 @@
       <c r="L276" s="2">
         <v>12815.3</v>
       </c>
-      <c r="M276">
+      <c r="M276" s="1">
         <v>2.564927784</v>
       </c>
       <c r="N276">
@@ -19274,7 +19276,7 @@
       <c r="L277" s="2">
         <v>21510</v>
       </c>
-      <c r="M277">
+      <c r="M277" s="1">
         <v>0.53149581000000001</v>
       </c>
       <c r="N277">
@@ -19336,7 +19338,7 @@
       <c r="L278" s="2">
         <v>28361.200000000001</v>
       </c>
-      <c r="M278">
+      <c r="M278" s="1">
         <v>2.0827217770000002</v>
       </c>
       <c r="N278">
@@ -19398,7 +19400,7 @@
       <c r="L279" s="2">
         <v>30223.5</v>
       </c>
-      <c r="M279">
+      <c r="M279" s="1">
         <v>1.0995049079999999</v>
       </c>
       <c r="N279">
@@ -19460,7 +19462,7 @@
       <c r="L280" s="2">
         <v>28492.3</v>
       </c>
-      <c r="M280">
+      <c r="M280" s="1">
         <v>1.9612836279999999</v>
       </c>
       <c r="N280">
@@ -19522,7 +19524,7 @@
       <c r="L281" s="2">
         <v>27730.1</v>
       </c>
-      <c r="M281">
+      <c r="M281" s="1">
         <v>2.543791599</v>
       </c>
       <c r="N281">
@@ -19584,7 +19586,7 @@
       <c r="L282" s="2">
         <v>26797.9</v>
       </c>
-      <c r="M282">
+      <c r="M282" s="1">
         <v>2.5584165959999998</v>
       </c>
       <c r="N282">
@@ -19646,7 +19648,7 @@
       <c r="L283" s="2">
         <v>29423.9</v>
       </c>
-      <c r="M283">
+      <c r="M283" s="1">
         <v>0.98882527499999995</v>
       </c>
       <c r="N283">
@@ -19708,7 +19710,7 @@
       <c r="L284" s="2">
         <v>29354.5</v>
       </c>
-      <c r="M284">
+      <c r="M284" s="1">
         <v>1.301633212</v>
       </c>
       <c r="N284">
@@ -19770,7 +19772,7 @@
       <c r="L285" s="2">
         <v>28956.7</v>
       </c>
-      <c r="M285">
+      <c r="M285" s="1">
         <v>1.655395827</v>
       </c>
       <c r="N285">
@@ -19832,7 +19834,7 @@
       <c r="L286" s="2">
         <v>28626.1</v>
       </c>
-      <c r="M286">
+      <c r="M286" s="1">
         <v>1.687853088</v>
       </c>
       <c r="N286">
@@ -19894,7 +19896,7 @@
       <c r="L287" s="2">
         <v>28614.400000000001</v>
       </c>
-      <c r="M287">
+      <c r="M287" s="1">
         <v>2.0915595969999998</v>
       </c>
       <c r="N287">
@@ -19956,7 +19958,7 @@
       <c r="L288" s="2">
         <v>14483.3</v>
       </c>
-      <c r="M288">
+      <c r="M288" s="1">
         <v>0.30027305300000001</v>
       </c>
       <c r="N288">
@@ -20018,7 +20020,7 @@
       <c r="L289" s="2">
         <v>19212.099999999999</v>
       </c>
-      <c r="M289">
+      <c r="M289" s="1">
         <v>0.153577932</v>
       </c>
       <c r="N289">
@@ -20080,7 +20082,7 @@
       <c r="L290" s="2">
         <v>16717.3</v>
       </c>
-      <c r="M290">
+      <c r="M290" s="1">
         <v>0.10013647000000001</v>
       </c>
       <c r="N290">
@@ -20142,7 +20144,7 @@
       <c r="L291" s="2">
         <v>14055.7</v>
       </c>
-      <c r="M291">
+      <c r="M291" s="1">
         <v>4.7525764999999998E-2</v>
       </c>
       <c r="N291">
@@ -20204,7 +20206,7 @@
       <c r="L292" s="2">
         <v>11069.3</v>
       </c>
-      <c r="M292">
+      <c r="M292" s="1">
         <v>0.81743690300000005</v>
       </c>
       <c r="N292">
@@ -20266,7 +20268,7 @@
       <c r="L293" s="2">
         <v>17543.2</v>
       </c>
-      <c r="M293">
+      <c r="M293" s="1">
         <v>9.2083241999999996E-2</v>
       </c>
       <c r="N293">
@@ -20328,7 +20330,7 @@
       <c r="L294" s="2">
         <v>17229.2</v>
       </c>
-      <c r="M294">
+      <c r="M294" s="1">
         <v>0.220805629</v>
       </c>
       <c r="N294">
@@ -20390,7 +20392,7 @@
       <c r="L295" s="2">
         <v>16446.599999999999</v>
       </c>
-      <c r="M295">
+      <c r="M295" s="1">
         <v>7.7790839000000001E-2</v>
       </c>
       <c r="N295">
@@ -20452,7 +20454,7 @@
       <c r="L296" s="2">
         <v>15690.9</v>
       </c>
-      <c r="M296">
+      <c r="M296" s="1">
         <v>0.52790721399999996</v>
       </c>
       <c r="N296">
@@ -20514,7 +20516,7 @@
       <c r="L297" s="2">
         <v>15266.2</v>
       </c>
-      <c r="M297">
+      <c r="M297" s="1">
         <v>1.5369381E-2</v>
       </c>
       <c r="N297">
@@ -20576,7 +20578,7 @@
       <c r="L298" s="2">
         <v>40150</v>
       </c>
-      <c r="M298">
+      <c r="M298" s="1">
         <v>0.79286620900000004</v>
       </c>
       <c r="N298">
@@ -20638,7 +20640,7 @@
       <c r="L299" s="2">
         <v>42444.800000000003</v>
       </c>
-      <c r="M299">
+      <c r="M299" s="1">
         <v>7.1351449999999999E-3</v>
       </c>
       <c r="N299">
@@ -20700,7 +20702,7 @@
       <c r="L300" s="2">
         <v>41442</v>
       </c>
-      <c r="M300">
+      <c r="M300" s="1">
         <v>0.121761285</v>
       </c>
       <c r="N300">
@@ -20762,7 +20764,7 @@
       <c r="L301" s="2">
         <v>40295.5</v>
       </c>
-      <c r="M301">
+      <c r="M301" s="1">
         <v>0.62844956799999996</v>
       </c>
       <c r="N301">
@@ -20824,7 +20826,7 @@
       <c r="L302" s="2">
         <v>39535</v>
       </c>
-      <c r="M302">
+      <c r="M302" s="1">
         <v>0.96049031399999996</v>
       </c>
       <c r="N302">
@@ -20886,7 +20888,7 @@
       <c r="L303" s="2">
         <v>42434.8</v>
       </c>
-      <c r="M303">
+      <c r="M303" s="1">
         <v>1.0670449E-2</v>
       </c>
       <c r="N303">
@@ -20948,7 +20950,7 @@
       <c r="L304" s="2">
         <v>42437</v>
       </c>
-      <c r="M304">
+      <c r="M304" s="1">
         <v>1.0453347999999999E-2</v>
       </c>
       <c r="N304">
@@ -21010,7 +21012,7 @@
       <c r="L305" s="2">
         <v>42420.4</v>
       </c>
-      <c r="M305">
+      <c r="M305" s="1">
         <v>1.3796085E-2</v>
       </c>
       <c r="N305">
@@ -21072,7 +21074,7 @@
       <c r="L306" s="2">
         <v>41887.199999999997</v>
       </c>
-      <c r="M306">
+      <c r="M306" s="1">
         <v>0.378071608</v>
       </c>
       <c r="N306">
@@ -21134,7 +21136,7 @@
       <c r="L307" s="2">
         <v>40477.199999999997</v>
       </c>
-      <c r="M307">
+      <c r="M307" s="1">
         <v>0.469187837</v>
       </c>
       <c r="N307">
@@ -21196,7 +21198,7 @@
       <c r="L308" s="2">
         <v>15762.5</v>
       </c>
-      <c r="M308">
+      <c r="M308" s="1">
         <v>0.294409647</v>
       </c>
       <c r="N308">
@@ -21258,7 +21260,7 @@
       <c r="L309" s="2">
         <v>16841.099999999999</v>
       </c>
-      <c r="M309">
+      <c r="M309" s="1">
         <v>1.9324547000000001E-2</v>
       </c>
       <c r="N309">
@@ -21320,7 +21322,7 @@
       <c r="L310" s="2">
         <v>16464.400000000001</v>
       </c>
-      <c r="M310">
+      <c r="M310" s="1">
         <v>3.6231161999999997E-2</v>
       </c>
       <c r="N310">
@@ -21382,7 +21384,7 @@
       <c r="L311" s="2">
         <v>16036.9</v>
       </c>
-      <c r="M311">
+      <c r="M311" s="1">
         <v>4.9662217000000002E-2</v>
       </c>
       <c r="N311">
@@ -21444,7 +21446,7 @@
       <c r="L312" s="2">
         <v>15527.4</v>
       </c>
-      <c r="M312">
+      <c r="M312" s="1">
         <v>0.412579578</v>
       </c>
       <c r="N312">
@@ -21506,7 +21508,7 @@
       <c r="L313" s="2">
         <v>16551.099999999999</v>
       </c>
-      <c r="M313">
+      <c r="M313" s="1">
         <v>0.16504127499999999</v>
       </c>
       <c r="N313">
@@ -21568,7 +21570,7 @@
       <c r="L314" s="2">
         <v>16292</v>
       </c>
-      <c r="M314">
+      <c r="M314" s="1">
         <v>9.7449807999999999E-2</v>
       </c>
       <c r="N314">
@@ -21630,7 +21632,7 @@
       <c r="L315" s="2">
         <v>16384.5</v>
       </c>
-      <c r="M315">
+      <c r="M315" s="1">
         <v>0.15212972599999999</v>
       </c>
       <c r="N315">
@@ -21692,7 +21694,7 @@
       <c r="L316" s="2">
         <v>16034.3</v>
       </c>
-      <c r="M316">
+      <c r="M316" s="1">
         <v>0.170355064</v>
       </c>
       <c r="N316">
@@ -21754,7 +21756,7 @@
       <c r="L317" s="2">
         <v>16099.2</v>
       </c>
-      <c r="M317">
+      <c r="M317" s="1">
         <v>0.1386569</v>
       </c>
       <c r="N317">
@@ -21816,7 +21818,7 @@
       <c r="L318" s="2">
         <v>48297.1</v>
       </c>
-      <c r="M318">
+      <c r="M318" s="1">
         <v>2.288129691</v>
       </c>
       <c r="N318">
@@ -21878,7 +21880,7 @@
       <c r="L319" s="2">
         <v>53328.3</v>
       </c>
-      <c r="M319">
+      <c r="M319" s="1">
         <v>0.91523752800000002</v>
       </c>
       <c r="N319">
@@ -21940,7 +21942,7 @@
       <c r="L320" s="2">
         <v>48663</v>
       </c>
-      <c r="M320">
+      <c r="M320" s="1">
         <v>2.1203846319999999</v>
       </c>
       <c r="N320">
@@ -22002,7 +22004,7 @@
       <c r="L321" s="2">
         <v>45276.3</v>
       </c>
-      <c r="M321">
+      <c r="M321" s="1">
         <v>2.309836904</v>
       </c>
       <c r="N321">
@@ -22064,7 +22066,7 @@
       <c r="L322" s="2">
         <v>43155</v>
       </c>
-      <c r="M322">
+      <c r="M322" s="1">
         <v>3.4152891639999998</v>
       </c>
       <c r="N322">
@@ -22126,7 +22128,7 @@
       <c r="L323" s="2">
         <v>50675.9</v>
       </c>
-      <c r="M323">
+      <c r="M323" s="1">
         <v>1.246622041</v>
       </c>
       <c r="N323">
@@ -22188,7 +22190,7 @@
       <c r="L324" s="2">
         <v>47423.4</v>
       </c>
-      <c r="M324">
+      <c r="M324" s="1">
         <v>2.2618560740000002</v>
       </c>
       <c r="N324">
@@ -22250,7 +22252,7 @@
       <c r="L325" s="2">
         <v>44673.8</v>
       </c>
-      <c r="M325">
+      <c r="M325" s="1">
         <v>2.8295758150000001</v>
       </c>
       <c r="N325">
@@ -22312,7 +22314,7 @@
       <c r="L326" s="2">
         <v>42942</v>
       </c>
-      <c r="M326">
+      <c r="M326" s="1">
         <v>3.005577003</v>
       </c>
       <c r="N326">
@@ -22374,7 +22376,7 @@
       <c r="L327" s="2">
         <v>49453.9</v>
       </c>
-      <c r="M327">
+      <c r="M327" s="1">
         <v>1.7136769030000001</v>
       </c>
       <c r="N327">
@@ -22436,7 +22438,7 @@
       <c r="L328" s="2">
         <v>29976.7</v>
       </c>
-      <c r="M328">
+      <c r="M328" s="1">
         <v>0.14596737300000001</v>
       </c>
       <c r="N328">
@@ -22498,7 +22500,7 @@
       <c r="L329" s="2">
         <v>37049.199999999997</v>
       </c>
-      <c r="M329">
+      <c r="M329" s="1">
         <v>0.47140519400000003</v>
       </c>
       <c r="N329">
@@ -22560,7 +22562,7 @@
       <c r="L330" s="2">
         <v>31358.2</v>
       </c>
-      <c r="M330">
+      <c r="M330" s="1">
         <v>0.28676694000000003</v>
       </c>
       <c r="N330">
@@ -22622,7 +22624,7 @@
       <c r="L331" s="2">
         <v>24473.599999999999</v>
       </c>
-      <c r="M331">
+      <c r="M331" s="1">
         <v>0.37718768200000002</v>
       </c>
       <c r="N331">
@@ -22684,7 +22686,7 @@
       <c r="L332" s="2">
         <v>17953.400000000001</v>
       </c>
-      <c r="M332">
+      <c r="M332" s="1">
         <v>1.851594918</v>
       </c>
       <c r="N332">
@@ -22746,7 +22748,7 @@
       <c r="L333" s="2">
         <v>34247.9</v>
       </c>
-      <c r="M333">
+      <c r="M333" s="1">
         <v>0.10625496700000001</v>
       </c>
       <c r="N333">
@@ -22808,7 +22810,7 @@
       <c r="L334" s="2">
         <v>29322.799999999999</v>
       </c>
-      <c r="M334">
+      <c r="M334" s="1">
         <v>0.43162088900000001</v>
       </c>
       <c r="N334">
@@ -22870,7 +22872,7 @@
       <c r="L335" s="2">
         <v>23223.9</v>
       </c>
-      <c r="M335">
+      <c r="M335" s="1">
         <v>0.10350121700000001</v>
       </c>
       <c r="N335">
@@ -22932,7 +22934,7 @@
       <c r="L336" s="2">
         <v>17523.8</v>
       </c>
-      <c r="M336">
+      <c r="M336" s="1">
         <v>2.3253899429999998</v>
       </c>
       <c r="N336">
@@ -22994,7 +22996,7 @@
       <c r="L337" s="2">
         <v>32148.6</v>
       </c>
-      <c r="M337">
+      <c r="M337" s="1">
         <v>9.5686443999999996E-2</v>
       </c>
       <c r="N337">
@@ -23056,7 +23058,7 @@
       <c r="L338" s="2">
         <v>44059.6</v>
       </c>
-      <c r="M338">
+      <c r="M338" s="1">
         <v>2.0701543500000001</v>
       </c>
       <c r="N338">
@@ -23118,7 +23120,7 @@
       <c r="L339" s="2">
         <v>46196.1</v>
       </c>
-      <c r="M339">
+      <c r="M339" s="1">
         <v>1.406857791</v>
       </c>
       <c r="N339">
@@ -23180,7 +23182,7 @@
       <c r="L340" s="2">
         <v>44276.9</v>
       </c>
-      <c r="M340">
+      <c r="M340" s="1">
         <v>2.78026259</v>
       </c>
       <c r="N340">
@@ -23242,7 +23244,7 @@
       <c r="L341" s="2">
         <v>42708.7</v>
       </c>
-      <c r="M341">
+      <c r="M341" s="1">
         <v>2.6824980279999999</v>
       </c>
       <c r="N341">
@@ -23304,7 +23306,7 @@
       <c r="L342" s="2">
         <v>41882.800000000003</v>
       </c>
-      <c r="M342">
+      <c r="M342" s="1">
         <v>2.481340409</v>
       </c>
       <c r="N342">
@@ -23366,7 +23368,7 @@
       <c r="L343" s="2">
         <v>45498.6</v>
       </c>
-      <c r="M343">
+      <c r="M343" s="1">
         <v>1.7717384709999999</v>
       </c>
       <c r="N343">
@@ -23428,7 +23430,7 @@
       <c r="L344" s="2">
         <v>45364.4</v>
       </c>
-      <c r="M344">
+      <c r="M344" s="1">
         <v>1.7419087609999999</v>
       </c>
       <c r="N344">
@@ -23490,7 +23492,7 @@
       <c r="L345" s="2">
         <v>44823.6</v>
       </c>
-      <c r="M345">
+      <c r="M345" s="1">
         <v>2.2024903230000001</v>
       </c>
       <c r="N345">
@@ -23552,7 +23554,7 @@
       <c r="L346" s="2">
         <v>44285.7</v>
       </c>
-      <c r="M346">
+      <c r="M346" s="1">
         <v>2.177587537</v>
       </c>
       <c r="N346">
@@ -23614,7 +23616,7 @@
       <c r="L347" s="2">
         <v>44098.2</v>
       </c>
-      <c r="M347">
+      <c r="M347" s="1">
         <v>2.4094153820000002</v>
       </c>
       <c r="N347">
@@ -23676,7 +23678,7 @@
       <c r="L348" s="2">
         <v>21905.7</v>
       </c>
-      <c r="M348">
+      <c r="M348" s="1">
         <v>0.45429845099999999</v>
       </c>
       <c r="N348">
@@ -23738,7 +23740,7 @@
       <c r="L349" s="2">
         <v>28276.1</v>
       </c>
-      <c r="M349">
+      <c r="M349" s="1">
         <v>0.42107075799999999</v>
       </c>
       <c r="N349">
@@ -23800,7 +23802,7 @@
       <c r="L350" s="2">
         <v>24269</v>
       </c>
-      <c r="M350">
+      <c r="M350" s="1">
         <v>6.6810354000000002E-2</v>
       </c>
       <c r="N350">
@@ -23862,7 +23864,7 @@
       <c r="L351" s="2">
         <v>19697.099999999999</v>
       </c>
-      <c r="M351">
+      <c r="M351" s="1">
         <v>-0.12803674700000001</v>
       </c>
       <c r="N351">
@@ -23924,7 +23926,7 @@
       <c r="L352" s="2">
         <v>15758.3</v>
       </c>
-      <c r="M352">
+      <c r="M352" s="1">
         <v>0.80960557600000005</v>
       </c>
       <c r="N352">
@@ -23986,7 +23988,7 @@
       <c r="L353" s="2">
         <v>25894.3</v>
       </c>
-      <c r="M353">
+      <c r="M353" s="1">
         <v>2.4859023000000001E-2</v>
       </c>
       <c r="N353">
@@ -24048,7 +24050,7 @@
       <c r="L354" s="2">
         <v>25922</v>
       </c>
-      <c r="M354">
+      <c r="M354" s="1">
         <v>0.19896429700000001</v>
       </c>
       <c r="N354">
@@ -24110,7 +24112,7 @@
       <c r="L355" s="2">
         <v>24457.200000000001</v>
       </c>
-      <c r="M355">
+      <c r="M355" s="1">
         <v>0.292838447</v>
       </c>
       <c r="N355">
@@ -24172,7 +24174,7 @@
       <c r="L356" s="2">
         <v>23472.9</v>
       </c>
-      <c r="M356">
+      <c r="M356" s="1">
         <v>0.62553096900000005</v>
       </c>
       <c r="N356">
@@ -24234,7 +24236,7 @@
       <c r="L357" s="2">
         <v>22959.200000000001</v>
       </c>
-      <c r="M357">
+      <c r="M357" s="1">
         <v>1.8293169000000001E-2</v>
       </c>
       <c r="N357">

--- a/PICom/ph2teams.xlsx
+++ b/PICom/ph2teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dimacsVRP\PICom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69DC871-5583-44FD-8726-33374BBA0B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3226315F-9FA3-410E-8651-C9E8B6A84486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2159,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2289,6050 +2289,6050 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>0.86206830700000003</v>
+        <v>0.13682222199999999</v>
       </c>
       <c r="D2">
-        <v>751.7</v>
+        <v>827.3</v>
       </c>
       <c r="E2">
-        <v>3.158166E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="F2">
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="G2">
-        <v>0.68197177799999997</v>
+        <v>1.8333299999999999E-4</v>
       </c>
       <c r="H2">
-        <v>751.7</v>
+        <v>827.3</v>
       </c>
       <c r="I2">
-        <v>0.80286853700000005</v>
+        <v>2.8333299999999998E-4</v>
       </c>
       <c r="J2">
-        <v>751.7</v>
+        <v>827.3</v>
       </c>
       <c r="K2" s="2">
-        <v>1.5132572E-2</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="L2" s="2">
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="M2" s="1">
-        <v>0.19481158800000001</v>
+        <v>4.6100000000000002E-5</v>
       </c>
       <c r="N2">
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="O2" s="3">
-        <v>1.6669930000000001E-3</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="P2" s="3">
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="Q2">
         <f>V2/10</f>
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="R2">
         <f>MIN(C2,E2,G2,I2,K2,M2,O2)</f>
-        <v>1.6669930000000001E-3</v>
+        <v>4.6100000000000002E-5</v>
       </c>
       <c r="S2">
         <f>MIN(D2,F2,H2,J2,L2,N2,P2)</f>
-        <v>746.7</v>
+        <v>827.3</v>
       </c>
       <c r="T2" s="1">
         <f>K2-O2</f>
-        <v>1.3465579E-2</v>
+        <v>2.2199999999999991E-5</v>
       </c>
       <c r="U2" s="1">
         <f>K2-M2</f>
-        <v>-0.179679016</v>
+        <v>3.1699999999999991E-5</v>
       </c>
       <c r="V2">
-        <v>7467</v>
+        <v>8273</v>
       </c>
       <c r="W2" s="1">
-        <v>0.67513631200000002</v>
+        <v>8.6419E-5</v>
       </c>
       <c r="Y2" s="1">
         <f>W2-M2</f>
-        <v>0.48032472400000004</v>
+        <v>4.0318999999999998E-5</v>
       </c>
       <c r="Z2">
-        <v>7467</v>
+        <v>8273</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.6048898900000001E-2</v>
+        <v>9.1206300000000001E-5</v>
       </c>
       <c r="AB2" s="1">
         <f>AA2-O2</f>
-        <v>1.43819059E-2</v>
+        <v>3.5606299999999998E-5</v>
       </c>
       <c r="AC2" s="1">
         <f>AA2-M2</f>
-        <v>-0.17876268910000001</v>
+        <v>4.5106299999999999E-5</v>
       </c>
       <c r="AD2" s="1">
-        <v>1.3142675899999999E-2</v>
+        <v>8.9460400000000002E-5</v>
       </c>
       <c r="AE2" s="1">
         <f>AD2-M2</f>
-        <v>-0.1816689121</v>
+        <v>4.3360399999999999E-5</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.3142675899999999E-2</v>
+        <v>3.8935900000000001E-5</v>
       </c>
       <c r="AG2" s="1">
         <f>AF2-M2</f>
-        <v>-0.1816689121</v>
+        <v>-7.1641000000000014E-6</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>0.14338925799999999</v>
+        <v>0.277764503</v>
       </c>
       <c r="D3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="E3">
-        <v>9.0373299999999999E-4</v>
+        <v>2.48729E-4</v>
       </c>
       <c r="F3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="G3">
-        <v>5.136074E-3</v>
+        <v>1.88889E-4</v>
       </c>
       <c r="H3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="I3">
-        <v>2.3445969999999999E-3</v>
+        <v>2.7049399999999998E-4</v>
       </c>
       <c r="J3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="K3" s="2">
-        <v>1.287123E-3</v>
+        <v>1.12267E-4</v>
       </c>
       <c r="L3" s="2">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="M3" s="1">
-        <v>1.943696E-3</v>
+        <v>9.6299999999999996E-5</v>
       </c>
       <c r="N3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="O3" s="3">
-        <v>8.8848799999999999E-4</v>
+        <v>4.4400000000000002E-5</v>
       </c>
       <c r="P3" s="3">
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="Q3">
         <f>V3/10</f>
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="R3">
         <f>MIN(C3,E3,G3,I3,K3,M3,O3)</f>
-        <v>8.8848799999999999E-4</v>
+        <v>4.4400000000000002E-5</v>
       </c>
       <c r="S3">
         <f>MIN(D3,F3,H3,J3,L3,N3,P3)</f>
-        <v>783.5</v>
+        <v>827.3</v>
       </c>
       <c r="T3" s="1">
         <f>K3-O3</f>
-        <v>3.9863500000000005E-4</v>
+        <v>6.7866999999999992E-5</v>
       </c>
       <c r="U3" s="1">
         <f>K3-M3</f>
-        <v>-6.5657299999999992E-4</v>
+        <v>1.5967000000000005E-5</v>
       </c>
       <c r="V3">
-        <v>7835</v>
+        <v>8273</v>
       </c>
       <c r="W3" s="1">
-        <v>3.311366E-3</v>
+        <v>1.2619700000000001E-4</v>
       </c>
       <c r="Y3" s="1">
         <f>W3-M3</f>
-        <v>1.3676700000000001E-3</v>
+        <v>2.9897000000000015E-5</v>
       </c>
       <c r="Z3">
-        <v>7835</v>
+        <v>8273</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.9352938999999999E-3</v>
+        <v>1.0285000000000001E-4</v>
       </c>
       <c r="AB3" s="1">
         <f>AA3-O3</f>
-        <v>1.0468058999999999E-3</v>
+        <v>5.8450000000000005E-5</v>
       </c>
       <c r="AC3" s="1">
         <f>AA3-M3</f>
-        <v>-8.4021000000000529E-6</v>
+        <v>6.5500000000000101E-6</v>
       </c>
       <c r="AD3" s="1">
-        <v>3.5322270000000001E-4</v>
+        <v>1.088178E-4</v>
       </c>
       <c r="AE3" s="1">
         <f>AD3-M3</f>
-        <v>-1.5904732999999999E-3</v>
+        <v>1.2517800000000004E-5</v>
       </c>
       <c r="AF3" s="1">
-        <v>3.5322270000000001E-4</v>
+        <v>7.7255299999999999E-5</v>
       </c>
       <c r="AG3" s="1">
         <f>AF3-M3</f>
-        <v>-1.5904732999999999E-3</v>
+        <v>-1.9044699999999997E-5</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>0.99544531999999997</v>
+        <v>0.42337738200000002</v>
       </c>
       <c r="D4">
-        <v>782.8</v>
+        <v>826.3</v>
       </c>
       <c r="E4">
-        <v>3.2561830000000002E-3</v>
+        <v>2.00559E-4</v>
       </c>
       <c r="F4">
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="G4">
-        <v>0.45331886900000001</v>
+        <v>1.61111E-4</v>
       </c>
       <c r="H4">
-        <v>779.6</v>
+        <v>826.3</v>
       </c>
       <c r="I4">
-        <v>8.1756001999999994E-2</v>
+        <v>3.5709700000000001E-4</v>
       </c>
       <c r="J4">
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="K4" s="2">
-        <v>8.4412350000000001E-3</v>
+        <v>2.2047399999999999E-4</v>
       </c>
       <c r="L4" s="2">
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="M4" s="1">
-        <v>7.7659640000000002E-3</v>
+        <v>1.3687199999999999E-4</v>
       </c>
       <c r="N4">
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="O4" s="3">
-        <v>1.5019110000000001E-3</v>
+        <v>5.5500000000000001E-5</v>
       </c>
       <c r="P4" s="3">
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="Q4">
         <f>V4/10</f>
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="R4">
         <f>MIN(C4,E4,G4,I4,K4,M4,O4)</f>
-        <v>1.5019110000000001E-3</v>
+        <v>5.5500000000000001E-5</v>
       </c>
       <c r="S4">
         <f>MIN(D4,F4,H4,J4,L4,N4,P4)</f>
-        <v>776.1</v>
+        <v>826.3</v>
       </c>
       <c r="T4" s="1">
         <f>K4-O4</f>
-        <v>6.9393240000000002E-3</v>
+        <v>1.64974E-4</v>
       </c>
       <c r="U4" s="1">
         <f>K4-M4</f>
-        <v>6.7527099999999986E-4</v>
+        <v>8.3602000000000004E-5</v>
       </c>
       <c r="V4">
-        <v>7761</v>
+        <v>8263</v>
       </c>
       <c r="W4" s="1">
-        <v>4.9550000000000002E-3</v>
+        <v>2.2903499999999999E-4</v>
       </c>
       <c r="Y4" s="1">
         <f>W4-M4</f>
-        <v>-2.810964E-3</v>
+        <v>9.2163000000000005E-5</v>
       </c>
       <c r="Z4">
-        <v>7761</v>
+        <v>8263</v>
       </c>
       <c r="AA4" s="1">
-        <v>1.28037588E-2</v>
+        <v>2.331256E-4</v>
       </c>
       <c r="AB4" s="1">
         <f>AA4-O4</f>
-        <v>1.1301847800000001E-2</v>
+        <v>1.7762560000000001E-4</v>
       </c>
       <c r="AC4" s="1">
         <f>AA4-M4</f>
-        <v>5.0377948000000002E-3</v>
+        <v>9.6253600000000016E-5</v>
       </c>
       <c r="AD4" s="1">
-        <v>3.8016113E-3</v>
+        <v>1.177478E-4</v>
       </c>
       <c r="AE4" s="1">
         <f>AD4-M4</f>
-        <v>-3.9643526999999998E-3</v>
+        <v>-1.9124199999999989E-5</v>
       </c>
       <c r="AF4" s="1">
-        <v>3.8016113E-3</v>
+        <v>1.177478E-4</v>
       </c>
       <c r="AG4" s="1">
         <f>AF4-M4</f>
-        <v>-3.9643526999999998E-3</v>
+        <v>-1.9124199999999989E-5</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.28092267799999998</v>
+        <v>0.57265325499999997</v>
       </c>
       <c r="D5">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="E5">
-        <v>2.6832700000000002E-3</v>
+        <v>2.6920500000000001E-4</v>
       </c>
       <c r="F5">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="G5">
-        <v>6.74392E-4</v>
+        <v>1.27778E-4</v>
       </c>
       <c r="H5">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="I5">
-        <v>9.4611150000000008E-3</v>
+        <v>2.4027799999999999E-4</v>
       </c>
       <c r="J5">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="K5" s="2">
-        <v>1.74581E-3</v>
+        <v>3.1873399999999999E-4</v>
       </c>
       <c r="L5" s="2">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="M5" s="1">
-        <v>1.4840949999999999E-3</v>
+        <v>1.3462899999999999E-4</v>
       </c>
       <c r="N5">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="O5" s="3">
-        <v>5.6537600000000003E-4</v>
+        <v>3.3076699999999999E-4</v>
       </c>
       <c r="P5" s="3">
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="Q5">
         <f>V5/10</f>
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="R5">
         <f>MIN(C5,E5,G5,I5,K5,M5,O5)</f>
-        <v>5.6537600000000003E-4</v>
+        <v>1.27778E-4</v>
       </c>
       <c r="S5">
         <f>MIN(D5,F5,H5,J5,L5,N5,P5)</f>
-        <v>1234.5999999999999</v>
+        <v>822.9</v>
       </c>
       <c r="T5" s="1">
         <f>K5-O5</f>
-        <v>1.180434E-3</v>
+        <v>-1.2032999999999998E-5</v>
       </c>
       <c r="U5" s="1">
         <f>K5-M5</f>
-        <v>2.6171500000000004E-4</v>
+        <v>1.84105E-4</v>
       </c>
       <c r="V5">
-        <v>12346</v>
+        <v>8229</v>
       </c>
       <c r="W5" s="1">
-        <v>2.2177059999999998E-3</v>
+        <v>4.52817E-4</v>
       </c>
       <c r="Y5" s="1">
         <f>W5-M5</f>
-        <v>7.336109999999999E-4</v>
+        <v>3.1818800000000001E-4</v>
       </c>
       <c r="Z5">
-        <v>12346</v>
+        <v>8229</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.7664649999999999E-4</v>
+        <v>2.9196199999999999E-4</v>
       </c>
       <c r="AB5" s="1">
         <f>AA5-O5</f>
-        <v>1.1127049999999996E-4</v>
+        <v>-3.8804999999999992E-5</v>
       </c>
       <c r="AC5" s="1">
         <f>AA5-M5</f>
-        <v>-8.0744849999999995E-4</v>
+        <v>1.5733300000000001E-4</v>
       </c>
       <c r="AD5" s="1">
-        <v>1.5845996000000001E-3</v>
+        <v>3.473967E-4</v>
       </c>
       <c r="AE5" s="1">
         <f>AD5-M5</f>
-        <v>1.0050460000000016E-4</v>
+        <v>2.1276770000000001E-4</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.7664649999999999E-4</v>
+        <v>1.3311390000000001E-4</v>
       </c>
       <c r="AG5" s="1">
         <f>AF5-M5</f>
-        <v>-8.0744849999999995E-4</v>
+        <v>-1.5150999999999815E-6</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>0.282810899</v>
+        <v>0.72384742400000002</v>
       </c>
       <c r="D6">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="E6">
-        <v>2.2761750000000001E-3</v>
+        <v>1.2788599999999999E-4</v>
       </c>
       <c r="F6">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="G6">
-        <v>0.32090285000000002</v>
+        <v>1.55556E-4</v>
       </c>
       <c r="H6">
-        <v>1157.7</v>
+        <v>827.3</v>
       </c>
       <c r="I6">
-        <v>1.507794E-3</v>
+        <v>1.44444E-4</v>
       </c>
       <c r="J6">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="K6" s="2">
-        <v>2.252932E-3</v>
+        <v>5.5800000000000001E-5</v>
       </c>
       <c r="L6" s="2">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="M6" s="1">
-        <v>8.3777700000000005E-4</v>
+        <v>5.8900000000000002E-5</v>
       </c>
       <c r="N6">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="O6" s="3">
-        <v>1.247309E-3</v>
+        <v>6.1099999999999994E-5</v>
       </c>
       <c r="P6" s="3">
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="Q6">
         <f>V6/10</f>
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="R6">
         <f>MIN(C6,E6,G6,I6,K6,M6,O6)</f>
-        <v>8.3777700000000005E-4</v>
+        <v>5.5800000000000001E-5</v>
       </c>
       <c r="S6">
         <f>MIN(D6,F6,H6,J6,L6,N6,P6)</f>
-        <v>1154</v>
+        <v>827.3</v>
       </c>
       <c r="T6" s="1">
         <f>K6-O6</f>
-        <v>1.005623E-3</v>
+        <v>-5.2999999999999933E-6</v>
       </c>
       <c r="U6" s="1">
         <f>K6-M6</f>
-        <v>1.415155E-3</v>
+        <v>-3.1000000000000008E-6</v>
       </c>
       <c r="V6">
-        <v>11540</v>
+        <v>8273</v>
       </c>
       <c r="W6" s="1">
-        <v>9.7413800000000004E-4</v>
+        <v>1.0013000000000001E-4</v>
       </c>
       <c r="Y6" s="1">
         <f>W6-M6</f>
-        <v>1.3636099999999999E-4</v>
+        <v>4.1230000000000003E-5</v>
       </c>
       <c r="Z6">
-        <v>11540</v>
+        <v>8273</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.1935779999999995E-4</v>
+        <v>6.8023199999999996E-5</v>
       </c>
       <c r="AB6" s="1">
         <f>AA6-O6</f>
-        <v>-5.279512000000001E-4</v>
+        <v>6.9232000000000017E-6</v>
       </c>
       <c r="AC6" s="1">
         <f>AA6-M6</f>
-        <v>-1.184192000000001E-4</v>
+        <v>9.1231999999999942E-6</v>
       </c>
       <c r="AD6" s="1">
-        <v>1.4225688E-3</v>
+        <v>5.42978E-5</v>
       </c>
       <c r="AE6" s="1">
         <f>AD6-M6</f>
-        <v>5.8479179999999993E-4</v>
+        <v>-4.6022000000000014E-6</v>
       </c>
       <c r="AF6" s="1">
-        <v>7.1935779999999995E-4</v>
+        <v>5.0540600000000002E-5</v>
       </c>
       <c r="AG6" s="1">
         <f>AF6-M6</f>
-        <v>-1.184192000000001E-4</v>
+        <v>-8.3594E-6</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>0.14413893999999999</v>
+        <v>0.64670032200000005</v>
       </c>
       <c r="D7">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="E7">
-        <v>1.3493605000000001E-2</v>
+        <v>1.6083199999999999E-4</v>
       </c>
       <c r="F7">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="G7">
-        <v>7.1201100000000002E-4</v>
+        <v>1.61111E-4</v>
       </c>
       <c r="H7">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="I7">
-        <v>8.5255499999999998E-3</v>
+        <v>1.4768100000000001E-4</v>
       </c>
       <c r="J7">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="K7" s="2">
-        <v>1.2988665999999999E-2</v>
+        <v>9.0799999999999998E-5</v>
       </c>
       <c r="L7" s="2">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="M7" s="1">
-        <v>6.5811500000000002E-4</v>
+        <v>6.1326000000000002E-5</v>
       </c>
       <c r="N7">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="O7" s="3">
-        <v>1.3426390000000001E-3</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="P7" s="3">
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="Q7">
         <f>V7/10</f>
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="R7">
         <f>MIN(C7,E7,G7,I7,K7,M7,O7)</f>
-        <v>6.5811500000000002E-4</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="S7">
         <f>MIN(D7,F7,H7,J7,L7,N7,P7)</f>
-        <v>870.8</v>
+        <v>827.3</v>
       </c>
       <c r="T7" s="1">
         <f>K7-O7</f>
-        <v>1.1646027E-2</v>
+        <v>3.5199999999999995E-5</v>
       </c>
       <c r="U7" s="1">
         <f>K7-M7</f>
-        <v>1.2330550999999999E-2</v>
+        <v>2.9473999999999996E-5</v>
       </c>
       <c r="V7">
-        <v>8708</v>
+        <v>8273</v>
       </c>
       <c r="W7" s="1">
-        <v>1.6065205999999999E-2</v>
+        <v>9.3989100000000004E-5</v>
       </c>
       <c r="Y7" s="1">
         <f>W7-M7</f>
-        <v>1.5407090999999998E-2</v>
+        <v>3.2663100000000002E-5</v>
       </c>
       <c r="Z7">
-        <v>8708</v>
+        <v>8273</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.9387539999999998E-4</v>
+        <v>1.034919E-4</v>
       </c>
       <c r="AB7" s="1">
         <f>AA7-O7</f>
-        <v>-8.4876360000000009E-4</v>
+        <v>4.7891899999999995E-5</v>
       </c>
       <c r="AC7" s="1">
         <f>AA7-M7</f>
-        <v>-1.6423960000000004E-4</v>
+        <v>4.2165899999999996E-5</v>
       </c>
       <c r="AD7" s="1">
-        <v>3.5543816999999999E-3</v>
+        <v>5.9074399999999998E-5</v>
       </c>
       <c r="AE7" s="1">
         <f>AD7-M7</f>
-        <v>2.8962667E-3</v>
+        <v>-2.251600000000004E-6</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.9387539999999998E-4</v>
+        <v>5.9074399999999998E-5</v>
       </c>
       <c r="AG7" s="1">
         <f>AF7-M7</f>
-        <v>-1.6423960000000004E-4</v>
+        <v>-2.251600000000004E-6</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C8">
-        <v>0.18200290699999999</v>
+        <v>0.56541444100000005</v>
       </c>
       <c r="D8">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="E8">
-        <v>2.336828E-3</v>
+        <v>1.8039299999999999E-4</v>
       </c>
       <c r="F8">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="G8">
-        <v>1.3578450000000001E-3</v>
+        <v>1.6666700000000001E-4</v>
       </c>
       <c r="H8">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="I8">
-        <v>1.8625139999999998E-2</v>
+        <v>1.55556E-4</v>
       </c>
       <c r="J8">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="K8" s="2">
-        <v>1.5125290000000001E-3</v>
+        <v>7.8300000000000006E-5</v>
       </c>
       <c r="L8" s="2">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="M8" s="1">
-        <v>1.465416E-3</v>
+        <v>7.2200000000000007E-5</v>
       </c>
       <c r="N8">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="O8" s="3">
-        <v>7.0920599999999999E-4</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="P8" s="3">
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="Q8">
         <f>V8/10</f>
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="R8">
         <f>MIN(C8,E8,G8,I8,K8,M8,O8)</f>
-        <v>7.0920599999999999E-4</v>
+        <v>5.5600000000000003E-5</v>
       </c>
       <c r="S8">
         <f>MIN(D8,F8,H8,J8,L8,N8,P8)</f>
-        <v>1048.7</v>
+        <v>827.3</v>
       </c>
       <c r="T8" s="1">
         <f>K8-O8</f>
-        <v>8.033230000000001E-4</v>
+        <v>2.2700000000000003E-5</v>
       </c>
       <c r="U8" s="1">
         <f>K8-M8</f>
-        <v>4.7113000000000103E-5</v>
+        <v>6.0999999999999992E-6</v>
       </c>
       <c r="V8">
-        <v>10487</v>
+        <v>8273</v>
       </c>
       <c r="W8" s="1">
-        <v>2.7386757000000001E-2</v>
+        <v>7.7221100000000005E-5</v>
       </c>
       <c r="Y8" s="1">
         <f>W8-M8</f>
-        <v>2.5921341000000001E-2</v>
+        <v>5.0210999999999984E-6</v>
       </c>
       <c r="Z8">
-        <v>10504</v>
+        <v>8273</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.1686033327</v>
+        <v>8.0490799999999999E-5</v>
       </c>
       <c r="AB8" s="1">
         <f>AA8-O8</f>
-        <v>0.16789412670000001</v>
+        <v>2.4890799999999996E-5</v>
       </c>
       <c r="AC8" s="1">
         <f>AA8-M8</f>
-        <v>0.1671379167</v>
+        <v>8.2907999999999918E-6</v>
       </c>
       <c r="AD8" s="1">
-        <v>1.0188154000000001E-3</v>
+        <v>5.93813E-5</v>
       </c>
       <c r="AE8" s="1">
         <f>AD8-M8</f>
-        <v>-4.4660059999999989E-4</v>
+        <v>-1.2818700000000007E-5</v>
       </c>
       <c r="AF8" s="1">
-        <v>9.6424460000000005E-4</v>
+        <v>4.17227E-5</v>
       </c>
       <c r="AG8" s="1">
         <f>AF8-M8</f>
-        <v>-5.0117139999999994E-4</v>
+        <v>-3.0477300000000007E-5</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9">
-        <v>0.61780203300000003</v>
+        <v>0.57290783000000001</v>
       </c>
       <c r="D9">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="E9">
-        <v>3.2851199999999999E-4</v>
+        <v>1.7437299999999999E-4</v>
       </c>
       <c r="F9">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="G9">
-        <v>2.38889E-4</v>
+        <v>2.96111E-4</v>
       </c>
       <c r="H9">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="I9">
         <v>1.44444E-4</v>
       </c>
       <c r="J9">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="K9" s="2">
-        <v>1.3616299999999999E-4</v>
+        <v>2.1079200000000001E-4</v>
       </c>
       <c r="L9" s="2">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="M9" s="1">
-        <v>1.3114800000000001E-4</v>
+        <v>8.8900000000000006E-5</v>
       </c>
       <c r="N9">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="O9" s="3">
-        <v>8.4400000000000005E-5</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="P9" s="3">
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="Q9">
         <f>V9/10</f>
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="R9">
         <f>MIN(C9,E9,G9,I9,K9,M9,O9)</f>
-        <v>8.4400000000000005E-5</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="S9">
         <f>MIN(D9,F9,H9,J9,L9,N9,P9)</f>
-        <v>589.1</v>
+        <v>827.3</v>
       </c>
       <c r="T9" s="1">
         <f>K9-O9</f>
-        <v>5.1762999999999985E-5</v>
+        <v>1.3299200000000002E-4</v>
       </c>
       <c r="U9" s="1">
         <f>K9-M9</f>
-        <v>5.0149999999999782E-6</v>
+        <v>1.21892E-4</v>
       </c>
       <c r="V9">
-        <v>5891</v>
+        <v>8273</v>
       </c>
       <c r="W9" s="1">
-        <v>1.51409E-4</v>
+        <v>8.6275300000000004E-5</v>
       </c>
       <c r="Y9" s="1">
         <f>W9-M9</f>
-        <v>2.0260999999999988E-5</v>
+        <v>-2.6247000000000022E-6</v>
       </c>
       <c r="Z9">
-        <v>5891</v>
+        <v>8273</v>
       </c>
       <c r="AA9" s="1">
-        <v>9.1236200000000006E-5</v>
+        <v>7.8668899999999995E-5</v>
       </c>
       <c r="AB9" s="1">
         <f>AA9-O9</f>
-        <v>6.8362000000000007E-6</v>
+        <v>8.6890000000000112E-7</v>
       </c>
       <c r="AC9" s="1">
         <f>AA9-M9</f>
-        <v>-3.9911800000000006E-5</v>
+        <v>-1.0231100000000011E-5</v>
       </c>
       <c r="AD9" s="1">
-        <v>6.1072400000000002E-5</v>
+        <v>6.6928599999999995E-5</v>
       </c>
       <c r="AE9" s="1">
         <f>AD9-M9</f>
-        <v>-7.0075600000000011E-5</v>
+        <v>-2.1971400000000011E-5</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.1072400000000002E-5</v>
+        <v>6.6928599999999995E-5</v>
       </c>
       <c r="AG9" s="1">
         <f>AF9-M9</f>
-        <v>-7.0075600000000011E-5</v>
+        <v>-2.1971400000000011E-5</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.60250640499999997</v>
+        <v>0.59779013999999997</v>
       </c>
       <c r="D10">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="E10">
-        <v>2.26357E-4</v>
+        <v>1.6376499999999999E-4</v>
       </c>
       <c r="F10">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="G10">
-        <v>2.1111099999999999E-4</v>
+        <v>1.7664699999999999E-4</v>
       </c>
       <c r="H10">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="I10">
-        <v>1.61111E-4</v>
+        <v>2.0541900000000001E-4</v>
       </c>
       <c r="J10">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="K10" s="2">
-        <v>1.36169E-4</v>
+        <v>1.6405200000000001E-4</v>
       </c>
       <c r="L10" s="2">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="M10" s="1">
-        <v>1.20388E-4</v>
+        <v>8.3100000000000001E-5</v>
       </c>
       <c r="N10">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="O10" s="3">
-        <v>3.3300000000000003E-5</v>
+        <v>2.2200000000000001E-5</v>
       </c>
       <c r="P10" s="3">
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="Q10">
         <f>V10/10</f>
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="R10">
         <f>MIN(C10,E10,G10,I10,K10,M10,O10)</f>
-        <v>3.3300000000000003E-5</v>
+        <v>2.2200000000000001E-5</v>
       </c>
       <c r="S10">
         <f>MIN(D10,F10,H10,J10,L10,N10,P10)</f>
-        <v>585.79999999999995</v>
+        <v>827.3</v>
       </c>
       <c r="T10" s="1">
         <f>K10-O10</f>
-        <v>1.0286900000000001E-4</v>
+        <v>1.4185200000000001E-4</v>
       </c>
       <c r="U10" s="1">
         <f>K10-M10</f>
-        <v>1.5781000000000004E-5</v>
+        <v>8.0952000000000007E-5</v>
       </c>
       <c r="V10">
-        <v>5858</v>
+        <v>8273</v>
       </c>
       <c r="W10" s="1">
-        <v>1.84064E-4</v>
+        <v>7.9958199999999996E-5</v>
       </c>
       <c r="Y10" s="1">
         <f>W10-M10</f>
-        <v>6.3676000000000005E-5</v>
+        <v>-3.1418000000000044E-6</v>
       </c>
       <c r="Z10">
-        <v>5858</v>
+        <v>8273</v>
       </c>
       <c r="AA10" s="1">
-        <v>2.0061260000000001E-4</v>
+        <v>1.7368550000000001E-4</v>
       </c>
       <c r="AB10" s="1">
         <f>AA10-O10</f>
-        <v>1.6731260000000001E-4</v>
+        <v>1.5148550000000001E-4</v>
       </c>
       <c r="AC10" s="1">
         <f>AA10-M10</f>
-        <v>8.0224600000000011E-5</v>
+        <v>9.0585500000000009E-5</v>
       </c>
       <c r="AD10" s="1">
-        <v>1.242897E-4</v>
+        <v>9.9606500000000003E-5</v>
       </c>
       <c r="AE10" s="1">
         <f>AD10-M10</f>
-        <v>3.9016999999999969E-6</v>
+        <v>1.6506500000000002E-5</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.0807299999999995E-5</v>
+        <v>4.72454E-5</v>
       </c>
       <c r="AG10" s="1">
         <f>AF10-M10</f>
-        <v>-4.9580700000000005E-5</v>
+        <v>-3.5854600000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>0.61197739699999998</v>
+        <v>0.58903709800000004</v>
       </c>
       <c r="D11">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="E11">
-        <v>2.4972900000000002E-4</v>
+        <v>1.6086400000000001E-4</v>
       </c>
       <c r="F11">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="G11">
-        <v>2.8298199999999998E-4</v>
+        <v>2.66667E-4</v>
       </c>
       <c r="H11">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="I11">
-        <v>1.61111E-4</v>
+        <v>1.44444E-4</v>
       </c>
       <c r="J11">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="K11" s="2">
-        <v>1.18387E-4</v>
+        <v>7.36E-5</v>
       </c>
       <c r="L11" s="2">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="M11" s="1">
-        <v>1.19389E-4</v>
+        <v>7.2200000000000007E-5</v>
       </c>
       <c r="N11">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="O11" s="3">
-        <v>7.7799999999999994E-5</v>
+        <v>6.6699999999999995E-5</v>
       </c>
       <c r="P11" s="3">
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="Q11">
         <f>V11/10</f>
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="R11">
         <f>MIN(C11,E11,G11,I11,K11,M11,O11)</f>
-        <v>7.7799999999999994E-5</v>
+        <v>6.6699999999999995E-5</v>
       </c>
       <c r="S11">
         <f>MIN(D11,F11,H11,J11,L11,N11,P11)</f>
-        <v>585.79999999999995</v>
+        <v>589.1</v>
       </c>
       <c r="T11" s="1">
         <f>K11-O11</f>
-        <v>4.058700000000001E-5</v>
+        <v>6.9000000000000051E-6</v>
       </c>
       <c r="U11" s="1">
         <f>K11-M11</f>
-        <v>-1.0020000000000016E-6</v>
+        <v>1.3999999999999934E-6</v>
       </c>
       <c r="V11">
-        <v>5858</v>
+        <v>5891</v>
       </c>
       <c r="W11" s="1">
-        <v>1.28956E-4</v>
+        <v>1.50944E-4</v>
       </c>
       <c r="Y11" s="1">
         <f>W11-M11</f>
-        <v>9.5669999999999984E-6</v>
+        <v>7.874399999999999E-5</v>
       </c>
       <c r="Z11">
-        <v>5858</v>
+        <v>5891</v>
       </c>
       <c r="AA11" s="1">
-        <v>1.600413E-4</v>
+        <v>7.2088299999999999E-5</v>
       </c>
       <c r="AB11" s="1">
         <f>AA11-O11</f>
-        <v>8.2241300000000008E-5</v>
+        <v>5.388300000000004E-6</v>
       </c>
       <c r="AC11" s="1">
         <f>AA11-M11</f>
-        <v>4.0652299999999997E-5</v>
+        <v>-1.1170000000000776E-7</v>
       </c>
       <c r="AD11" s="1">
-        <v>1.3688400000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="AE11" s="1">
         <f>AD11-M11</f>
-        <v>1.7495000000000008E-5</v>
+        <v>-2.2200000000000004E-5</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.1277600000000003E-5</v>
+        <v>2.2222199999999999E-5</v>
       </c>
       <c r="AG11" s="1">
         <f>AF11-M11</f>
-        <v>-4.8111400000000002E-5</v>
+        <v>-4.9977800000000008E-5</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.277764503</v>
+        <v>0.61780203300000003</v>
       </c>
       <c r="D12">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="E12">
-        <v>2.48729E-4</v>
+        <v>3.2851199999999999E-4</v>
       </c>
       <c r="F12">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="G12">
-        <v>1.88889E-4</v>
+        <v>2.38889E-4</v>
       </c>
       <c r="H12">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="I12">
-        <v>2.7049399999999998E-4</v>
+        <v>1.44444E-4</v>
       </c>
       <c r="J12">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="K12" s="2">
-        <v>1.12267E-4</v>
+        <v>1.3616299999999999E-4</v>
       </c>
       <c r="L12" s="2">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="M12" s="1">
-        <v>9.6299999999999996E-5</v>
+        <v>1.3114800000000001E-4</v>
       </c>
       <c r="N12">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="O12" s="3">
-        <v>4.4400000000000002E-5</v>
+        <v>8.4400000000000005E-5</v>
       </c>
       <c r="P12" s="3">
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="Q12">
         <f>V12/10</f>
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="R12">
         <f>MIN(C12,E12,G12,I12,K12,M12,O12)</f>
-        <v>4.4400000000000002E-5</v>
+        <v>8.4400000000000005E-5</v>
       </c>
       <c r="S12">
         <f>MIN(D12,F12,H12,J12,L12,N12,P12)</f>
-        <v>827.3</v>
+        <v>589.1</v>
       </c>
       <c r="T12" s="1">
         <f>K12-O12</f>
-        <v>6.7866999999999992E-5</v>
+        <v>5.1762999999999985E-5</v>
       </c>
       <c r="U12" s="1">
         <f>K12-M12</f>
-        <v>1.5967000000000005E-5</v>
+        <v>5.0149999999999782E-6</v>
       </c>
       <c r="V12">
-        <v>8273</v>
+        <v>5891</v>
       </c>
       <c r="W12" s="1">
-        <v>1.2619700000000001E-4</v>
+        <v>1.51409E-4</v>
       </c>
       <c r="Y12" s="1">
         <f>W12-M12</f>
-        <v>2.9897000000000015E-5</v>
+        <v>2.0260999999999988E-5</v>
       </c>
       <c r="Z12">
-        <v>8273</v>
+        <v>5891</v>
       </c>
       <c r="AA12" s="1">
-        <v>1.0285000000000001E-4</v>
+        <v>9.1236200000000006E-5</v>
       </c>
       <c r="AB12" s="1">
         <f>AA12-O12</f>
-        <v>5.8450000000000005E-5</v>
+        <v>6.8362000000000007E-6</v>
       </c>
       <c r="AC12" s="1">
         <f>AA12-M12</f>
-        <v>6.5500000000000101E-6</v>
+        <v>-3.9911800000000006E-5</v>
       </c>
       <c r="AD12" s="1">
-        <v>1.088178E-4</v>
+        <v>6.1072400000000002E-5</v>
       </c>
       <c r="AE12" s="1">
         <f>AD12-M12</f>
-        <v>1.2517800000000004E-5</v>
+        <v>-7.0075600000000011E-5</v>
       </c>
       <c r="AF12" s="1">
-        <v>7.7255299999999999E-5</v>
+        <v>6.1072400000000002E-5</v>
       </c>
       <c r="AG12" s="1">
         <f>AF12-M12</f>
-        <v>-1.9044699999999997E-5</v>
+        <v>-7.0075600000000011E-5</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>0.58903709800000004</v>
+        <v>0.602995477</v>
       </c>
       <c r="D13">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="E13">
-        <v>1.6086400000000001E-4</v>
+        <v>3.3460800000000002E-4</v>
       </c>
       <c r="F13">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="G13">
-        <v>2.66667E-4</v>
+        <v>5.3992899999999997E-4</v>
       </c>
       <c r="H13">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="I13">
-        <v>1.44444E-4</v>
+        <v>2.3373799999999999E-4</v>
       </c>
       <c r="J13">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="K13" s="2">
-        <v>7.36E-5</v>
+        <v>1.8112799999999999E-4</v>
       </c>
       <c r="L13" s="2">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="M13" s="1">
-        <v>7.2200000000000007E-5</v>
+        <v>5.1051000000000004E-4</v>
       </c>
       <c r="N13">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="O13" s="3">
-        <v>6.6699999999999995E-5</v>
+        <v>1.88899E-4</v>
       </c>
       <c r="P13" s="3">
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="Q13">
         <f>V13/10</f>
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="R13">
         <f>MIN(C13,E13,G13,I13,K13,M13,O13)</f>
-        <v>6.6699999999999995E-5</v>
+        <v>1.8112799999999999E-4</v>
       </c>
       <c r="S13">
         <f>MIN(D13,F13,H13,J13,L13,N13,P13)</f>
-        <v>589.1</v>
+        <v>588.70000000000005</v>
       </c>
       <c r="T13" s="1">
         <f>K13-O13</f>
-        <v>6.9000000000000051E-6</v>
+        <v>-7.771000000000004E-6</v>
       </c>
       <c r="U13" s="1">
         <f>K13-M13</f>
-        <v>1.3999999999999934E-6</v>
+        <v>-3.2938200000000003E-4</v>
       </c>
       <c r="V13">
-        <v>5891</v>
+        <v>5887</v>
       </c>
       <c r="W13" s="1">
-        <v>1.50944E-4</v>
+        <v>1.70773E-3</v>
       </c>
       <c r="Y13" s="1">
         <f>W13-M13</f>
-        <v>7.874399999999999E-5</v>
+        <v>1.1972199999999999E-3</v>
       </c>
       <c r="Z13">
-        <v>5891</v>
+        <v>5887</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.2088299999999999E-5</v>
+        <v>4.3988920000000002E-4</v>
       </c>
       <c r="AB13" s="1">
         <f>AA13-O13</f>
-        <v>5.388300000000004E-6</v>
+        <v>2.5099020000000005E-4</v>
       </c>
       <c r="AC13" s="1">
         <f>AA13-M13</f>
-        <v>-1.1170000000000776E-7</v>
+        <v>-7.0620800000000027E-5</v>
       </c>
       <c r="AD13" s="1">
-        <v>5.0000000000000002E-5</v>
+        <v>5.7685959999999997E-4</v>
       </c>
       <c r="AE13" s="1">
         <f>AD13-M13</f>
-        <v>-2.2200000000000004E-5</v>
+        <v>6.6349599999999931E-5</v>
       </c>
       <c r="AF13" s="1">
-        <v>2.2222199999999999E-5</v>
+        <v>1.8112790000000001E-4</v>
       </c>
       <c r="AG13" s="1">
         <f>AF13-M13</f>
-        <v>-4.9977800000000008E-5</v>
+        <v>-3.2938210000000006E-4</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>0.56541444100000005</v>
+        <v>0.60093149499999998</v>
       </c>
       <c r="D14">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="E14">
-        <v>1.8039299999999999E-4</v>
+        <v>4.11705E-4</v>
       </c>
       <c r="F14">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="G14">
-        <v>1.6666700000000001E-4</v>
+        <v>3.42429E-4</v>
       </c>
       <c r="H14">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="I14">
-        <v>1.55556E-4</v>
+        <v>2.6763500000000001E-4</v>
       </c>
       <c r="J14">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="K14" s="2">
-        <v>7.8300000000000006E-5</v>
+        <v>8.0082750000000005E-3</v>
       </c>
       <c r="L14" s="2">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="M14" s="1">
-        <v>7.2200000000000007E-5</v>
+        <v>3.1221500000000002E-4</v>
       </c>
       <c r="N14">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="O14" s="3">
-        <v>5.5600000000000003E-5</v>
+        <v>6.8006000000000002E-4</v>
       </c>
       <c r="P14" s="3">
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="Q14">
         <f>V14/10</f>
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="R14">
         <f>MIN(C14,E14,G14,I14,K14,M14,O14)</f>
-        <v>5.5600000000000003E-5</v>
+        <v>2.6763500000000001E-4</v>
       </c>
       <c r="S14">
         <f>MIN(D14,F14,H14,J14,L14,N14,P14)</f>
-        <v>827.3</v>
+        <v>588.1</v>
       </c>
       <c r="T14" s="1">
         <f>K14-O14</f>
-        <v>2.2700000000000003E-5</v>
+        <v>7.3282150000000008E-3</v>
       </c>
       <c r="U14" s="1">
         <f>K14-M14</f>
-        <v>6.0999999999999992E-6</v>
+        <v>7.6960600000000002E-3</v>
       </c>
       <c r="V14">
-        <v>8273</v>
+        <v>5881</v>
       </c>
       <c r="W14" s="1">
-        <v>7.7221100000000005E-5</v>
+        <v>1.7747869999999999E-3</v>
       </c>
       <c r="Y14" s="1">
         <f>W14-M14</f>
-        <v>5.0210999999999984E-6</v>
+        <v>1.4625719999999999E-3</v>
       </c>
       <c r="Z14">
-        <v>8273</v>
+        <v>5881</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.0490799999999999E-5</v>
+        <v>2.0769735899999999E-2</v>
       </c>
       <c r="AB14" s="1">
         <f>AA14-O14</f>
-        <v>2.4890799999999996E-5</v>
+        <v>2.0089675899999999E-2</v>
       </c>
       <c r="AC14" s="1">
         <f>AA14-M14</f>
-        <v>8.2907999999999918E-6</v>
+        <v>2.0457520899999998E-2</v>
       </c>
       <c r="AD14" s="1">
-        <v>5.93813E-5</v>
+        <v>4.3065900000000001E-4</v>
       </c>
       <c r="AE14" s="1">
         <f>AD14-M14</f>
-        <v>-1.2818700000000007E-5</v>
+        <v>1.1844399999999999E-4</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.17227E-5</v>
+        <v>4.3065900000000001E-4</v>
       </c>
       <c r="AG14" s="1">
         <f>AF14-M14</f>
-        <v>-3.0477300000000007E-5</v>
+        <v>1.1844399999999999E-4</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C15">
-        <v>0.57290783000000001</v>
+        <v>0.60542178099999999</v>
       </c>
       <c r="D15">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="E15">
-        <v>1.7437299999999999E-4</v>
+        <v>2.6437800000000001E-4</v>
       </c>
       <c r="F15">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="G15">
-        <v>2.96111E-4</v>
+        <v>2.3333300000000001E-4</v>
       </c>
       <c r="H15">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="I15">
-        <v>1.44444E-4</v>
+        <v>1.6908400000000001E-4</v>
       </c>
       <c r="J15">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="K15" s="2">
-        <v>2.1079200000000001E-4</v>
+        <v>1.28608E-4</v>
       </c>
       <c r="L15" s="2">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="M15" s="1">
-        <v>8.8900000000000006E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="N15">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="O15" s="3">
-        <v>7.7799999999999994E-5</v>
+        <v>2.13067E-4</v>
       </c>
       <c r="P15" s="3">
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="Q15">
         <f>V15/10</f>
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="R15">
         <f>MIN(C15,E15,G15,I15,K15,M15,O15)</f>
-        <v>7.7799999999999994E-5</v>
+        <v>8.8399999999999994E-5</v>
       </c>
       <c r="S15">
         <f>MIN(D15,F15,H15,J15,L15,N15,P15)</f>
-        <v>827.3</v>
+        <v>586.4</v>
       </c>
       <c r="T15" s="1">
         <f>K15-O15</f>
-        <v>1.3299200000000002E-4</v>
+        <v>-8.4458999999999999E-5</v>
       </c>
       <c r="U15" s="1">
         <f>K15-M15</f>
-        <v>1.21892E-4</v>
+        <v>4.0208000000000005E-5</v>
       </c>
       <c r="V15">
-        <v>8273</v>
+        <v>5864</v>
       </c>
       <c r="W15" s="1">
-        <v>8.6275300000000004E-5</v>
+        <v>1.1851800000000001E-4</v>
       </c>
       <c r="Y15" s="1">
         <f>W15-M15</f>
-        <v>-2.6247000000000022E-6</v>
+        <v>3.0118000000000012E-5</v>
       </c>
       <c r="Z15">
-        <v>8273</v>
+        <v>5864</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.8668899999999995E-5</v>
+        <v>1.1579319999999999E-4</v>
       </c>
       <c r="AB15" s="1">
         <f>AA15-O15</f>
-        <v>8.6890000000000112E-7</v>
+        <v>-9.7273800000000004E-5</v>
       </c>
       <c r="AC15" s="1">
         <f>AA15-M15</f>
-        <v>-1.0231100000000011E-5</v>
+        <v>2.7393200000000001E-5</v>
       </c>
       <c r="AD15" s="1">
-        <v>6.6928599999999995E-5</v>
+        <v>9.83724E-5</v>
       </c>
       <c r="AE15" s="1">
         <f>AD15-M15</f>
-        <v>-2.1971400000000011E-5</v>
+        <v>9.9724000000000064E-6</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.6928599999999995E-5</v>
+        <v>4.9520600000000002E-5</v>
       </c>
       <c r="AG15" s="1">
         <f>AF15-M15</f>
-        <v>-2.1971400000000011E-5</v>
+        <v>-3.8879399999999992E-5</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16">
-        <v>0.60046176100000004</v>
+        <v>0.60001396500000004</v>
       </c>
       <c r="D16">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="E16">
-        <v>3.9684480000000003E-3</v>
+        <v>2.8793100000000001E-4</v>
       </c>
       <c r="F16">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="G16">
-        <v>3.01124E-4</v>
+        <v>3.4690900000000001E-4</v>
       </c>
       <c r="H16">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="I16">
-        <v>4.29908E-4</v>
+        <v>1.44444E-4</v>
       </c>
       <c r="J16">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="K16" s="2">
-        <v>4.4493899999999999E-4</v>
+        <v>1.2233599999999999E-4</v>
       </c>
       <c r="L16" s="2">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="M16" s="1">
-        <v>1.06347E-4</v>
+        <v>8.3300000000000005E-5</v>
       </c>
       <c r="N16">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="O16" s="3">
-        <v>3.5463489999999999E-3</v>
+        <v>9.3499999999999996E-5</v>
       </c>
       <c r="P16" s="3">
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="Q16">
         <f>V16/10</f>
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="R16">
         <f>MIN(C16,E16,G16,I16,K16,M16,O16)</f>
-        <v>1.06347E-4</v>
+        <v>8.3300000000000005E-5</v>
       </c>
       <c r="S16">
         <f>MIN(D16,F16,H16,J16,L16,N16,P16)</f>
-        <v>1637.7</v>
+        <v>586</v>
       </c>
       <c r="T16" s="1">
         <f>K16-O16</f>
-        <v>-3.1014099999999998E-3</v>
+        <v>2.8835999999999993E-5</v>
       </c>
       <c r="U16" s="1">
         <f>K16-M16</f>
-        <v>3.3859199999999997E-4</v>
+        <v>3.9035999999999983E-5</v>
       </c>
       <c r="V16">
-        <v>16377</v>
+        <v>5860</v>
       </c>
       <c r="W16" s="1">
-        <v>2.8952099999999999E-4</v>
+        <v>1.3439499999999999E-4</v>
       </c>
       <c r="Y16" s="1">
         <f>W16-M16</f>
-        <v>1.8317399999999998E-4</v>
+        <v>5.1094999999999984E-5</v>
       </c>
       <c r="Z16">
-        <v>16377</v>
+        <v>5860</v>
       </c>
       <c r="AA16" s="1">
-        <v>3.5250489999999999E-4</v>
+        <v>2.2117940000000001E-4</v>
       </c>
       <c r="AB16" s="1">
         <f>AA16-O16</f>
-        <v>-3.1938441E-3</v>
+        <v>1.2767940000000001E-4</v>
       </c>
       <c r="AC16" s="1">
         <f>AA16-M16</f>
-        <v>2.4615789999999998E-4</v>
+        <v>1.3787940000000001E-4</v>
       </c>
       <c r="AD16" s="1">
-        <v>2.437165E-4</v>
+        <v>1.043895E-4</v>
       </c>
       <c r="AE16" s="1">
         <f>AD16-M16</f>
-        <v>1.3736949999999999E-4</v>
+        <v>2.1089499999999995E-5</v>
       </c>
       <c r="AF16" s="1">
-        <v>2.0220599999999999E-4</v>
+        <v>7.7009900000000003E-5</v>
       </c>
       <c r="AG16" s="1">
         <f>AF16-M16</f>
-        <v>9.5858999999999991E-5</v>
+        <v>-6.2901000000000027E-6</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C17">
-        <v>0.72384742400000002</v>
+        <v>0.60250640499999997</v>
       </c>
       <c r="D17">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="E17">
-        <v>1.2788599999999999E-4</v>
+        <v>2.26357E-4</v>
       </c>
       <c r="F17">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="G17">
-        <v>1.55556E-4</v>
+        <v>2.1111099999999999E-4</v>
       </c>
       <c r="H17">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="I17">
-        <v>1.44444E-4</v>
+        <v>1.61111E-4</v>
       </c>
       <c r="J17">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="K17" s="2">
-        <v>5.5800000000000001E-5</v>
+        <v>1.36169E-4</v>
       </c>
       <c r="L17" s="2">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="M17" s="1">
-        <v>5.8900000000000002E-5</v>
+        <v>1.20388E-4</v>
       </c>
       <c r="N17">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="O17" s="3">
-        <v>6.1099999999999994E-5</v>
+        <v>3.3300000000000003E-5</v>
       </c>
       <c r="P17" s="3">
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="Q17">
         <f>V17/10</f>
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="R17">
         <f>MIN(C17,E17,G17,I17,K17,M17,O17)</f>
-        <v>5.5800000000000001E-5</v>
+        <v>3.3300000000000003E-5</v>
       </c>
       <c r="S17">
         <f>MIN(D17,F17,H17,J17,L17,N17,P17)</f>
-        <v>827.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="T17" s="1">
         <f>K17-O17</f>
-        <v>-5.2999999999999933E-6</v>
+        <v>1.0286900000000001E-4</v>
       </c>
       <c r="U17" s="1">
         <f>K17-M17</f>
-        <v>-3.1000000000000008E-6</v>
+        <v>1.5781000000000004E-5</v>
       </c>
       <c r="V17">
-        <v>8273</v>
+        <v>5858</v>
       </c>
       <c r="W17" s="1">
-        <v>1.0013000000000001E-4</v>
+        <v>1.84064E-4</v>
       </c>
       <c r="Y17" s="1">
         <f>W17-M17</f>
-        <v>4.1230000000000003E-5</v>
+        <v>6.3676000000000005E-5</v>
       </c>
       <c r="Z17">
-        <v>8273</v>
+        <v>5858</v>
       </c>
       <c r="AA17" s="1">
-        <v>6.8023199999999996E-5</v>
+        <v>2.0061260000000001E-4</v>
       </c>
       <c r="AB17" s="1">
         <f>AA17-O17</f>
-        <v>6.9232000000000017E-6</v>
+        <v>1.6731260000000001E-4</v>
       </c>
       <c r="AC17" s="1">
         <f>AA17-M17</f>
-        <v>9.1231999999999942E-6</v>
+        <v>8.0224600000000011E-5</v>
       </c>
       <c r="AD17" s="1">
-        <v>5.42978E-5</v>
+        <v>1.242897E-4</v>
       </c>
       <c r="AE17" s="1">
         <f>AD17-M17</f>
-        <v>-4.6022000000000014E-6</v>
+        <v>3.9016999999999969E-6</v>
       </c>
       <c r="AF17" s="1">
-        <v>5.0540600000000002E-5</v>
+        <v>7.0807299999999995E-5</v>
       </c>
       <c r="AG17" s="1">
         <f>AF17-M17</f>
-        <v>-8.3594E-6</v>
+        <v>-4.9580700000000005E-5</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.42337738200000002</v>
+        <v>0.61197739699999998</v>
       </c>
       <c r="D18">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="E18">
-        <v>2.00559E-4</v>
+        <v>2.4972900000000002E-4</v>
       </c>
       <c r="F18">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="G18">
+        <v>2.8298199999999998E-4</v>
+      </c>
+      <c r="H18">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="I18">
         <v>1.61111E-4</v>
       </c>
-      <c r="H18">
-        <v>826.3</v>
-      </c>
-      <c r="I18">
-        <v>3.5709700000000001E-4</v>
-      </c>
       <c r="J18">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="K18" s="2">
-        <v>2.2047399999999999E-4</v>
+        <v>1.18387E-4</v>
       </c>
       <c r="L18" s="2">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>1.3687199999999999E-4</v>
+        <v>1.19389E-4</v>
       </c>
       <c r="N18">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="O18" s="3">
-        <v>5.5500000000000001E-5</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="P18" s="3">
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="Q18">
         <f>V18/10</f>
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="R18">
         <f>MIN(C18,E18,G18,I18,K18,M18,O18)</f>
-        <v>5.5500000000000001E-5</v>
+        <v>7.7799999999999994E-5</v>
       </c>
       <c r="S18">
         <f>MIN(D18,F18,H18,J18,L18,N18,P18)</f>
-        <v>826.3</v>
+        <v>585.79999999999995</v>
       </c>
       <c r="T18" s="1">
         <f>K18-O18</f>
-        <v>1.64974E-4</v>
+        <v>4.058700000000001E-5</v>
       </c>
       <c r="U18" s="1">
         <f>K18-M18</f>
-        <v>8.3602000000000004E-5</v>
+        <v>-1.0020000000000016E-6</v>
       </c>
       <c r="V18">
-        <v>8263</v>
+        <v>5858</v>
       </c>
       <c r="W18" s="1">
-        <v>2.2903499999999999E-4</v>
+        <v>1.28956E-4</v>
       </c>
       <c r="Y18" s="1">
         <f>W18-M18</f>
-        <v>9.2163000000000005E-5</v>
+        <v>9.5669999999999984E-6</v>
       </c>
       <c r="Z18">
-        <v>8263</v>
+        <v>5858</v>
       </c>
       <c r="AA18" s="1">
-        <v>2.331256E-4</v>
+        <v>1.600413E-4</v>
       </c>
       <c r="AB18" s="1">
         <f>AA18-O18</f>
-        <v>1.7762560000000001E-4</v>
+        <v>8.2241300000000008E-5</v>
       </c>
       <c r="AC18" s="1">
         <f>AA18-M18</f>
-        <v>9.6253600000000016E-5</v>
+        <v>4.0652299999999997E-5</v>
       </c>
       <c r="AD18" s="1">
-        <v>1.177478E-4</v>
+        <v>1.3688400000000001E-4</v>
       </c>
       <c r="AE18" s="1">
         <f>AD18-M18</f>
-        <v>-1.9124199999999989E-5</v>
+        <v>1.7495000000000008E-5</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.177478E-4</v>
+        <v>7.1277600000000003E-5</v>
       </c>
       <c r="AG18" s="1">
         <f>AF18-M18</f>
-        <v>-1.9124199999999989E-5</v>
+        <v>-4.8111400000000002E-5</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>0.59779013999999997</v>
+        <v>0.60046176100000004</v>
       </c>
       <c r="D19">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="E19">
-        <v>1.6376499999999999E-4</v>
+        <v>3.9684480000000003E-3</v>
       </c>
       <c r="F19">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="G19">
-        <v>1.7664699999999999E-4</v>
+        <v>3.01124E-4</v>
       </c>
       <c r="H19">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="I19">
-        <v>2.0541900000000001E-4</v>
+        <v>4.29908E-4</v>
       </c>
       <c r="J19">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="K19" s="2">
-        <v>1.6405200000000001E-4</v>
+        <v>4.4493899999999999E-4</v>
       </c>
       <c r="L19" s="2">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="M19" s="1">
-        <v>8.3100000000000001E-5</v>
+        <v>1.06347E-4</v>
       </c>
       <c r="N19">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="O19" s="3">
-        <v>2.2200000000000001E-5</v>
+        <v>3.5463489999999999E-3</v>
       </c>
       <c r="P19" s="3">
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="Q19">
         <f>V19/10</f>
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="R19">
         <f>MIN(C19,E19,G19,I19,K19,M19,O19)</f>
-        <v>2.2200000000000001E-5</v>
+        <v>1.06347E-4</v>
       </c>
       <c r="S19">
         <f>MIN(D19,F19,H19,J19,L19,N19,P19)</f>
-        <v>827.3</v>
+        <v>1637.7</v>
       </c>
       <c r="T19" s="1">
         <f>K19-O19</f>
-        <v>1.4185200000000001E-4</v>
+        <v>-3.1014099999999998E-3</v>
       </c>
       <c r="U19" s="1">
         <f>K19-M19</f>
-        <v>8.0952000000000007E-5</v>
+        <v>3.3859199999999997E-4</v>
       </c>
       <c r="V19">
-        <v>8273</v>
+        <v>16377</v>
       </c>
       <c r="W19" s="1">
-        <v>7.9958199999999996E-5</v>
+        <v>2.8952099999999999E-4</v>
       </c>
       <c r="Y19" s="1">
         <f>W19-M19</f>
-        <v>-3.1418000000000044E-6</v>
+        <v>1.8317399999999998E-4</v>
       </c>
       <c r="Z19">
-        <v>8273</v>
+        <v>16377</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.7368550000000001E-4</v>
+        <v>3.5250489999999999E-4</v>
       </c>
       <c r="AB19" s="1">
         <f>AA19-O19</f>
-        <v>1.5148550000000001E-4</v>
+        <v>-3.1938441E-3</v>
       </c>
       <c r="AC19" s="1">
         <f>AA19-M19</f>
-        <v>9.0585500000000009E-5</v>
+        <v>2.4615789999999998E-4</v>
       </c>
       <c r="AD19" s="1">
-        <v>9.9606500000000003E-5</v>
+        <v>2.437165E-4</v>
       </c>
       <c r="AE19" s="1">
         <f>AD19-M19</f>
-        <v>1.6506500000000002E-5</v>
+        <v>1.3736949999999999E-4</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.72454E-5</v>
+        <v>2.0220599999999999E-4</v>
       </c>
       <c r="AG19" s="1">
         <f>AF19-M19</f>
-        <v>-3.5854600000000001E-5</v>
+        <v>9.5858999999999991E-5</v>
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C20">
-        <v>0.57265325499999997</v>
+        <v>0.60283972600000002</v>
       </c>
       <c r="D20">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="E20">
-        <v>2.6920500000000001E-4</v>
+        <v>5.9403799999999997E-4</v>
       </c>
       <c r="F20">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="G20">
-        <v>1.27778E-4</v>
+        <v>1.91299E-4</v>
       </c>
       <c r="H20">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="I20">
-        <v>2.4027799999999999E-4</v>
+        <v>8.1420699999999995E-4</v>
       </c>
       <c r="J20">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="K20" s="2">
-        <v>3.1873399999999999E-4</v>
+        <v>2.5686900000000001E-4</v>
       </c>
       <c r="L20" s="2">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="M20" s="1">
-        <v>1.3462899999999999E-4</v>
+        <v>1.20767E-4</v>
       </c>
       <c r="N20">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="O20" s="3">
-        <v>3.3076699999999999E-4</v>
+        <v>1.893741E-3</v>
       </c>
       <c r="P20" s="3">
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="Q20">
         <f>V20/10</f>
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="R20">
         <f>MIN(C20,E20,G20,I20,K20,M20,O20)</f>
-        <v>1.27778E-4</v>
+        <v>1.20767E-4</v>
       </c>
       <c r="S20">
         <f>MIN(D20,F20,H20,J20,L20,N20,P20)</f>
-        <v>822.9</v>
+        <v>1466.6</v>
       </c>
       <c r="T20" s="1">
         <f>K20-O20</f>
-        <v>-1.2032999999999998E-5</v>
+        <v>-1.6368719999999999E-3</v>
       </c>
       <c r="U20" s="1">
         <f>K20-M20</f>
-        <v>1.84105E-4</v>
+        <v>1.3610200000000001E-4</v>
       </c>
       <c r="V20">
-        <v>8229</v>
+        <v>14666</v>
       </c>
       <c r="W20" s="1">
-        <v>4.52817E-4</v>
+        <v>3.8574600000000002E-4</v>
       </c>
       <c r="Y20" s="1">
         <f>W20-M20</f>
-        <v>3.1818800000000001E-4</v>
+        <v>2.6497900000000004E-4</v>
       </c>
       <c r="Z20">
-        <v>8229</v>
+        <v>14666</v>
       </c>
       <c r="AA20" s="1">
-        <v>2.9196199999999999E-4</v>
+        <v>4.6078759999999998E-4</v>
       </c>
       <c r="AB20" s="1">
         <f>AA20-O20</f>
-        <v>-3.8804999999999992E-5</v>
+        <v>-1.4329534E-3</v>
       </c>
       <c r="AC20" s="1">
         <f>AA20-M20</f>
-        <v>1.5733300000000001E-4</v>
+        <v>3.400206E-4</v>
       </c>
       <c r="AD20" s="1">
-        <v>3.473967E-4</v>
+        <v>2.4104049999999999E-4</v>
       </c>
       <c r="AE20" s="1">
         <f>AD20-M20</f>
-        <v>2.1276770000000001E-4</v>
+        <v>1.2027349999999999E-4</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.3311390000000001E-4</v>
+        <v>1.7716030000000001E-4</v>
       </c>
       <c r="AG20" s="1">
         <f>AF20-M20</f>
-        <v>-1.5150999999999815E-6</v>
+        <v>5.6393300000000008E-5</v>
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C21">
-        <v>0.64670032200000005</v>
+        <v>0.60790812500000002</v>
       </c>
       <c r="D21">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="E21">
-        <v>1.6083199999999999E-4</v>
+        <v>3.1018550000000002E-3</v>
       </c>
       <c r="F21">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="G21">
-        <v>1.61111E-4</v>
+        <v>6.2726800000000005E-4</v>
       </c>
       <c r="H21">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="I21">
-        <v>1.4768100000000001E-4</v>
+        <v>1.325122E-3</v>
       </c>
       <c r="J21">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="K21" s="2">
-        <v>9.0799999999999998E-5</v>
+        <v>2.709567E-3</v>
       </c>
       <c r="L21" s="2">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="M21" s="1">
-        <v>6.1326000000000002E-5</v>
+        <v>3.1795599999999999E-4</v>
       </c>
       <c r="N21">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="O21" s="3">
-        <v>5.5600000000000003E-5</v>
+        <v>1.647166E-3</v>
       </c>
       <c r="P21" s="3">
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="Q21">
         <f>V21/10</f>
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="R21">
         <f>MIN(C21,E21,G21,I21,K21,M21,O21)</f>
-        <v>5.5600000000000003E-5</v>
+        <v>3.1795599999999999E-4</v>
       </c>
       <c r="S21">
         <f>MIN(D21,F21,H21,J21,L21,N21,P21)</f>
-        <v>827.3</v>
+        <v>1208.7</v>
       </c>
       <c r="T21" s="1">
         <f>K21-O21</f>
-        <v>3.5199999999999995E-5</v>
+        <v>1.0624009999999999E-3</v>
       </c>
       <c r="U21" s="1">
         <f>K21-M21</f>
-        <v>2.9473999999999996E-5</v>
+        <v>2.3916110000000001E-3</v>
       </c>
       <c r="V21">
-        <v>8273</v>
+        <v>12087</v>
       </c>
       <c r="W21" s="1">
-        <v>9.3989100000000004E-5</v>
+        <v>7.830231E-3</v>
       </c>
       <c r="Y21" s="1">
         <f>W21-M21</f>
-        <v>3.2663100000000002E-5</v>
+        <v>7.5122749999999997E-3</v>
       </c>
       <c r="Z21">
-        <v>8273</v>
+        <v>12087</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.034919E-4</v>
+        <v>4.5139639999999999E-4</v>
       </c>
       <c r="AB21" s="1">
         <f>AA21-O21</f>
-        <v>4.7891899999999995E-5</v>
+        <v>-1.1957695999999999E-3</v>
       </c>
       <c r="AC21" s="1">
         <f>AA21-M21</f>
-        <v>4.2165899999999996E-5</v>
+        <v>1.334404E-4</v>
       </c>
       <c r="AD21" s="1">
-        <v>5.9074399999999998E-5</v>
+        <v>1.1449716E-3</v>
       </c>
       <c r="AE21" s="1">
         <f>AD21-M21</f>
-        <v>-2.251600000000004E-6</v>
+        <v>8.2701560000000005E-4</v>
       </c>
       <c r="AF21" s="1">
-        <v>5.9074399999999998E-5</v>
+        <v>4.5139639999999999E-4</v>
       </c>
       <c r="AG21" s="1">
         <f>AF21-M21</f>
-        <v>-2.251600000000004E-6</v>
+        <v>1.334404E-4</v>
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C22">
-        <v>0.60542178099999999</v>
+        <v>0.73038912099999997</v>
       </c>
       <c r="D22">
-        <v>586.4</v>
+        <v>976</v>
       </c>
       <c r="E22">
-        <v>2.6437800000000001E-4</v>
+        <v>9.1565710000000005E-3</v>
       </c>
       <c r="F22">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="G22">
-        <v>2.3333300000000001E-4</v>
+        <v>5.8514500000000002E-3</v>
       </c>
       <c r="H22">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="I22">
-        <v>1.6908400000000001E-4</v>
+        <v>1.0730570000000001E-3</v>
       </c>
       <c r="J22">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="K22" s="2">
-        <v>1.28608E-4</v>
+        <v>4.8493479999999999E-3</v>
       </c>
       <c r="L22" s="2">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="M22" s="1">
-        <v>8.8399999999999994E-5</v>
+        <v>1.1714589999999999E-3</v>
       </c>
       <c r="N22">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="O22" s="3">
-        <v>2.13067E-4</v>
+        <v>7.8285599999999996E-4</v>
       </c>
       <c r="P22" s="3">
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="Q22">
         <f>V22/10</f>
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="R22">
         <f>MIN(C22,E22,G22,I22,K22,M22,O22)</f>
-        <v>8.8399999999999994E-5</v>
+        <v>7.8285599999999996E-4</v>
       </c>
       <c r="S22">
         <f>MIN(D22,F22,H22,J22,L22,N22,P22)</f>
-        <v>586.4</v>
+        <v>971.5</v>
       </c>
       <c r="T22" s="1">
         <f>K22-O22</f>
-        <v>-8.4458999999999999E-5</v>
+        <v>4.0664919999999997E-3</v>
       </c>
       <c r="U22" s="1">
         <f>K22-M22</f>
-        <v>4.0208000000000005E-5</v>
+        <v>3.6778890000000002E-3</v>
       </c>
       <c r="V22">
-        <v>5864</v>
+        <v>9715</v>
       </c>
       <c r="W22" s="1">
-        <v>1.1851800000000001E-4</v>
+        <v>2.717367E-3</v>
       </c>
       <c r="Y22" s="1">
         <f>W22-M22</f>
-        <v>3.0118000000000012E-5</v>
+        <v>1.5459080000000001E-3</v>
       </c>
       <c r="Z22">
-        <v>5864</v>
+        <v>9715</v>
       </c>
       <c r="AA22" s="1">
-        <v>1.1579319999999999E-4</v>
+        <v>0.21543510890000001</v>
       </c>
       <c r="AB22" s="1">
         <f>AA22-O22</f>
-        <v>-9.7273800000000004E-5</v>
+        <v>0.21465225290000001</v>
       </c>
       <c r="AC22" s="1">
         <f>AA22-M22</f>
-        <v>2.7393200000000001E-5</v>
+        <v>0.21426364989999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>9.83724E-5</v>
+        <v>4.1065190999999999E-3</v>
       </c>
       <c r="AE22" s="1">
         <f>AD22-M22</f>
-        <v>9.9724000000000064E-6</v>
+        <v>2.9350601000000002E-3</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.9520600000000002E-5</v>
+        <v>2.7173672000000001E-3</v>
       </c>
       <c r="AG22" s="1">
         <f>AF22-M22</f>
-        <v>-3.8879399999999992E-5</v>
+        <v>1.5459082000000002E-3</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>0.13682222199999999</v>
+        <v>0.143959103</v>
       </c>
       <c r="D23">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="E23">
-        <v>2.5000000000000001E-4</v>
+        <v>2.6698889999999999E-3</v>
       </c>
       <c r="F23">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="G23">
-        <v>1.8333299999999999E-4</v>
+        <v>4.8148199999999998E-4</v>
       </c>
       <c r="H23">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="I23">
-        <v>2.8333299999999998E-4</v>
+        <v>1.0888174E-2</v>
       </c>
       <c r="J23">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="K23" s="2">
-        <v>7.7799999999999994E-5</v>
+        <v>9.980709999999999E-4</v>
       </c>
       <c r="L23" s="2">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="M23" s="1">
-        <v>4.6100000000000002E-5</v>
+        <v>5.5503900000000001E-4</v>
       </c>
       <c r="N23">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="O23" s="3">
-        <v>5.5600000000000003E-5</v>
+        <v>5.9942899999999996E-4</v>
       </c>
       <c r="P23" s="3">
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="Q23">
         <f>V23/10</f>
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="R23">
         <f>MIN(C23,E23,G23,I23,K23,M23,O23)</f>
-        <v>4.6100000000000002E-5</v>
+        <v>4.8148199999999998E-4</v>
       </c>
       <c r="S23">
         <f>MIN(D23,F23,H23,J23,L23,N23,P23)</f>
-        <v>827.3</v>
+        <v>1355.3</v>
       </c>
       <c r="T23" s="1">
         <f>K23-O23</f>
-        <v>2.2199999999999991E-5</v>
+        <v>3.9864199999999994E-4</v>
       </c>
       <c r="U23" s="1">
         <f>K23-M23</f>
-        <v>3.1699999999999991E-5</v>
+        <v>4.4303199999999989E-4</v>
       </c>
       <c r="V23">
-        <v>8273</v>
+        <v>13553</v>
       </c>
       <c r="W23" s="1">
-        <v>8.6419E-5</v>
+        <v>5.5235559999999998E-3</v>
       </c>
       <c r="Y23" s="1">
         <f>W23-M23</f>
-        <v>4.0318999999999998E-5</v>
+        <v>4.9685169999999996E-3</v>
       </c>
       <c r="Z23">
-        <v>8273</v>
+        <v>13553</v>
       </c>
       <c r="AA23" s="1">
-        <v>9.1206300000000001E-5</v>
+        <v>3.4856977000000001E-3</v>
       </c>
       <c r="AB23" s="1">
         <f>AA23-O23</f>
-        <v>3.5606299999999998E-5</v>
+        <v>2.8862687000000002E-3</v>
       </c>
       <c r="AC23" s="1">
         <f>AA23-M23</f>
-        <v>4.5106299999999999E-5</v>
+        <v>2.9306586999999999E-3</v>
       </c>
       <c r="AD23" s="1">
-        <v>8.9460400000000002E-5</v>
+        <v>1.1306040999999999E-3</v>
       </c>
       <c r="AE23" s="1">
         <f>AD23-M23</f>
-        <v>4.3360399999999999E-5</v>
+        <v>5.7556509999999992E-4</v>
       </c>
       <c r="AF23" s="1">
-        <v>3.8935900000000001E-5</v>
+        <v>4.9246209999999997E-4</v>
       </c>
       <c r="AG23" s="1">
         <f>AF23-M23</f>
-        <v>-7.1641000000000014E-6</v>
+        <v>-6.2576900000000041E-5</v>
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>0.60001396500000004</v>
+        <v>0.28092267799999998</v>
       </c>
       <c r="D24">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="E24">
-        <v>2.8793100000000001E-4</v>
+        <v>2.6832700000000002E-3</v>
       </c>
       <c r="F24">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="G24">
-        <v>3.4690900000000001E-4</v>
+        <v>6.74392E-4</v>
       </c>
       <c r="H24">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="I24">
-        <v>1.44444E-4</v>
+        <v>9.4611150000000008E-3</v>
       </c>
       <c r="J24">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>1.2233599999999999E-4</v>
+        <v>1.74581E-3</v>
       </c>
       <c r="L24" s="2">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>8.3300000000000005E-5</v>
+        <v>1.4840949999999999E-3</v>
       </c>
       <c r="N24">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="O24" s="3">
-        <v>9.3499999999999996E-5</v>
+        <v>5.6537600000000003E-4</v>
       </c>
       <c r="P24" s="3">
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="Q24">
         <f>V24/10</f>
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="R24">
         <f>MIN(C24,E24,G24,I24,K24,M24,O24)</f>
-        <v>8.3300000000000005E-5</v>
+        <v>5.6537600000000003E-4</v>
       </c>
       <c r="S24">
         <f>MIN(D24,F24,H24,J24,L24,N24,P24)</f>
-        <v>586</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="T24" s="1">
         <f>K24-O24</f>
-        <v>2.8835999999999993E-5</v>
+        <v>1.180434E-3</v>
       </c>
       <c r="U24" s="1">
         <f>K24-M24</f>
-        <v>3.9035999999999983E-5</v>
+        <v>2.6171500000000004E-4</v>
       </c>
       <c r="V24">
-        <v>5860</v>
+        <v>12346</v>
       </c>
       <c r="W24" s="1">
-        <v>1.3439499999999999E-4</v>
+        <v>2.2177059999999998E-3</v>
       </c>
       <c r="Y24" s="1">
         <f>W24-M24</f>
-        <v>5.1094999999999984E-5</v>
+        <v>7.336109999999999E-4</v>
       </c>
       <c r="Z24">
-        <v>5860</v>
+        <v>12346</v>
       </c>
       <c r="AA24" s="1">
-        <v>2.2117940000000001E-4</v>
+        <v>6.7664649999999999E-4</v>
       </c>
       <c r="AB24" s="1">
         <f>AA24-O24</f>
-        <v>1.2767940000000001E-4</v>
+        <v>1.1127049999999996E-4</v>
       </c>
       <c r="AC24" s="1">
         <f>AA24-M24</f>
-        <v>1.3787940000000001E-4</v>
+        <v>-8.0744849999999995E-4</v>
       </c>
       <c r="AD24" s="1">
-        <v>1.043895E-4</v>
+        <v>1.5845996000000001E-3</v>
       </c>
       <c r="AE24" s="1">
         <f>AD24-M24</f>
-        <v>2.1089499999999995E-5</v>
+        <v>1.0050460000000016E-4</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.7009900000000003E-5</v>
+        <v>6.7664649999999999E-4</v>
       </c>
       <c r="AG24" s="1">
         <f>AF24-M24</f>
-        <v>-6.2901000000000027E-6</v>
+        <v>-8.0744849999999995E-4</v>
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25">
-        <v>0.142521234</v>
+        <v>0.45166905099999999</v>
       </c>
       <c r="D25">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="E25">
-        <v>2.9905320000000002E-3</v>
+        <v>4.4042949999999999E-3</v>
       </c>
       <c r="F25">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="G25">
-        <v>8.1154600000000001E-4</v>
+        <v>8.5227399999999998E-4</v>
       </c>
       <c r="H25">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="I25">
-        <v>2.9128930000000002E-3</v>
+        <v>0.12779695099999999</v>
       </c>
       <c r="J25">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="K25" s="2">
-        <v>4.767599E-3</v>
+        <v>4.0548290000000002E-3</v>
       </c>
       <c r="L25" s="2">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="M25" s="1">
-        <v>5.3112299999999999E-4</v>
+        <v>8.9550999999999997E-4</v>
       </c>
       <c r="N25">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="O25" s="3">
-        <v>1.099689E-3</v>
+        <v>1.2135239999999999E-3</v>
       </c>
       <c r="P25" s="3">
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="Q25">
         <f>V25/10</f>
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="R25">
         <f>MIN(C25,E25,G25,I25,K25,M25,O25)</f>
-        <v>5.3112299999999999E-4</v>
+        <v>8.5227399999999998E-4</v>
       </c>
       <c r="S25">
         <f>MIN(D25,F25,H25,J25,L25,N25,P25)</f>
-        <v>1146.9000000000001</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="T25" s="1">
         <f>K25-O25</f>
-        <v>3.6679099999999999E-3</v>
+        <v>2.8413050000000006E-3</v>
       </c>
       <c r="U25" s="1">
         <f>K25-M25</f>
-        <v>4.2364760000000003E-3</v>
+        <v>3.1593190000000003E-3</v>
       </c>
       <c r="V25">
-        <v>11469</v>
+        <v>10646</v>
       </c>
       <c r="W25" s="1">
-        <v>1.0799729999999999E-3</v>
+        <v>2.4448690000000001E-3</v>
       </c>
       <c r="Y25" s="1">
         <f>W25-M25</f>
-        <v>5.4884999999999992E-4</v>
+        <v>1.5493590000000002E-3</v>
       </c>
       <c r="Z25">
-        <v>11469</v>
+        <v>10646</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.0084290000000005E-4</v>
+        <v>1.6547205999999999E-3</v>
       </c>
       <c r="AB25" s="1">
         <f>AA25-O25</f>
-        <v>-2.988461E-4</v>
+        <v>4.4119660000000002E-4</v>
       </c>
       <c r="AC25" s="1">
         <f>AA25-M25</f>
-        <v>2.6971990000000006E-4</v>
+        <v>7.5921059999999995E-4</v>
       </c>
       <c r="AD25" s="1">
-        <v>2.9596090000000002E-3</v>
+        <v>1.4905786E-3</v>
       </c>
       <c r="AE25" s="1">
         <f>AD25-M25</f>
-        <v>2.4284860000000001E-3</v>
+        <v>5.9506860000000002E-4</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.0084290000000005E-4</v>
+        <v>1.4905786E-3</v>
       </c>
       <c r="AG25" s="1">
         <f>AF25-M25</f>
-        <v>2.6971990000000006E-4</v>
+        <v>5.9506860000000002E-4</v>
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>0.60283972600000002</v>
+        <v>0.92134563300000005</v>
       </c>
       <c r="D26">
-        <v>1466.6</v>
+        <v>936.7</v>
       </c>
       <c r="E26">
-        <v>5.9403799999999997E-4</v>
+        <v>7.5751710000000003E-3</v>
       </c>
       <c r="F26">
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="G26">
-        <v>1.91299E-4</v>
+        <v>1.8579399999999999E-2</v>
       </c>
       <c r="H26">
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="I26">
-        <v>8.1420699999999995E-4</v>
+        <v>0.87632030999999999</v>
       </c>
       <c r="J26">
-        <v>1466.6</v>
+        <v>938.8</v>
       </c>
       <c r="K26" s="2">
-        <v>2.5686900000000001E-4</v>
+        <v>2.2979036000000001E-2</v>
       </c>
       <c r="L26" s="2">
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="M26" s="1">
-        <v>1.20767E-4</v>
+        <v>6.8884199999999995E-4</v>
       </c>
       <c r="N26">
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="O26" s="3">
-        <v>1.893741E-3</v>
+        <v>1.478186E-3</v>
       </c>
       <c r="P26" s="3">
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="Q26">
         <f>V26/10</f>
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="R26">
         <f>MIN(C26,E26,G26,I26,K26,M26,O26)</f>
-        <v>1.20767E-4</v>
+        <v>6.8884199999999995E-4</v>
       </c>
       <c r="S26">
         <f>MIN(D26,F26,H26,J26,L26,N26,P26)</f>
-        <v>1466.6</v>
+        <v>932.1</v>
       </c>
       <c r="T26" s="1">
         <f>K26-O26</f>
-        <v>-1.6368719999999999E-3</v>
+        <v>2.1500850000000002E-2</v>
       </c>
       <c r="U26" s="1">
         <f>K26-M26</f>
-        <v>1.3610200000000001E-4</v>
+        <v>2.2290194000000003E-2</v>
       </c>
       <c r="V26">
-        <v>14666</v>
+        <v>9321</v>
       </c>
       <c r="W26" s="1">
-        <v>3.8574600000000002E-4</v>
+        <v>1.0916893E-2</v>
       </c>
       <c r="Y26" s="1">
         <f>W26-M26</f>
-        <v>2.6497900000000004E-4</v>
+        <v>1.0228051E-2</v>
       </c>
       <c r="Z26">
-        <v>14666</v>
+        <v>9388</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.6078759999999998E-4</v>
+        <v>0.86703777069999999</v>
       </c>
       <c r="AB26" s="1">
         <f>AA26-O26</f>
-        <v>-1.4329534E-3</v>
+        <v>0.86555958469999994</v>
       </c>
       <c r="AC26" s="1">
         <f>AA26-M26</f>
-        <v>3.400206E-4</v>
+        <v>0.86634892870000002</v>
       </c>
       <c r="AD26" s="1">
-        <v>2.4104049999999999E-4</v>
+        <v>7.4563900000000002E-3</v>
       </c>
       <c r="AE26" s="1">
         <f>AD26-M26</f>
-        <v>1.2027349999999999E-4</v>
+        <v>6.767548E-3</v>
       </c>
       <c r="AF26" s="1">
-        <v>1.7716030000000001E-4</v>
+        <v>6.4341386E-3</v>
       </c>
       <c r="AG26" s="1">
         <f>AF26-M26</f>
-        <v>5.6393300000000008E-5</v>
+        <v>5.7452965999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>0.143959103</v>
+        <v>0.142521234</v>
       </c>
       <c r="D27">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="E27">
-        <v>2.6698889999999999E-3</v>
+        <v>2.9905320000000002E-3</v>
       </c>
       <c r="F27">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="G27">
-        <v>4.8148199999999998E-4</v>
+        <v>8.1154600000000001E-4</v>
       </c>
       <c r="H27">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="I27">
-        <v>1.0888174E-2</v>
+        <v>2.9128930000000002E-3</v>
       </c>
       <c r="J27">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>9.980709999999999E-4</v>
+        <v>4.767599E-3</v>
       </c>
       <c r="L27" s="2">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="M27" s="1">
-        <v>5.5503900000000001E-4</v>
+        <v>5.3112299999999999E-4</v>
       </c>
       <c r="N27">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="O27" s="3">
-        <v>5.9942899999999996E-4</v>
+        <v>1.099689E-3</v>
       </c>
       <c r="P27" s="3">
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="Q27">
         <f>V27/10</f>
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="R27">
         <f>MIN(C27,E27,G27,I27,K27,M27,O27)</f>
-        <v>4.8148199999999998E-4</v>
+        <v>5.3112299999999999E-4</v>
       </c>
       <c r="S27">
         <f>MIN(D27,F27,H27,J27,L27,N27,P27)</f>
-        <v>1355.3</v>
+        <v>1146.9000000000001</v>
       </c>
       <c r="T27" s="1">
         <f>K27-O27</f>
-        <v>3.9864199999999994E-4</v>
+        <v>3.6679099999999999E-3</v>
       </c>
       <c r="U27" s="1">
         <f>K27-M27</f>
-        <v>4.4303199999999989E-4</v>
+        <v>4.2364760000000003E-3</v>
       </c>
       <c r="V27">
-        <v>13553</v>
+        <v>11469</v>
       </c>
       <c r="W27" s="1">
-        <v>5.5235559999999998E-3</v>
+        <v>1.0799729999999999E-3</v>
       </c>
       <c r="Y27" s="1">
         <f>W27-M27</f>
-        <v>4.9685169999999996E-3</v>
+        <v>5.4884999999999992E-4</v>
       </c>
       <c r="Z27">
-        <v>13553</v>
+        <v>11469</v>
       </c>
       <c r="AA27" s="1">
-        <v>3.4856977000000001E-3</v>
+        <v>8.0084290000000005E-4</v>
       </c>
       <c r="AB27" s="1">
         <f>AA27-O27</f>
-        <v>2.8862687000000002E-3</v>
+        <v>-2.988461E-4</v>
       </c>
       <c r="AC27" s="1">
         <f>AA27-M27</f>
-        <v>2.9306586999999999E-3</v>
+        <v>2.6971990000000006E-4</v>
       </c>
       <c r="AD27" s="1">
-        <v>1.1306040999999999E-3</v>
+        <v>2.9596090000000002E-3</v>
       </c>
       <c r="AE27" s="1">
         <f>AD27-M27</f>
-        <v>5.7556509999999992E-4</v>
+        <v>2.4284860000000001E-3</v>
       </c>
       <c r="AF27" s="1">
-        <v>4.9246209999999997E-4</v>
+        <v>8.0084290000000005E-4</v>
       </c>
       <c r="AG27" s="1">
         <f>AF27-M27</f>
-        <v>-6.2576900000000041E-5</v>
+        <v>2.6971990000000006E-4</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>0.45166905099999999</v>
+        <v>0.47675478100000002</v>
       </c>
       <c r="D28">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="E28">
-        <v>4.4042949999999999E-3</v>
+        <v>3.5002290000000001E-3</v>
       </c>
       <c r="F28">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="G28">
-        <v>8.5227399999999998E-4</v>
+        <v>4.6980390000000002E-3</v>
       </c>
       <c r="H28">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="I28">
-        <v>0.12779695099999999</v>
+        <v>1.0537308E-2</v>
       </c>
       <c r="J28">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="K28" s="2">
-        <v>4.0548290000000002E-3</v>
+        <v>1.149625E-2</v>
       </c>
       <c r="L28" s="2">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="M28" s="1">
-        <v>8.9550999999999997E-4</v>
+        <v>1.0809929999999999E-3</v>
       </c>
       <c r="N28">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="O28" s="3">
-        <v>1.2135239999999999E-3</v>
+        <v>1.29703E-3</v>
       </c>
       <c r="P28" s="3">
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="Q28">
         <f>V28/10</f>
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="R28">
         <f>MIN(C28,E28,G28,I28,K28,M28,O28)</f>
-        <v>8.5227399999999998E-4</v>
+        <v>1.0809929999999999E-3</v>
       </c>
       <c r="S28">
         <f>MIN(D28,F28,H28,J28,L28,N28,P28)</f>
-        <v>1064.5999999999999</v>
+        <v>1068</v>
       </c>
       <c r="T28" s="1">
         <f>K28-O28</f>
-        <v>2.8413050000000006E-3</v>
+        <v>1.019922E-2</v>
       </c>
       <c r="U28" s="1">
         <f>K28-M28</f>
-        <v>3.1593190000000003E-3</v>
+        <v>1.0415256999999999E-2</v>
       </c>
       <c r="V28">
-        <v>10646</v>
+        <v>10680</v>
       </c>
       <c r="W28" s="1">
-        <v>2.4448690000000001E-3</v>
+        <v>1.6707860000000001E-2</v>
       </c>
       <c r="Y28" s="1">
         <f>W28-M28</f>
-        <v>1.5493590000000002E-3</v>
+        <v>1.5626867000000003E-2</v>
       </c>
       <c r="Z28">
-        <v>10646</v>
+        <v>10680</v>
       </c>
       <c r="AA28" s="1">
-        <v>1.6547205999999999E-3</v>
+        <v>8.4261340000000001E-4</v>
       </c>
       <c r="AB28" s="1">
         <f>AA28-O28</f>
-        <v>4.4119660000000002E-4</v>
+        <v>-4.5441660000000001E-4</v>
       </c>
       <c r="AC28" s="1">
         <f>AA28-M28</f>
-        <v>7.5921059999999995E-4</v>
+        <v>-2.3837959999999992E-4</v>
       </c>
       <c r="AD28" s="1">
-        <v>1.4905786E-3</v>
+        <v>5.5144766999999997E-3</v>
       </c>
       <c r="AE28" s="1">
         <f>AD28-M28</f>
-        <v>5.9506860000000002E-4</v>
+        <v>4.4334837E-3</v>
       </c>
       <c r="AF28" s="1">
-        <v>1.4905786E-3</v>
+        <v>8.4261340000000001E-4</v>
       </c>
       <c r="AG28" s="1">
         <f>AF28-M28</f>
-        <v>5.9506860000000002E-4</v>
+        <v>-2.3837959999999992E-4</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C29">
-        <v>0.476896353</v>
+        <v>0.18200290699999999</v>
       </c>
       <c r="D29">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="E29">
-        <v>4.9478550000000001E-3</v>
+        <v>2.336828E-3</v>
       </c>
       <c r="F29">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="G29">
-        <v>9.4302499999999994E-3</v>
+        <v>1.3578450000000001E-3</v>
       </c>
       <c r="H29">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="I29">
-        <v>0.244599504</v>
+        <v>1.8625139999999998E-2</v>
       </c>
       <c r="J29">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="K29" s="2">
-        <v>8.2060239999999993E-3</v>
+        <v>1.5125290000000001E-3</v>
       </c>
       <c r="L29" s="2">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="M29" s="1">
-        <v>4.9496700000000002E-4</v>
+        <v>1.465416E-3</v>
       </c>
       <c r="N29">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="O29" s="3">
-        <v>1.0725140000000001E-3</v>
+        <v>7.0920599999999999E-4</v>
       </c>
       <c r="P29" s="3">
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="Q29">
         <f>V29/10</f>
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="R29">
         <f>MIN(C29,E29,G29,I29,K29,M29,O29)</f>
-        <v>4.9496700000000002E-4</v>
+        <v>7.0920599999999999E-4</v>
       </c>
       <c r="S29">
         <f>MIN(D29,F29,H29,J29,L29,N29,P29)</f>
-        <v>1457.4</v>
+        <v>1048.7</v>
       </c>
       <c r="T29" s="1">
         <f>K29-O29</f>
-        <v>7.1335099999999992E-3</v>
+        <v>8.033230000000001E-4</v>
       </c>
       <c r="U29" s="1">
         <f>K29-M29</f>
-        <v>7.7110569999999995E-3</v>
+        <v>4.7113000000000103E-5</v>
       </c>
       <c r="V29">
-        <v>14574</v>
+        <v>10487</v>
       </c>
       <c r="W29" s="1">
-        <v>7.2882600000000002E-4</v>
+        <v>2.7386757000000001E-2</v>
       </c>
       <c r="Y29" s="1">
         <f>W29-M29</f>
-        <v>2.33859E-4</v>
+        <v>2.5921341000000001E-2</v>
       </c>
       <c r="Z29">
-        <v>14574</v>
+        <v>10504</v>
       </c>
       <c r="AA29" s="1">
-        <v>2.7070579999999999E-4</v>
+        <v>0.1686033327</v>
       </c>
       <c r="AB29" s="1">
         <f>AA29-O29</f>
-        <v>-8.0180820000000006E-4</v>
+        <v>0.16789412670000001</v>
       </c>
       <c r="AC29" s="1">
         <f>AA29-M29</f>
-        <v>-2.2426120000000003E-4</v>
+        <v>0.1671379167</v>
       </c>
       <c r="AD29" s="1">
-        <v>4.8222070000000002E-3</v>
+        <v>1.0188154000000001E-3</v>
       </c>
       <c r="AE29" s="1">
         <f>AD29-M29</f>
-        <v>4.3272400000000004E-3</v>
+        <v>-4.4660059999999989E-4</v>
       </c>
       <c r="AF29" s="1">
-        <v>2.7070579999999999E-4</v>
+        <v>9.6424460000000005E-4</v>
       </c>
       <c r="AG29" s="1">
         <f>AF29-M29</f>
-        <v>-2.2426120000000003E-4</v>
+        <v>-5.0117139999999994E-4</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C30">
-        <v>0.60790812500000002</v>
+        <v>0.44609381300000001</v>
       </c>
       <c r="D30">
-        <v>1208.7</v>
+        <v>950.5</v>
       </c>
       <c r="E30">
-        <v>3.1018550000000002E-3</v>
+        <v>-2.3251112000000001E-2</v>
       </c>
       <c r="F30">
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="G30">
-        <v>6.2726800000000005E-4</v>
+        <v>-2.4913718000000001E-2</v>
       </c>
       <c r="H30">
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="I30">
-        <v>1.325122E-3</v>
+        <v>0.26752491299999998</v>
       </c>
       <c r="J30">
-        <v>1208.7</v>
+        <v>950.4</v>
       </c>
       <c r="K30" s="2">
-        <v>2.709567E-3</v>
+        <v>1.765618E-3</v>
       </c>
       <c r="L30" s="2">
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="M30" s="1">
-        <v>3.1795599999999999E-4</v>
+        <v>-2.7391552999999999E-2</v>
       </c>
       <c r="N30">
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="O30" s="3">
-        <v>1.647166E-3</v>
+        <v>-3.0681037000000001E-2</v>
       </c>
       <c r="P30" s="3">
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="Q30">
         <f>V30/10</f>
-        <v>1208.7</v>
+        <v>948.9</v>
       </c>
       <c r="R30">
         <f>MIN(C30,E30,G30,I30,K30,M30,O30)</f>
-        <v>3.1795599999999999E-4</v>
+        <v>-3.0681037000000001E-2</v>
       </c>
       <c r="S30">
         <f>MIN(D30,F30,H30,J30,L30,N30,P30)</f>
-        <v>1208.7</v>
+        <v>948.6</v>
       </c>
       <c r="T30" s="1">
         <f>K30-O30</f>
-        <v>1.0624009999999999E-3</v>
+        <v>3.2446655000000005E-2</v>
       </c>
       <c r="U30" s="1">
         <f>K30-M30</f>
-        <v>2.3916110000000001E-3</v>
+        <v>2.9157170999999999E-2</v>
       </c>
       <c r="V30">
-        <v>12087</v>
+        <v>9489</v>
       </c>
       <c r="W30" s="1">
-        <v>7.830231E-3</v>
+        <v>4.4997484999999997E-2</v>
       </c>
       <c r="Y30" s="1">
         <f>W30-M30</f>
-        <v>7.5122749999999997E-3</v>
+        <v>7.2389037999999989E-2</v>
       </c>
       <c r="Z30">
-        <v>12087</v>
+        <v>9486</v>
       </c>
       <c r="AA30" s="1">
-        <v>4.5139639999999999E-4</v>
+        <v>5.3714004500000002E-2</v>
       </c>
       <c r="AB30" s="1">
         <f>AA30-O30</f>
-        <v>-1.1957695999999999E-3</v>
+        <v>8.4395041500000004E-2</v>
       </c>
       <c r="AC30" s="1">
         <f>AA30-M30</f>
-        <v>1.334404E-4</v>
+        <v>8.1105557500000008E-2</v>
       </c>
       <c r="AD30" s="1">
-        <v>1.1449716E-3</v>
+        <v>0.13190189990000001</v>
       </c>
       <c r="AE30" s="1">
         <f>AD30-M30</f>
-        <v>8.2701560000000005E-4</v>
+        <v>0.15929345290000002</v>
       </c>
       <c r="AF30" s="1">
-        <v>4.5139639999999999E-4</v>
+        <v>-1.09578846E-2</v>
       </c>
       <c r="AG30" s="1">
         <f>AF30-M30</f>
-        <v>1.334404E-4</v>
+        <v>1.6433668399999997E-2</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31">
-        <v>0.282833216</v>
+        <v>0.21717377600000001</v>
       </c>
       <c r="D31">
-        <v>1030.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="E31">
-        <v>2.3141693000000001E-2</v>
+        <v>1.6624495999999999E-2</v>
       </c>
       <c r="F31">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="G31">
-        <v>2.2843989999999999E-3</v>
+        <v>6.83364E-4</v>
       </c>
       <c r="H31">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="I31">
-        <v>1.0132120000000001E-3</v>
+        <v>8.6173399999999996E-4</v>
       </c>
       <c r="J31">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="K31" s="2">
-        <v>9.0323390000000003E-3</v>
+        <v>3.4084028000000002E-2</v>
       </c>
       <c r="L31" s="2">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="M31" s="1">
-        <v>1.1396690000000001E-3</v>
+        <v>7.4671999999999998E-4</v>
       </c>
       <c r="N31">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="O31" s="3">
-        <v>2.9456730000000002E-3</v>
+        <v>1.9204960000000001E-3</v>
       </c>
       <c r="P31" s="3">
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="Q31">
         <f>V31/10</f>
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="R31">
         <f>MIN(C31,E31,G31,I31,K31,M31,O31)</f>
-        <v>1.0132120000000001E-3</v>
+        <v>6.83364E-4</v>
       </c>
       <c r="S31">
         <f>MIN(D31,F31,H31,J31,L31,N31,P31)</f>
-        <v>1029.5999999999999</v>
+        <v>1143.2</v>
       </c>
       <c r="T31" s="1">
         <f>K31-O31</f>
-        <v>6.0866660000000001E-3</v>
+        <v>3.2163532000000002E-2</v>
       </c>
       <c r="U31" s="1">
         <f>K31-M31</f>
-        <v>7.8926700000000009E-3</v>
+        <v>3.3337308000000003E-2</v>
       </c>
       <c r="V31">
-        <v>10296</v>
+        <v>11432</v>
       </c>
       <c r="W31" s="1">
-        <v>9.5044840000000005E-3</v>
+        <v>1.3500424E-2</v>
       </c>
       <c r="Y31" s="1">
         <f>W31-M31</f>
-        <v>8.3648150000000011E-3</v>
+        <v>1.2753704000000001E-2</v>
       </c>
       <c r="Z31">
-        <v>10296</v>
+        <v>11432</v>
       </c>
       <c r="AA31" s="1">
-        <v>4.9443419000000004E-3</v>
+        <v>3.3022578000000001E-3</v>
       </c>
       <c r="AB31" s="1">
         <f>AA31-O31</f>
-        <v>1.9986689000000002E-3</v>
+        <v>1.3817618000000001E-3</v>
       </c>
       <c r="AC31" s="1">
         <f>AA31-M31</f>
-        <v>3.8046729000000001E-3</v>
+        <v>2.5555378000000004E-3</v>
       </c>
       <c r="AD31" s="1">
-        <v>1.45442707E-2</v>
+        <v>3.9017981000000002E-3</v>
       </c>
       <c r="AE31" s="1">
         <f>AD31-M31</f>
-        <v>1.3404601700000001E-2</v>
+        <v>3.1550781E-3</v>
       </c>
       <c r="AF31" s="1">
-        <v>4.9443419000000004E-3</v>
+        <v>2.7635643000000001E-3</v>
       </c>
       <c r="AG31" s="1">
         <f>AF31-M31</f>
-        <v>3.8046729000000001E-3</v>
+        <v>2.0168442999999999E-3</v>
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <v>0.186259918</v>
+        <v>0.282833216</v>
       </c>
       <c r="D32">
-        <v>1132.3</v>
+        <v>1030.5999999999999</v>
       </c>
       <c r="E32">
-        <v>2.4279879999999998E-3</v>
+        <v>2.3141693000000001E-2</v>
       </c>
       <c r="F32">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="G32">
-        <v>1.674994E-3</v>
+        <v>2.2843989999999999E-3</v>
       </c>
       <c r="H32">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="I32">
-        <v>5.1554119999999998E-3</v>
+        <v>1.0132120000000001E-3</v>
       </c>
       <c r="J32">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>1.362589E-3</v>
+        <v>9.0323390000000003E-3</v>
       </c>
       <c r="L32" s="2">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="M32" s="1">
-        <v>4.1318799999999999E-4</v>
+        <v>1.1396690000000001E-3</v>
       </c>
       <c r="N32">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="O32" s="3">
-        <v>7.7178200000000005E-4</v>
+        <v>2.9456730000000002E-3</v>
       </c>
       <c r="P32" s="3">
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="Q32">
         <f>V32/10</f>
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="R32">
         <f>MIN(C32,E32,G32,I32,K32,M32,O32)</f>
-        <v>4.1318799999999999E-4</v>
+        <v>1.0132120000000001E-3</v>
       </c>
       <c r="S32">
         <f>MIN(D32,F32,H32,J32,L32,N32,P32)</f>
-        <v>1132.3</v>
+        <v>1029.5999999999999</v>
       </c>
       <c r="T32" s="1">
         <f>K32-O32</f>
-        <v>5.9080699999999994E-4</v>
+        <v>6.0866660000000001E-3</v>
       </c>
       <c r="U32" s="1">
         <f>K32-M32</f>
-        <v>9.49401E-4</v>
+        <v>7.8926700000000009E-3</v>
       </c>
       <c r="V32">
-        <v>11323</v>
+        <v>10296</v>
       </c>
       <c r="W32" s="1">
-        <v>5.9385510000000002E-3</v>
+        <v>9.5044840000000005E-3</v>
       </c>
       <c r="Y32" s="1">
         <f>W32-M32</f>
-        <v>5.5253630000000001E-3</v>
+        <v>8.3648150000000011E-3</v>
       </c>
       <c r="Z32">
-        <v>11323</v>
+        <v>10296</v>
       </c>
       <c r="AA32" s="1">
-        <v>1.6529463000000001E-3</v>
+        <v>4.9443419000000004E-3</v>
       </c>
       <c r="AB32" s="1">
         <f>AA32-O32</f>
-        <v>8.8116430000000003E-4</v>
+        <v>1.9986689000000002E-3</v>
       </c>
       <c r="AC32" s="1">
         <f>AA32-M32</f>
-        <v>1.2397583000000002E-3</v>
+        <v>3.8046729000000001E-3</v>
       </c>
       <c r="AD32" s="1">
-        <v>1.4656628E-3</v>
+        <v>1.45442707E-2</v>
       </c>
       <c r="AE32" s="1">
         <f>AD32-M32</f>
-        <v>1.0524748000000001E-3</v>
+        <v>1.3404601700000001E-2</v>
       </c>
       <c r="AF32" s="1">
-        <v>7.4207509999999995E-4</v>
+        <v>4.9443419000000004E-3</v>
       </c>
       <c r="AG32" s="1">
         <f>AF32-M32</f>
-        <v>3.2888709999999996E-4</v>
+        <v>3.8046729000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>0.21717377600000001</v>
+        <v>0.14413893999999999</v>
       </c>
       <c r="D33">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="E33">
-        <v>1.6624495999999999E-2</v>
+        <v>1.3493605000000001E-2</v>
       </c>
       <c r="F33">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="G33">
-        <v>6.83364E-4</v>
+        <v>7.1201100000000002E-4</v>
       </c>
       <c r="H33">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="I33">
-        <v>8.6173399999999996E-4</v>
+        <v>8.5255499999999998E-3</v>
       </c>
       <c r="J33">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="K33" s="2">
-        <v>3.4084028000000002E-2</v>
+        <v>1.2988665999999999E-2</v>
       </c>
       <c r="L33" s="2">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="M33" s="1">
-        <v>7.4671999999999998E-4</v>
+        <v>6.5811500000000002E-4</v>
       </c>
       <c r="N33">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="O33" s="3">
-        <v>1.9204960000000001E-3</v>
+        <v>1.3426390000000001E-3</v>
       </c>
       <c r="P33" s="3">
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="Q33">
         <f>V33/10</f>
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="R33">
         <f>MIN(C33,E33,G33,I33,K33,M33,O33)</f>
-        <v>6.83364E-4</v>
+        <v>6.5811500000000002E-4</v>
       </c>
       <c r="S33">
         <f>MIN(D33,F33,H33,J33,L33,N33,P33)</f>
-        <v>1143.2</v>
+        <v>870.8</v>
       </c>
       <c r="T33" s="1">
         <f>K33-O33</f>
-        <v>3.2163532000000002E-2</v>
+        <v>1.1646027E-2</v>
       </c>
       <c r="U33" s="1">
         <f>K33-M33</f>
-        <v>3.3337308000000003E-2</v>
+        <v>1.2330550999999999E-2</v>
       </c>
       <c r="V33">
-        <v>11432</v>
+        <v>8708</v>
       </c>
       <c r="W33" s="1">
-        <v>1.3500424E-2</v>
+        <v>1.6065205999999999E-2</v>
       </c>
       <c r="Y33" s="1">
         <f>W33-M33</f>
-        <v>1.2753704000000001E-2</v>
+        <v>1.5407090999999998E-2</v>
       </c>
       <c r="Z33">
-        <v>11432</v>
+        <v>8708</v>
       </c>
       <c r="AA33" s="1">
-        <v>3.3022578000000001E-3</v>
+        <v>4.9387539999999998E-4</v>
       </c>
       <c r="AB33" s="1">
         <f>AA33-O33</f>
-        <v>1.3817618000000001E-3</v>
+        <v>-8.4876360000000009E-4</v>
       </c>
       <c r="AC33" s="1">
         <f>AA33-M33</f>
-        <v>2.5555378000000004E-3</v>
+        <v>-1.6423960000000004E-4</v>
       </c>
       <c r="AD33" s="1">
-        <v>3.9017981000000002E-3</v>
+        <v>3.5543816999999999E-3</v>
       </c>
       <c r="AE33" s="1">
         <f>AD33-M33</f>
-        <v>3.1550781E-3</v>
+        <v>2.8962667E-3</v>
       </c>
       <c r="AF33" s="1">
-        <v>2.7635643000000001E-3</v>
+        <v>4.9387539999999998E-4</v>
       </c>
       <c r="AG33" s="1">
         <f>AF33-M33</f>
-        <v>2.0168442999999999E-3</v>
+        <v>-1.6423960000000004E-4</v>
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C34">
-        <v>0.73038912099999997</v>
+        <v>0.29986691700000001</v>
       </c>
       <c r="D34">
-        <v>976</v>
+        <v>731.3</v>
       </c>
       <c r="E34">
-        <v>9.1565710000000005E-3</v>
+        <v>2.10502E-3</v>
       </c>
       <c r="F34">
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="G34">
-        <v>5.8514500000000002E-3</v>
+        <v>7.3639964000000002E-2</v>
       </c>
       <c r="H34">
-        <v>971.5</v>
+        <v>731.8</v>
       </c>
       <c r="I34">
-        <v>1.0730570000000001E-3</v>
+        <v>9.57774E-4</v>
       </c>
       <c r="J34">
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="K34" s="2">
-        <v>4.8493479999999999E-3</v>
+        <v>8.5338649999999999E-3</v>
       </c>
       <c r="L34" s="2">
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="M34" s="1">
-        <v>1.1714589999999999E-3</v>
+        <v>1.042304E-3</v>
       </c>
       <c r="N34">
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="O34" s="3">
-        <v>7.8285599999999996E-4</v>
+        <v>1.399574E-3</v>
       </c>
       <c r="P34" s="3">
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="Q34">
         <f>V34/10</f>
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="R34">
         <f>MIN(C34,E34,G34,I34,K34,M34,O34)</f>
-        <v>7.8285599999999996E-4</v>
+        <v>9.57774E-4</v>
       </c>
       <c r="S34">
         <f>MIN(D34,F34,H34,J34,L34,N34,P34)</f>
-        <v>971.5</v>
+        <v>731.3</v>
       </c>
       <c r="T34" s="1">
         <f>K34-O34</f>
-        <v>4.0664919999999997E-3</v>
+        <v>7.1342910000000001E-3</v>
       </c>
       <c r="U34" s="1">
         <f>K34-M34</f>
-        <v>3.6778890000000002E-3</v>
+        <v>7.4915609999999999E-3</v>
       </c>
       <c r="V34">
-        <v>9715</v>
+        <v>7313</v>
       </c>
       <c r="W34" s="1">
-        <v>2.717367E-3</v>
+        <v>7.1364369999999998E-3</v>
       </c>
       <c r="Y34" s="1">
         <f>W34-M34</f>
-        <v>1.5459080000000001E-3</v>
+        <v>6.0941329999999998E-3</v>
       </c>
       <c r="Z34">
-        <v>9715</v>
+        <v>7313</v>
       </c>
       <c r="AA34" s="1">
-        <v>0.21543510890000001</v>
+        <v>1.3083512E-3</v>
       </c>
       <c r="AB34" s="1">
         <f>AA34-O34</f>
-        <v>0.21465225290000001</v>
+        <v>-9.1222800000000017E-5</v>
       </c>
       <c r="AC34" s="1">
         <f>AA34-M34</f>
-        <v>0.21426364989999999</v>
+        <v>2.6604720000000001E-4</v>
       </c>
       <c r="AD34" s="1">
-        <v>4.1065190999999999E-3</v>
+        <v>1.2343285E-3</v>
       </c>
       <c r="AE34" s="1">
         <f>AD34-M34</f>
-        <v>2.9350601000000002E-3</v>
+        <v>1.9202450000000001E-4</v>
       </c>
       <c r="AF34" s="1">
-        <v>2.7173672000000001E-3</v>
+        <v>1.2343285E-3</v>
       </c>
       <c r="AG34" s="1">
         <f>AF34-M34</f>
-        <v>1.5459082000000002E-3</v>
+        <v>1.9202450000000001E-4</v>
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C35">
-        <v>0.290679621</v>
+        <v>0.44117571300000002</v>
       </c>
       <c r="D35">
-        <v>1513.7</v>
+        <v>949.9</v>
       </c>
       <c r="E35">
-        <v>2.0191720000000001E-3</v>
+        <v>2.8117250000000002E-3</v>
       </c>
       <c r="F35">
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="G35">
-        <v>3.22778E-3</v>
+        <v>0.16307075300000001</v>
       </c>
       <c r="H35">
-        <v>1513.7</v>
+        <v>951.3</v>
       </c>
       <c r="I35">
-        <v>5.7953900000000001E-3</v>
+        <v>0.24801088900000001</v>
       </c>
       <c r="J35">
-        <v>1513.7</v>
+        <v>951.3</v>
       </c>
       <c r="K35" s="2">
-        <v>2.1031999999999999E-3</v>
+        <v>4.3480519999999998E-3</v>
       </c>
       <c r="L35" s="2">
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="M35" s="1">
-        <v>3.36762E-4</v>
+        <v>1.5277769999999999E-3</v>
       </c>
       <c r="N35">
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="O35" s="3">
-        <v>1.927034E-3</v>
+        <v>1.675389E-3</v>
       </c>
       <c r="P35" s="3">
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="Q35">
         <f>V35/10</f>
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="R35">
         <f>MIN(C35,E35,G35,I35,K35,M35,O35)</f>
-        <v>3.36762E-4</v>
+        <v>1.5277769999999999E-3</v>
       </c>
       <c r="S35">
         <f>MIN(D35,F35,H35,J35,L35,N35,P35)</f>
-        <v>1513.7</v>
+        <v>949.8</v>
       </c>
       <c r="T35" s="1">
         <f>K35-O35</f>
-        <v>1.7616599999999995E-4</v>
+        <v>2.6726629999999996E-3</v>
       </c>
       <c r="U35" s="1">
         <f>K35-M35</f>
-        <v>1.7664379999999999E-3</v>
+        <v>2.8202749999999997E-3</v>
       </c>
       <c r="V35">
-        <v>15137</v>
+        <v>9498</v>
       </c>
       <c r="W35" s="1">
-        <v>3.6018949999999999E-3</v>
+        <v>6.97827E-3</v>
       </c>
       <c r="Y35" s="1">
         <f>W35-M35</f>
-        <v>3.2651329999999999E-3</v>
+        <v>5.4504929999999998E-3</v>
       </c>
       <c r="Z35">
-        <v>15137</v>
+        <v>9498</v>
       </c>
       <c r="AA35" s="1">
-        <v>1.3410226999999999E-3</v>
+        <v>1.1284575E-3</v>
       </c>
       <c r="AB35" s="1">
         <f>AA35-O35</f>
-        <v>-5.860113000000001E-4</v>
+        <v>-5.4693150000000002E-4</v>
       </c>
       <c r="AC35" s="1">
         <f>AA35-M35</f>
-        <v>1.0042606999999999E-3</v>
+        <v>-3.9931949999999993E-4</v>
       </c>
       <c r="AD35" s="1">
-        <v>5.6559419999999995E-4</v>
+        <v>4.6929446999999999E-3</v>
       </c>
       <c r="AE35" s="1">
         <f>AD35-M35</f>
-        <v>2.2883219999999995E-4</v>
+        <v>3.1651676999999998E-3</v>
       </c>
       <c r="AF35" s="1">
-        <v>5.6559419999999995E-4</v>
+        <v>1.1284575E-3</v>
       </c>
       <c r="AG35" s="1">
         <f>AF35-M35</f>
-        <v>2.2883219999999995E-4</v>
+        <v>-3.9931949999999993E-4</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C36">
-        <v>0.240336354</v>
+        <v>0.68774908400000001</v>
       </c>
       <c r="D36">
-        <v>1092.3</v>
+        <v>880.6</v>
       </c>
       <c r="E36">
-        <v>3.9108060000000002E-3</v>
+        <v>9.0100962000000007E-2</v>
       </c>
       <c r="F36">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="G36">
-        <v>5.3961740000000001E-3</v>
+        <v>5.4759630000000004E-3</v>
       </c>
       <c r="H36">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="I36">
-        <v>2.0335342999999999E-2</v>
+        <v>6.4094300000000005E-4</v>
       </c>
       <c r="J36">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="K36" s="2">
-        <v>0.114009709</v>
+        <v>1.3168375E-2</v>
       </c>
       <c r="L36" s="2">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="M36" s="1">
-        <v>1.141134E-3</v>
+        <v>1.954538E-3</v>
       </c>
       <c r="N36">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="O36" s="3">
-        <v>1.498578E-3</v>
+        <v>2.4365509999999999E-3</v>
       </c>
       <c r="P36" s="3">
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="Q36">
         <f>V36/10</f>
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="R36">
         <f>MIN(C36,E36,G36,I36,K36,M36,O36)</f>
-        <v>1.141134E-3</v>
+        <v>6.4094300000000005E-4</v>
       </c>
       <c r="S36">
         <f>MIN(D36,F36,H36,J36,L36,N36,P36)</f>
-        <v>1092.3</v>
+        <v>875.9</v>
       </c>
       <c r="T36" s="1">
         <f>K36-O36</f>
-        <v>0.112511131</v>
+        <v>1.0731823999999999E-2</v>
       </c>
       <c r="U36" s="1">
         <f>K36-M36</f>
-        <v>0.112868575</v>
+        <v>1.1213836999999999E-2</v>
       </c>
       <c r="V36">
-        <v>10923</v>
+        <v>8759</v>
       </c>
       <c r="W36" s="1">
-        <v>5.3263399000000003E-2</v>
+        <v>8.2898355000000007E-2</v>
       </c>
       <c r="Y36" s="1">
         <f>W36-M36</f>
-        <v>5.2122265000000001E-2</v>
+        <v>8.0943817000000001E-2</v>
       </c>
       <c r="Z36">
-        <v>10923</v>
+        <v>8759</v>
       </c>
       <c r="AA36" s="1">
-        <v>0.1057940991</v>
+        <v>0.11421763460000001</v>
       </c>
       <c r="AB36" s="1">
         <f>AA36-O36</f>
-        <v>0.1042955211</v>
+        <v>0.11178108360000001</v>
       </c>
       <c r="AC36" s="1">
         <f>AA36-M36</f>
-        <v>0.10465296509999999</v>
+        <v>0.1122630966</v>
       </c>
       <c r="AD36" s="1">
-        <v>5.6947033000000003E-3</v>
+        <v>3.2431019999999998E-4</v>
       </c>
       <c r="AE36" s="1">
         <f>AD36-M36</f>
-        <v>4.5535693E-3</v>
+        <v>-1.6302278E-3</v>
       </c>
       <c r="AF36" s="1">
-        <v>5.6947033000000003E-3</v>
+        <v>3.2431019999999998E-4</v>
       </c>
       <c r="AG36" s="1">
         <f>AF36-M36</f>
-        <v>4.5535693E-3</v>
+        <v>-1.6302278E-3</v>
       </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C37">
-        <v>0.32612619100000001</v>
+        <v>0.162430619</v>
       </c>
       <c r="D37">
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="E37">
-        <v>6.6990106999999993E-2</v>
+        <v>4.510104E-3</v>
       </c>
       <c r="F37">
-        <v>1373.5</v>
+        <v>794</v>
       </c>
       <c r="G37">
-        <v>5.9987181000000001E-2</v>
+        <v>7.3406100000000005E-4</v>
       </c>
       <c r="H37">
-        <v>1373.5</v>
+        <v>794</v>
       </c>
       <c r="I37">
-        <v>0.29212658800000002</v>
+        <v>2.8089393000000001E-2</v>
       </c>
       <c r="J37">
-        <v>1373.5</v>
+        <v>794</v>
       </c>
       <c r="K37" s="2">
-        <v>1.3658267E-2</v>
+        <v>8.0240199999999998E-3</v>
       </c>
       <c r="L37" s="2">
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="M37" s="1">
-        <v>8.1059399999999998E-4</v>
+        <v>5.3929609999999999E-3</v>
       </c>
       <c r="N37">
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="O37" s="3">
-        <v>2.9628950000000001E-3</v>
+        <v>1.367275E-3</v>
       </c>
       <c r="P37" s="3">
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="Q37">
         <f>V37/10</f>
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="R37">
         <f>MIN(C37,E37,G37,I37,K37,M37,O37)</f>
-        <v>8.1059399999999998E-4</v>
+        <v>7.3406100000000005E-4</v>
       </c>
       <c r="S37">
         <f>MIN(D37,F37,H37,J37,L37,N37,P37)</f>
-        <v>1372.7</v>
+        <v>794</v>
       </c>
       <c r="T37" s="1">
         <f>K37-O37</f>
-        <v>1.0695372E-2</v>
+        <v>6.6567449999999995E-3</v>
       </c>
       <c r="U37" s="1">
         <f>K37-M37</f>
-        <v>1.2847673E-2</v>
+        <v>2.6310589999999998E-3</v>
       </c>
       <c r="V37">
-        <v>13727</v>
+        <v>7940</v>
       </c>
       <c r="W37" s="1">
-        <v>1.9135025999999999E-2</v>
+        <v>2.1743304000000001E-2</v>
       </c>
       <c r="Y37" s="1">
         <f>W37-M37</f>
-        <v>1.8324431999999998E-2</v>
+        <v>1.6350343000000003E-2</v>
       </c>
       <c r="Z37">
-        <v>13727</v>
+        <v>7940</v>
       </c>
       <c r="AA37" s="1">
-        <v>5.8421035999999997E-3</v>
+        <v>1.12491954E-2</v>
       </c>
       <c r="AB37" s="1">
         <f>AA37-O37</f>
-        <v>2.8792085999999996E-3</v>
+        <v>9.8819204000000008E-3</v>
       </c>
       <c r="AC37" s="1">
         <f>AA37-M37</f>
-        <v>5.0315095999999993E-3</v>
+        <v>5.8562344000000002E-3</v>
       </c>
       <c r="AD37" s="1">
-        <v>6.2202387000000001E-3</v>
+        <v>1.5876504E-3</v>
       </c>
       <c r="AE37" s="1">
         <f>AD37-M37</f>
-        <v>5.4096447000000006E-3</v>
+        <v>-3.8053105999999999E-3</v>
       </c>
       <c r="AF37" s="1">
-        <v>5.8421035999999997E-3</v>
+        <v>1.5876504E-3</v>
       </c>
       <c r="AG37" s="1">
         <f>AF37-M37</f>
-        <v>5.0315095999999993E-3</v>
+        <v>-3.8053105999999999E-3</v>
       </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C38">
-        <v>0.47675478100000002</v>
+        <v>0.29840251200000001</v>
       </c>
       <c r="D38">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="E38">
-        <v>3.5002290000000001E-3</v>
+        <v>2.1688699999999998E-3</v>
       </c>
       <c r="F38">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="G38">
-        <v>4.6980390000000002E-3</v>
+        <v>0.21648754200000001</v>
       </c>
       <c r="H38">
-        <v>1068</v>
+        <v>702.5</v>
       </c>
       <c r="I38">
-        <v>1.0537308E-2</v>
+        <v>8.0473899999999995E-4</v>
       </c>
       <c r="J38">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="K38" s="2">
-        <v>1.149625E-2</v>
+        <v>7.3265969999999998E-3</v>
       </c>
       <c r="L38" s="2">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="M38" s="1">
-        <v>1.0809929999999999E-3</v>
+        <v>1.9208750000000001E-3</v>
       </c>
       <c r="N38">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="O38" s="3">
-        <v>1.29703E-3</v>
+        <v>9.23221E-4</v>
       </c>
       <c r="P38" s="3">
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="Q38">
         <f>V38/10</f>
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="R38">
         <f>MIN(C38,E38,G38,I38,K38,M38,O38)</f>
-        <v>1.0809929999999999E-3</v>
+        <v>8.0473899999999995E-4</v>
       </c>
       <c r="S38">
         <f>MIN(D38,F38,H38,J38,L38,N38,P38)</f>
-        <v>1068</v>
+        <v>701</v>
       </c>
       <c r="T38" s="1">
         <f>K38-O38</f>
-        <v>1.019922E-2</v>
+        <v>6.4033759999999997E-3</v>
       </c>
       <c r="U38" s="1">
         <f>K38-M38</f>
-        <v>1.0415256999999999E-2</v>
+        <v>5.405722E-3</v>
       </c>
       <c r="V38">
-        <v>10680</v>
+        <v>7010</v>
       </c>
       <c r="W38" s="1">
-        <v>1.6707860000000001E-2</v>
+        <v>1.975959E-2</v>
       </c>
       <c r="Y38" s="1">
         <f>W38-M38</f>
-        <v>1.5626867000000003E-2</v>
+        <v>1.7838715000000002E-2</v>
       </c>
       <c r="Z38">
-        <v>10680</v>
+        <v>7010</v>
       </c>
       <c r="AA38" s="1">
-        <v>8.4261340000000001E-4</v>
+        <v>8.0696307000000002E-3</v>
       </c>
       <c r="AB38" s="1">
         <f>AA38-O38</f>
-        <v>-4.5441660000000001E-4</v>
+        <v>7.1464097000000001E-3</v>
       </c>
       <c r="AC38" s="1">
         <f>AA38-M38</f>
-        <v>-2.3837959999999992E-4</v>
+        <v>6.1487557000000003E-3</v>
       </c>
       <c r="AD38" s="1">
-        <v>5.5144766999999997E-3</v>
+        <v>4.7363845000000003E-3</v>
       </c>
       <c r="AE38" s="1">
         <f>AD38-M38</f>
-        <v>4.4334837E-3</v>
+        <v>2.8155095000000005E-3</v>
       </c>
       <c r="AF38" s="1">
-        <v>8.4261340000000001E-4</v>
+        <v>3.3587731999999999E-3</v>
       </c>
       <c r="AG38" s="1">
         <f>AF38-M38</f>
-        <v>-2.3837959999999992E-4</v>
+        <v>1.4378981999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C39">
-        <v>0.301338043</v>
+        <v>1.0563282860000001</v>
       </c>
       <c r="D39">
-        <v>1261.8</v>
+        <v>861.6</v>
       </c>
       <c r="E39">
-        <v>2.373226E-3</v>
+        <v>5.9097200000000003E-3</v>
       </c>
       <c r="F39">
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="G39">
-        <v>4.8964820999999999E-2</v>
+        <v>2.3884420000000002E-3</v>
       </c>
       <c r="H39">
-        <v>1262.4000000000001</v>
+        <v>854.8</v>
       </c>
       <c r="I39">
-        <v>4.02397E-3</v>
+        <v>7.5673799999999996E-4</v>
       </c>
       <c r="J39">
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="K39" s="2">
-        <v>2.6182807999999998E-2</v>
+        <v>1.120041E-3</v>
       </c>
       <c r="L39" s="2">
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="M39" s="1">
-        <v>2.2005129999999999E-3</v>
+        <v>1.0002559999999999E-3</v>
       </c>
       <c r="N39">
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="O39" s="3">
-        <v>1.3267140000000001E-3</v>
+        <v>1.7719319999999999E-3</v>
       </c>
       <c r="P39" s="3">
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="Q39">
         <f>V39/10</f>
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="R39">
         <f>MIN(C39,E39,G39,I39,K39,M39,O39)</f>
-        <v>1.3267140000000001E-3</v>
+        <v>7.5673799999999996E-4</v>
       </c>
       <c r="S39">
         <f>MIN(D39,F39,H39,J39,L39,N39,P39)</f>
-        <v>1261.8</v>
+        <v>854.8</v>
       </c>
       <c r="T39" s="1">
         <f>K39-O39</f>
-        <v>2.4856093999999999E-2</v>
+        <v>-6.5189099999999993E-4</v>
       </c>
       <c r="U39" s="1">
         <f>K39-M39</f>
-        <v>2.3982294999999997E-2</v>
+        <v>1.1978500000000007E-4</v>
       </c>
       <c r="V39">
-        <v>12618</v>
+        <v>8548</v>
       </c>
       <c r="W39" s="1">
-        <v>2.0798625000000001E-2</v>
+        <v>5.7565300000000002E-3</v>
       </c>
       <c r="Y39" s="1">
         <f>W39-M39</f>
-        <v>1.8598112E-2</v>
+        <v>4.7562740000000004E-3</v>
       </c>
       <c r="Z39">
-        <v>12618</v>
+        <v>8548</v>
       </c>
       <c r="AA39" s="1">
-        <v>3.6191798300000001E-2</v>
+        <v>4.4693872999999997E-3</v>
       </c>
       <c r="AB39" s="1">
         <f>AA39-O39</f>
-        <v>3.4865084300000002E-2</v>
+        <v>2.6974552999999997E-3</v>
       </c>
       <c r="AC39" s="1">
         <f>AA39-M39</f>
-        <v>3.39912853E-2</v>
+        <v>3.4691313E-3</v>
       </c>
       <c r="AD39" s="1">
-        <v>1.1981246399999999E-2</v>
+        <v>2.5432070000000001E-4</v>
       </c>
       <c r="AE39" s="1">
         <f>AD39-M39</f>
-        <v>9.7807333999999999E-3</v>
+        <v>-7.4593529999999997E-4</v>
       </c>
       <c r="AF39" s="1">
-        <v>4.3635195000000003E-3</v>
+        <v>2.5432070000000001E-4</v>
       </c>
       <c r="AG39" s="1">
         <f>AF39-M39</f>
-        <v>2.1630065000000005E-3</v>
+        <v>-7.4593529999999997E-4</v>
       </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C40">
-        <v>0.162430619</v>
+        <v>0.23055405300000001</v>
       </c>
       <c r="D40">
-        <v>794</v>
+        <v>900.9</v>
       </c>
       <c r="E40">
-        <v>4.510104E-3</v>
+        <v>1.384138E-3</v>
       </c>
       <c r="F40">
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="G40">
-        <v>7.3406100000000005E-4</v>
+        <v>4.9855744E-2</v>
       </c>
       <c r="H40">
-        <v>794</v>
+        <v>900.8</v>
       </c>
       <c r="I40">
-        <v>2.8089393000000001E-2</v>
+        <v>0.83404774199999998</v>
       </c>
       <c r="J40">
-        <v>794</v>
+        <v>908</v>
       </c>
       <c r="K40" s="2">
-        <v>8.0240199999999998E-3</v>
+        <v>4.3477891999999997E-2</v>
       </c>
       <c r="L40" s="2">
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="M40" s="1">
-        <v>5.3929609999999999E-3</v>
+        <v>6.5863809999999997E-3</v>
       </c>
       <c r="N40">
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="O40" s="3">
-        <v>1.367275E-3</v>
+        <v>2.303841E-3</v>
       </c>
       <c r="P40" s="3">
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="Q40">
         <f>V40/10</f>
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="R40">
         <f>MIN(C40,E40,G40,I40,K40,M40,O40)</f>
-        <v>7.3406100000000005E-4</v>
+        <v>1.384138E-3</v>
       </c>
       <c r="S40">
         <f>MIN(D40,F40,H40,J40,L40,N40,P40)</f>
-        <v>794</v>
+        <v>900.5</v>
       </c>
       <c r="T40" s="1">
         <f>K40-O40</f>
-        <v>6.6567449999999995E-3</v>
+        <v>4.1174050999999996E-2</v>
       </c>
       <c r="U40" s="1">
         <f>K40-M40</f>
-        <v>2.6310589999999998E-3</v>
+        <v>3.6891510999999995E-2</v>
       </c>
       <c r="V40">
-        <v>7940</v>
+        <v>9005</v>
       </c>
       <c r="W40" s="1">
-        <v>2.1743304000000001E-2</v>
+        <v>6.9082534000000001E-2</v>
       </c>
       <c r="Y40" s="1">
         <f>W40-M40</f>
-        <v>1.6350343000000003E-2</v>
+        <v>6.2496152999999999E-2</v>
       </c>
       <c r="Z40">
-        <v>7940</v>
+        <v>9005</v>
       </c>
       <c r="AA40" s="1">
-        <v>1.12491954E-2</v>
+        <v>0.18671521069999999</v>
       </c>
       <c r="AB40" s="1">
         <f>AA40-O40</f>
-        <v>9.8819204000000008E-3</v>
+        <v>0.18441136969999999</v>
       </c>
       <c r="AC40" s="1">
         <f>AA40-M40</f>
-        <v>5.8562344000000002E-3</v>
+        <v>0.18012882969999999</v>
       </c>
       <c r="AD40" s="1">
-        <v>1.5876504E-3</v>
+        <v>2.9302409200000001E-2</v>
       </c>
       <c r="AE40" s="1">
         <f>AD40-M40</f>
-        <v>-3.8053105999999999E-3</v>
+        <v>2.2716028200000002E-2</v>
       </c>
       <c r="AF40" s="1">
-        <v>1.5876504E-3</v>
+        <v>1.8253004499999999E-2</v>
       </c>
       <c r="AG40" s="1">
         <f>AF40-M40</f>
-        <v>-3.8053105999999999E-3</v>
+        <v>1.1666623500000001E-2</v>
       </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C41">
-        <v>0.44117571300000002</v>
+        <v>0.86206830700000003</v>
       </c>
       <c r="D41">
-        <v>949.9</v>
+        <v>751.7</v>
       </c>
       <c r="E41">
-        <v>2.8117250000000002E-3</v>
+        <v>3.158166E-3</v>
       </c>
       <c r="F41">
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="G41">
-        <v>0.16307075300000001</v>
+        <v>0.68197177799999997</v>
       </c>
       <c r="H41">
-        <v>951.3</v>
+        <v>751.7</v>
       </c>
       <c r="I41">
-        <v>0.24801088900000001</v>
+        <v>0.80286853700000005</v>
       </c>
       <c r="J41">
-        <v>951.3</v>
+        <v>751.7</v>
       </c>
       <c r="K41" s="2">
-        <v>4.3480519999999998E-3</v>
+        <v>1.5132572E-2</v>
       </c>
       <c r="L41" s="2">
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="M41" s="1">
-        <v>1.5277769999999999E-3</v>
+        <v>0.19481158800000001</v>
       </c>
       <c r="N41">
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="O41" s="3">
-        <v>1.675389E-3</v>
+        <v>1.6669930000000001E-3</v>
       </c>
       <c r="P41" s="3">
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="Q41">
         <f>V41/10</f>
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="R41">
         <f>MIN(C41,E41,G41,I41,K41,M41,O41)</f>
-        <v>1.5277769999999999E-3</v>
+        <v>1.6669930000000001E-3</v>
       </c>
       <c r="S41">
         <f>MIN(D41,F41,H41,J41,L41,N41,P41)</f>
-        <v>949.8</v>
+        <v>746.7</v>
       </c>
       <c r="T41" s="1">
         <f>K41-O41</f>
-        <v>2.6726629999999996E-3</v>
+        <v>1.3465579E-2</v>
       </c>
       <c r="U41" s="1">
         <f>K41-M41</f>
-        <v>2.8202749999999997E-3</v>
+        <v>-0.179679016</v>
       </c>
       <c r="V41">
-        <v>9498</v>
+        <v>7467</v>
       </c>
       <c r="W41" s="1">
-        <v>6.97827E-3</v>
+        <v>0.67513631200000002</v>
       </c>
       <c r="Y41" s="1">
         <f>W41-M41</f>
-        <v>5.4504929999999998E-3</v>
+        <v>0.48032472400000004</v>
       </c>
       <c r="Z41">
-        <v>9498</v>
+        <v>7467</v>
       </c>
       <c r="AA41" s="1">
-        <v>1.1284575E-3</v>
+        <v>1.6048898900000001E-2</v>
       </c>
       <c r="AB41" s="1">
         <f>AA41-O41</f>
-        <v>-5.4693150000000002E-4</v>
+        <v>1.43819059E-2</v>
       </c>
       <c r="AC41" s="1">
         <f>AA41-M41</f>
-        <v>-3.9931949999999993E-4</v>
+        <v>-0.17876268910000001</v>
       </c>
       <c r="AD41" s="1">
-        <v>4.6929446999999999E-3</v>
+        <v>1.3142675899999999E-2</v>
       </c>
       <c r="AE41" s="1">
         <f>AD41-M41</f>
-        <v>3.1651676999999998E-3</v>
+        <v>-0.1816689121</v>
       </c>
       <c r="AF41" s="1">
-        <v>1.1284575E-3</v>
+        <v>1.3142675899999999E-2</v>
       </c>
       <c r="AG41" s="1">
         <f>AF41-M41</f>
-        <v>-3.9931949999999993E-4</v>
+        <v>-0.1816689121</v>
       </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C42">
-        <v>1.756709418</v>
+        <v>0.168154991</v>
       </c>
       <c r="D42">
-        <v>1064.3</v>
+        <v>1619.8</v>
       </c>
       <c r="E42">
-        <v>7.7337450000000002E-3</v>
+        <v>5.1017950000000001E-3</v>
       </c>
       <c r="F42">
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="G42">
-        <v>3.6151199999999999E-3</v>
+        <v>1.5616232000000001E-2</v>
       </c>
       <c r="H42">
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="I42">
-        <v>3.0638265000000001E-2</v>
+        <v>0.91196277199999998</v>
       </c>
       <c r="J42">
-        <v>1051.0999999999999</v>
+        <v>1634.2</v>
       </c>
       <c r="K42" s="2">
-        <v>1.7608011999999999E-2</v>
+        <v>0.364429911</v>
       </c>
       <c r="L42" s="2">
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="M42" s="1">
-        <v>1.410609E-3</v>
+        <v>9.1566E-4</v>
       </c>
       <c r="N42">
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="O42" s="3">
-        <v>1.211513E-3</v>
+        <v>6.9755100000000003E-4</v>
       </c>
       <c r="P42" s="3">
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="Q42">
         <f>V42/10</f>
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="R42">
         <f>MIN(C42,E42,G42,I42,K42,M42,O42)</f>
-        <v>1.211513E-3</v>
+        <v>6.9755100000000003E-4</v>
       </c>
       <c r="S42">
         <f>MIN(D42,F42,H42,J42,L42,N42,P42)</f>
-        <v>1051.0999999999999</v>
+        <v>1619.8</v>
       </c>
       <c r="T42" s="1">
         <f>K42-O42</f>
-        <v>1.6396498999999998E-2</v>
+        <v>0.36373235999999998</v>
       </c>
       <c r="U42" s="1">
         <f>K42-M42</f>
-        <v>1.6197402999999999E-2</v>
+        <v>0.36351425100000001</v>
       </c>
       <c r="V42">
-        <v>10511</v>
+        <v>16198</v>
       </c>
       <c r="W42" s="1">
-        <v>0.124361159</v>
+        <v>0.137433631</v>
       </c>
       <c r="Y42" s="1">
         <f>W42-M42</f>
-        <v>0.12295055000000001</v>
+        <v>0.13651797099999999</v>
       </c>
       <c r="Z42">
-        <v>10511</v>
+        <v>16235</v>
       </c>
       <c r="AA42" s="1">
-        <v>7.0679209E-3</v>
+        <v>0.3107816665</v>
       </c>
       <c r="AB42" s="1">
         <f>AA42-O42</f>
-        <v>5.8564079E-3</v>
+        <v>0.31008411549999998</v>
       </c>
       <c r="AC42" s="1">
         <f>AA42-M42</f>
-        <v>5.6573118999999998E-3</v>
+        <v>0.30986600650000001</v>
       </c>
       <c r="AD42" s="1">
-        <v>1.42324094E-2</v>
+        <v>8.6155355000000003E-3</v>
       </c>
       <c r="AE42" s="1">
         <f>AD42-M42</f>
-        <v>1.28218004E-2</v>
+        <v>7.6998754999999999E-3</v>
       </c>
       <c r="AF42" s="1">
-        <v>6.0715070999999999E-3</v>
+        <v>8.6155355000000003E-3</v>
       </c>
       <c r="AG42" s="1">
         <f>AF42-M42</f>
-        <v>4.6608980999999997E-3</v>
+        <v>7.6998754999999999E-3</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C43">
-        <v>0.29840251200000001</v>
+        <v>0.476896353</v>
       </c>
       <c r="D43">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="E43">
-        <v>2.1688699999999998E-3</v>
+        <v>4.9478550000000001E-3</v>
       </c>
       <c r="F43">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="G43">
-        <v>0.21648754200000001</v>
+        <v>9.4302499999999994E-3</v>
       </c>
       <c r="H43">
-        <v>702.5</v>
+        <v>1457.4</v>
       </c>
       <c r="I43">
-        <v>8.0473899999999995E-4</v>
+        <v>0.244599504</v>
       </c>
       <c r="J43">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="K43" s="2">
-        <v>7.3265969999999998E-3</v>
+        <v>8.2060239999999993E-3</v>
       </c>
       <c r="L43" s="2">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="M43" s="1">
-        <v>1.9208750000000001E-3</v>
+        <v>4.9496700000000002E-4</v>
       </c>
       <c r="N43">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="O43" s="3">
-        <v>9.23221E-4</v>
+        <v>1.0725140000000001E-3</v>
       </c>
       <c r="P43" s="3">
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="Q43">
         <f>V43/10</f>
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="R43">
         <f>MIN(C43,E43,G43,I43,K43,M43,O43)</f>
-        <v>8.0473899999999995E-4</v>
+        <v>4.9496700000000002E-4</v>
       </c>
       <c r="S43">
         <f>MIN(D43,F43,H43,J43,L43,N43,P43)</f>
-        <v>701</v>
+        <v>1457.4</v>
       </c>
       <c r="T43" s="1">
         <f>K43-O43</f>
-        <v>6.4033759999999997E-3</v>
+        <v>7.1335099999999992E-3</v>
       </c>
       <c r="U43" s="1">
         <f>K43-M43</f>
-        <v>5.405722E-3</v>
+        <v>7.7110569999999995E-3</v>
       </c>
       <c r="V43">
-        <v>7010</v>
+        <v>14574</v>
       </c>
       <c r="W43" s="1">
-        <v>1.975959E-2</v>
+        <v>7.2882600000000002E-4</v>
       </c>
       <c r="Y43" s="1">
         <f>W43-M43</f>
-        <v>1.7838715000000002E-2</v>
+        <v>2.33859E-4</v>
       </c>
       <c r="Z43">
-        <v>7010</v>
+        <v>14574</v>
       </c>
       <c r="AA43" s="1">
-        <v>8.0696307000000002E-3</v>
+        <v>2.7070579999999999E-4</v>
       </c>
       <c r="AB43" s="1">
         <f>AA43-O43</f>
-        <v>7.1464097000000001E-3</v>
+        <v>-8.0180820000000006E-4</v>
       </c>
       <c r="AC43" s="1">
         <f>AA43-M43</f>
-        <v>6.1487557000000003E-3</v>
+        <v>-2.2426120000000003E-4</v>
       </c>
       <c r="AD43" s="1">
-        <v>4.7363845000000003E-3</v>
+        <v>4.8222070000000002E-3</v>
       </c>
       <c r="AE43" s="1">
         <f>AD43-M43</f>
-        <v>2.8155095000000005E-3</v>
+        <v>4.3272400000000004E-3</v>
       </c>
       <c r="AF43" s="1">
-        <v>3.3587731999999999E-3</v>
+        <v>2.7070579999999999E-4</v>
       </c>
       <c r="AG43" s="1">
         <f>AF43-M43</f>
-        <v>1.4378981999999998E-3</v>
+        <v>-2.2426120000000003E-4</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C44">
-        <v>1.0563282860000001</v>
+        <v>0.20309290799999999</v>
       </c>
       <c r="D44">
-        <v>861.6</v>
+        <v>1258</v>
       </c>
       <c r="E44">
-        <v>5.9097200000000003E-3</v>
+        <v>1.7297265999999999E-2</v>
       </c>
       <c r="F44">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="G44">
-        <v>2.3884420000000002E-3</v>
+        <v>7.8081740000000002E-3</v>
       </c>
       <c r="H44">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="I44">
-        <v>7.5673799999999996E-4</v>
+        <v>0.28892647500000002</v>
       </c>
       <c r="J44">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="K44" s="2">
-        <v>1.120041E-3</v>
+        <v>1.5081377E-2</v>
       </c>
       <c r="L44" s="2">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="M44" s="1">
-        <v>1.0002559999999999E-3</v>
+        <v>1.69637E-3</v>
       </c>
       <c r="N44">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="O44" s="3">
-        <v>1.7719319999999999E-3</v>
+        <v>2.973715E-3</v>
       </c>
       <c r="P44" s="3">
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="Q44">
         <f>V44/10</f>
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="R44">
         <f>MIN(C44,E44,G44,I44,K44,M44,O44)</f>
-        <v>7.5673799999999996E-4</v>
+        <v>1.69637E-3</v>
       </c>
       <c r="S44">
         <f>MIN(D44,F44,H44,J44,L44,N44,P44)</f>
-        <v>854.8</v>
+        <v>1258</v>
       </c>
       <c r="T44" s="1">
         <f>K44-O44</f>
-        <v>-6.5189099999999993E-4</v>
+        <v>1.2107662E-2</v>
       </c>
       <c r="U44" s="1">
         <f>K44-M44</f>
-        <v>1.1978500000000007E-4</v>
+        <v>1.3385007000000001E-2</v>
       </c>
       <c r="V44">
-        <v>8548</v>
+        <v>12580</v>
       </c>
       <c r="W44" s="1">
-        <v>5.7565300000000002E-3</v>
+        <v>3.8108377999999998E-2</v>
       </c>
       <c r="Y44" s="1">
         <f>W44-M44</f>
-        <v>4.7562740000000004E-3</v>
+        <v>3.6412007999999996E-2</v>
       </c>
       <c r="Z44">
-        <v>8548</v>
+        <v>12582</v>
       </c>
       <c r="AA44" s="1">
-        <v>4.4693872999999997E-3</v>
+        <v>2.99335188E-2</v>
       </c>
       <c r="AB44" s="1">
         <f>AA44-O44</f>
-        <v>2.6974552999999997E-3</v>
+        <v>2.6959803800000001E-2</v>
       </c>
       <c r="AC44" s="1">
         <f>AA44-M44</f>
-        <v>3.4691313E-3</v>
+        <v>2.82371488E-2</v>
       </c>
       <c r="AD44" s="1">
-        <v>2.5432070000000001E-4</v>
+        <v>2.3891220599999999E-2</v>
       </c>
       <c r="AE44" s="1">
         <f>AD44-M44</f>
-        <v>-7.4593529999999997E-4</v>
+        <v>2.21948506E-2</v>
       </c>
       <c r="AF44" s="1">
-        <v>2.5432070000000001E-4</v>
+        <v>1.5081377E-2</v>
       </c>
       <c r="AG44" s="1">
         <f>AF44-M44</f>
-        <v>-7.4593529999999997E-4</v>
+        <v>1.3385007000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C45">
-        <v>0.60093149499999998</v>
+        <v>0.186259918</v>
       </c>
       <c r="D45">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="E45">
-        <v>4.11705E-4</v>
+        <v>2.4279879999999998E-3</v>
       </c>
       <c r="F45">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="G45">
-        <v>3.42429E-4</v>
+        <v>1.674994E-3</v>
       </c>
       <c r="H45">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="I45">
-        <v>2.6763500000000001E-4</v>
+        <v>5.1554119999999998E-3</v>
       </c>
       <c r="J45">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="K45" s="2">
-        <v>8.0082750000000005E-3</v>
+        <v>1.362589E-3</v>
       </c>
       <c r="L45" s="2">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="M45" s="1">
-        <v>3.1221500000000002E-4</v>
+        <v>4.1318799999999999E-4</v>
       </c>
       <c r="N45">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="O45" s="3">
-        <v>6.8006000000000002E-4</v>
+        <v>7.7178200000000005E-4</v>
       </c>
       <c r="P45" s="3">
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="Q45">
         <f>V45/10</f>
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="R45">
         <f>MIN(C45,E45,G45,I45,K45,M45,O45)</f>
-        <v>2.6763500000000001E-4</v>
+        <v>4.1318799999999999E-4</v>
       </c>
       <c r="S45">
         <f>MIN(D45,F45,H45,J45,L45,N45,P45)</f>
-        <v>588.1</v>
+        <v>1132.3</v>
       </c>
       <c r="T45" s="1">
         <f>K45-O45</f>
-        <v>7.3282150000000008E-3</v>
+        <v>5.9080699999999994E-4</v>
       </c>
       <c r="U45" s="1">
         <f>K45-M45</f>
-        <v>7.6960600000000002E-3</v>
+        <v>9.49401E-4</v>
       </c>
       <c r="V45">
-        <v>5881</v>
+        <v>11323</v>
       </c>
       <c r="W45" s="1">
-        <v>1.7747869999999999E-3</v>
+        <v>5.9385510000000002E-3</v>
       </c>
       <c r="Y45" s="1">
         <f>W45-M45</f>
-        <v>1.4625719999999999E-3</v>
+        <v>5.5253630000000001E-3</v>
       </c>
       <c r="Z45">
-        <v>5881</v>
+        <v>11323</v>
       </c>
       <c r="AA45" s="1">
-        <v>2.0769735899999999E-2</v>
+        <v>1.6529463000000001E-3</v>
       </c>
       <c r="AB45" s="1">
         <f>AA45-O45</f>
-        <v>2.0089675899999999E-2</v>
+        <v>8.8116430000000003E-4</v>
       </c>
       <c r="AC45" s="1">
         <f>AA45-M45</f>
-        <v>2.0457520899999998E-2</v>
+        <v>1.2397583000000002E-3</v>
       </c>
       <c r="AD45" s="1">
-        <v>4.3065900000000001E-4</v>
+        <v>1.4656628E-3</v>
       </c>
       <c r="AE45" s="1">
         <f>AD45-M45</f>
-        <v>1.1844399999999999E-4</v>
+        <v>1.0524748000000001E-3</v>
       </c>
       <c r="AF45" s="1">
-        <v>4.3065900000000001E-4</v>
+        <v>7.4207509999999995E-4</v>
       </c>
       <c r="AG45" s="1">
         <f>AF45-M45</f>
-        <v>1.1844399999999999E-4</v>
+        <v>3.2888709999999996E-4</v>
       </c>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C46">
-        <v>0.29986691700000001</v>
+        <v>0.290679621</v>
       </c>
       <c r="D46">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="E46">
-        <v>2.10502E-3</v>
+        <v>2.0191720000000001E-3</v>
       </c>
       <c r="F46">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="G46">
-        <v>7.3639964000000002E-2</v>
+        <v>3.22778E-3</v>
       </c>
       <c r="H46">
-        <v>731.8</v>
+        <v>1513.7</v>
       </c>
       <c r="I46">
-        <v>9.57774E-4</v>
+        <v>5.7953900000000001E-3</v>
       </c>
       <c r="J46">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="K46" s="2">
-        <v>8.5338649999999999E-3</v>
+        <v>2.1031999999999999E-3</v>
       </c>
       <c r="L46" s="2">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="M46" s="1">
-        <v>1.042304E-3</v>
+        <v>3.36762E-4</v>
       </c>
       <c r="N46">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="O46" s="3">
-        <v>1.399574E-3</v>
+        <v>1.927034E-3</v>
       </c>
       <c r="P46" s="3">
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="Q46">
         <f>V46/10</f>
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="R46">
         <f>MIN(C46,E46,G46,I46,K46,M46,O46)</f>
-        <v>9.57774E-4</v>
+        <v>3.36762E-4</v>
       </c>
       <c r="S46">
         <f>MIN(D46,F46,H46,J46,L46,N46,P46)</f>
-        <v>731.3</v>
+        <v>1513.7</v>
       </c>
       <c r="T46" s="1">
         <f>K46-O46</f>
-        <v>7.1342910000000001E-3</v>
+        <v>1.7616599999999995E-4</v>
       </c>
       <c r="U46" s="1">
         <f>K46-M46</f>
-        <v>7.4915609999999999E-3</v>
+        <v>1.7664379999999999E-3</v>
       </c>
       <c r="V46">
-        <v>7313</v>
+        <v>15137</v>
       </c>
       <c r="W46" s="1">
-        <v>7.1364369999999998E-3</v>
+        <v>3.6018949999999999E-3</v>
       </c>
       <c r="Y46" s="1">
         <f>W46-M46</f>
-        <v>6.0941329999999998E-3</v>
+        <v>3.2651329999999999E-3</v>
       </c>
       <c r="Z46">
-        <v>7313</v>
+        <v>15137</v>
       </c>
       <c r="AA46" s="1">
-        <v>1.3083512E-3</v>
+        <v>1.3410226999999999E-3</v>
       </c>
       <c r="AB46" s="1">
         <f>AA46-O46</f>
-        <v>-9.1222800000000017E-5</v>
+        <v>-5.860113000000001E-4</v>
       </c>
       <c r="AC46" s="1">
         <f>AA46-M46</f>
-        <v>2.6604720000000001E-4</v>
+        <v>1.0042606999999999E-3</v>
       </c>
       <c r="AD46" s="1">
-        <v>1.2343285E-3</v>
+        <v>5.6559419999999995E-4</v>
       </c>
       <c r="AE46" s="1">
         <f>AD46-M46</f>
-        <v>1.9202450000000001E-4</v>
+        <v>2.2883219999999995E-4</v>
       </c>
       <c r="AF46" s="1">
-        <v>1.2343285E-3</v>
+        <v>5.6559419999999995E-4</v>
       </c>
       <c r="AG46" s="1">
         <f>AF46-M46</f>
-        <v>1.9202450000000001E-4</v>
+        <v>2.2883219999999995E-4</v>
       </c>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C47">
-        <v>0.168154991</v>
+        <v>0.32612619100000001</v>
       </c>
       <c r="D47">
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="E47">
-        <v>5.1017950000000001E-3</v>
+        <v>6.6990106999999993E-2</v>
       </c>
       <c r="F47">
-        <v>1619.8</v>
+        <v>1373.5</v>
       </c>
       <c r="G47">
-        <v>1.5616232000000001E-2</v>
+        <v>5.9987181000000001E-2</v>
       </c>
       <c r="H47">
-        <v>1619.8</v>
+        <v>1373.5</v>
       </c>
       <c r="I47">
-        <v>0.91196277199999998</v>
+        <v>0.29212658800000002</v>
       </c>
       <c r="J47">
-        <v>1634.2</v>
+        <v>1373.5</v>
       </c>
       <c r="K47" s="2">
-        <v>0.364429911</v>
+        <v>1.3658267E-2</v>
       </c>
       <c r="L47" s="2">
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="M47" s="1">
-        <v>9.1566E-4</v>
+        <v>8.1059399999999998E-4</v>
       </c>
       <c r="N47">
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="O47" s="3">
-        <v>6.9755100000000003E-4</v>
+        <v>2.9628950000000001E-3</v>
       </c>
       <c r="P47" s="3">
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="Q47">
         <f>V47/10</f>
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="R47">
         <f>MIN(C47,E47,G47,I47,K47,M47,O47)</f>
-        <v>6.9755100000000003E-4</v>
+        <v>8.1059399999999998E-4</v>
       </c>
       <c r="S47">
         <f>MIN(D47,F47,H47,J47,L47,N47,P47)</f>
-        <v>1619.8</v>
+        <v>1372.7</v>
       </c>
       <c r="T47" s="1">
         <f>K47-O47</f>
-        <v>0.36373235999999998</v>
+        <v>1.0695372E-2</v>
       </c>
       <c r="U47" s="1">
         <f>K47-M47</f>
-        <v>0.36351425100000001</v>
+        <v>1.2847673E-2</v>
       </c>
       <c r="V47">
-        <v>16198</v>
+        <v>13727</v>
       </c>
       <c r="W47" s="1">
-        <v>0.137433631</v>
+        <v>1.9135025999999999E-2</v>
       </c>
       <c r="Y47" s="1">
         <f>W47-M47</f>
-        <v>0.13651797099999999</v>
+        <v>1.8324431999999998E-2</v>
       </c>
       <c r="Z47">
-        <v>16235</v>
+        <v>13727</v>
       </c>
       <c r="AA47" s="1">
-        <v>0.3107816665</v>
+        <v>5.8421035999999997E-3</v>
       </c>
       <c r="AB47" s="1">
         <f>AA47-O47</f>
-        <v>0.31008411549999998</v>
+        <v>2.8792085999999996E-3</v>
       </c>
       <c r="AC47" s="1">
         <f>AA47-M47</f>
-        <v>0.30986600650000001</v>
+        <v>5.0315095999999993E-3</v>
       </c>
       <c r="AD47" s="1">
-        <v>8.6155355000000003E-3</v>
+        <v>6.2202387000000001E-3</v>
       </c>
       <c r="AE47" s="1">
         <f>AD47-M47</f>
-        <v>7.6998754999999999E-3</v>
+        <v>5.4096447000000006E-3</v>
       </c>
       <c r="AF47" s="1">
-        <v>8.6155355000000003E-3</v>
+        <v>5.8421035999999997E-3</v>
       </c>
       <c r="AG47" s="1">
         <f>AF47-M47</f>
-        <v>7.6998754999999999E-3</v>
+        <v>5.0315095999999993E-3</v>
       </c>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="C48">
-        <v>0.602995477</v>
+        <v>0.34380333499999999</v>
       </c>
       <c r="D48">
-        <v>588.70000000000005</v>
+        <v>1209.3</v>
       </c>
       <c r="E48">
-        <v>3.3460800000000002E-4</v>
+        <v>5.1851040000000003E-3</v>
       </c>
       <c r="F48">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="G48">
-        <v>5.3992899999999997E-4</v>
+        <v>2.136789E-3</v>
       </c>
       <c r="H48">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="I48">
-        <v>2.3373799999999999E-4</v>
+        <v>3.1558269E-2</v>
       </c>
       <c r="J48">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="K48" s="2">
-        <v>1.8112799999999999E-4</v>
+        <v>1.979953E-3</v>
       </c>
       <c r="L48" s="2">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="M48" s="1">
-        <v>5.1051000000000004E-4</v>
+        <v>5.2893099999999995E-4</v>
       </c>
       <c r="N48">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="O48" s="3">
-        <v>1.88899E-4</v>
+        <v>2.358887E-3</v>
       </c>
       <c r="P48" s="3">
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="Q48">
         <f>V48/10</f>
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="R48">
         <f>MIN(C48,E48,G48,I48,K48,M48,O48)</f>
-        <v>1.8112799999999999E-4</v>
+        <v>5.2893099999999995E-4</v>
       </c>
       <c r="S48">
         <f>MIN(D48,F48,H48,J48,L48,N48,P48)</f>
-        <v>588.70000000000005</v>
+        <v>1207.8</v>
       </c>
       <c r="T48" s="1">
         <f>K48-O48</f>
-        <v>-7.771000000000004E-6</v>
+        <v>-3.7893400000000004E-4</v>
       </c>
       <c r="U48" s="1">
         <f>K48-M48</f>
-        <v>-3.2938200000000003E-4</v>
+        <v>1.4510220000000002E-3</v>
       </c>
       <c r="V48">
-        <v>5887</v>
+        <v>12078</v>
       </c>
       <c r="W48" s="1">
-        <v>1.70773E-3</v>
+        <v>8.2816456999999996E-2</v>
       </c>
       <c r="Y48" s="1">
         <f>W48-M48</f>
-        <v>1.1972199999999999E-3</v>
+        <v>8.2287526E-2</v>
       </c>
       <c r="Z48">
-        <v>5887</v>
+        <v>12093</v>
       </c>
       <c r="AA48" s="1">
-        <v>4.3988920000000002E-4</v>
+        <v>0.12609705069999999</v>
       </c>
       <c r="AB48" s="1">
         <f>AA48-O48</f>
-        <v>2.5099020000000005E-4</v>
+        <v>0.12373816369999999</v>
       </c>
       <c r="AC48" s="1">
         <f>AA48-M48</f>
-        <v>-7.0620800000000027E-5</v>
+        <v>0.12556811969999998</v>
       </c>
       <c r="AD48" s="1">
-        <v>5.7685959999999997E-4</v>
+        <v>1.1673402500000001E-2</v>
       </c>
       <c r="AE48" s="1">
         <f>AD48-M48</f>
-        <v>6.6349599999999931E-5</v>
+        <v>1.1144471500000001E-2</v>
       </c>
       <c r="AF48" s="1">
-        <v>1.8112790000000001E-4</v>
+        <v>1.9799524999999998E-3</v>
       </c>
       <c r="AG48" s="1">
         <f>AF48-M48</f>
-        <v>-3.2938210000000006E-4</v>
+        <v>1.4510215E-3</v>
       </c>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C49">
-        <v>0.190924228</v>
+        <v>0.14216527700000001</v>
       </c>
       <c r="D49">
-        <v>923.8</v>
+        <v>1114.2</v>
       </c>
       <c r="E49">
-        <v>1.7774425E-2</v>
+        <v>3.5455871999999999E-2</v>
       </c>
       <c r="F49">
-        <v>923.8</v>
+        <v>1114.2</v>
       </c>
       <c r="G49">
-        <v>1.160130611</v>
+        <v>4.3929310000000001E-3</v>
       </c>
       <c r="H49">
-        <v>934.4</v>
+        <v>1114.2</v>
       </c>
       <c r="I49">
-        <v>1.287505E-3</v>
+        <v>0.141997708</v>
       </c>
       <c r="J49">
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="K49" s="2">
-        <v>1.2185395E-2</v>
+        <v>5.7891602E-2</v>
       </c>
       <c r="L49" s="2">
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="M49" s="1">
-        <v>3.4683219999999998E-3</v>
+        <v>6.0665299999999997E-4</v>
       </c>
       <c r="N49">
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="O49" s="3">
-        <v>1.15536E-3</v>
+        <v>8.0904399999999997E-4</v>
       </c>
       <c r="P49" s="3">
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="Q49">
         <f>V49/10</f>
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="R49">
         <f>MIN(C49,E49,G49,I49,K49,M49,O49)</f>
-        <v>1.15536E-3</v>
+        <v>6.0665299999999997E-4</v>
       </c>
       <c r="S49">
         <f>MIN(D49,F49,H49,J49,L49,N49,P49)</f>
-        <v>923.7</v>
+        <v>1114.2</v>
       </c>
       <c r="T49" s="1">
         <f>K49-O49</f>
-        <v>1.1030035000000001E-2</v>
+        <v>5.7082557999999999E-2</v>
       </c>
       <c r="U49" s="1">
         <f>K49-M49</f>
-        <v>8.7170730000000005E-3</v>
+        <v>5.7284949000000002E-2</v>
       </c>
       <c r="V49">
-        <v>9237</v>
+        <v>11142</v>
       </c>
       <c r="W49" s="1">
-        <v>3.6812709999999998E-3</v>
+        <v>5.4499559999999997E-3</v>
       </c>
       <c r="Y49" s="1">
         <f>W49-M49</f>
-        <v>2.1294900000000004E-4</v>
+        <v>4.8433030000000002E-3</v>
       </c>
       <c r="Z49">
-        <v>9237</v>
+        <v>11142</v>
       </c>
       <c r="AA49" s="1">
-        <v>3.0094529E-3</v>
+        <v>5.1846231499999999E-2</v>
       </c>
       <c r="AB49" s="1">
         <f>AA49-O49</f>
-        <v>1.8540929E-3</v>
+        <v>5.1037187499999997E-2</v>
       </c>
       <c r="AC49" s="1">
         <f>AA49-M49</f>
-        <v>-4.588690999999998E-4</v>
+        <v>5.1239578500000001E-2</v>
       </c>
       <c r="AD49" s="1">
-        <v>2.5086523999999998E-3</v>
+        <v>9.5994406000000001E-3</v>
       </c>
       <c r="AE49" s="1">
         <f>AD49-M49</f>
-        <v>-9.596696E-4</v>
+        <v>8.9927875999999997E-3</v>
       </c>
       <c r="AF49" s="1">
-        <v>1.851073E-3</v>
+        <v>5.4499561000000002E-3</v>
       </c>
       <c r="AG49" s="1">
         <f>AF49-M49</f>
-        <v>-1.6172489999999999E-3</v>
+        <v>4.8433030999999998E-3</v>
       </c>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C50">
-        <v>0.14216527700000001</v>
+        <v>0.301338043</v>
       </c>
       <c r="D50">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="E50">
-        <v>3.5455871999999999E-2</v>
+        <v>2.373226E-3</v>
       </c>
       <c r="F50">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="G50">
-        <v>4.3929310000000001E-3</v>
+        <v>4.8964820999999999E-2</v>
       </c>
       <c r="H50">
-        <v>1114.2</v>
+        <v>1262.4000000000001</v>
       </c>
       <c r="I50">
-        <v>0.141997708</v>
+        <v>4.02397E-3</v>
       </c>
       <c r="J50">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="K50" s="2">
-        <v>5.7891602E-2</v>
+        <v>2.6182807999999998E-2</v>
       </c>
       <c r="L50" s="2">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="M50" s="1">
-        <v>6.0665299999999997E-4</v>
+        <v>2.2005129999999999E-3</v>
       </c>
       <c r="N50">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="O50" s="3">
-        <v>8.0904399999999997E-4</v>
+        <v>1.3267140000000001E-3</v>
       </c>
       <c r="P50" s="3">
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="Q50">
         <f>V50/10</f>
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="R50">
         <f>MIN(C50,E50,G50,I50,K50,M50,O50)</f>
-        <v>6.0665299999999997E-4</v>
+        <v>1.3267140000000001E-3</v>
       </c>
       <c r="S50">
         <f>MIN(D50,F50,H50,J50,L50,N50,P50)</f>
-        <v>1114.2</v>
+        <v>1261.8</v>
       </c>
       <c r="T50" s="1">
         <f>K50-O50</f>
-        <v>5.7082557999999999E-2</v>
+        <v>2.4856093999999999E-2</v>
       </c>
       <c r="U50" s="1">
         <f>K50-M50</f>
-        <v>5.7284949000000002E-2</v>
+        <v>2.3982294999999997E-2</v>
       </c>
       <c r="V50">
-        <v>11142</v>
+        <v>12618</v>
       </c>
       <c r="W50" s="1">
-        <v>5.4499559999999997E-3</v>
+        <v>2.0798625000000001E-2</v>
       </c>
       <c r="Y50" s="1">
         <f>W50-M50</f>
-        <v>4.8433030000000002E-3</v>
+        <v>1.8598112E-2</v>
       </c>
       <c r="Z50">
-        <v>11142</v>
+        <v>12618</v>
       </c>
       <c r="AA50" s="1">
-        <v>5.1846231499999999E-2</v>
+        <v>3.6191798300000001E-2</v>
       </c>
       <c r="AB50" s="1">
         <f>AA50-O50</f>
-        <v>5.1037187499999997E-2</v>
+        <v>3.4865084300000002E-2</v>
       </c>
       <c r="AC50" s="1">
         <f>AA50-M50</f>
-        <v>5.1239578500000001E-2</v>
+        <v>3.39912853E-2</v>
       </c>
       <c r="AD50" s="1">
-        <v>9.5994406000000001E-3</v>
+        <v>1.1981246399999999E-2</v>
       </c>
       <c r="AE50" s="1">
         <f>AD50-M50</f>
-        <v>8.9927875999999997E-3</v>
+        <v>9.7807333999999999E-3</v>
       </c>
       <c r="AF50" s="1">
-        <v>5.4499561000000002E-3</v>
+        <v>4.3635195000000003E-3</v>
       </c>
       <c r="AG50" s="1">
         <f>AF50-M50</f>
-        <v>4.8433030999999998E-3</v>
+        <v>2.1630065000000005E-3</v>
       </c>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C51">
-        <v>0.92134563300000005</v>
+        <v>0.240336354</v>
       </c>
       <c r="D51">
-        <v>936.7</v>
+        <v>1092.3</v>
       </c>
       <c r="E51">
-        <v>7.5751710000000003E-3</v>
+        <v>3.9108060000000002E-3</v>
       </c>
       <c r="F51">
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="G51">
-        <v>1.8579399999999999E-2</v>
+        <v>5.3961740000000001E-3</v>
       </c>
       <c r="H51">
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="I51">
-        <v>0.87632030999999999</v>
+        <v>2.0335342999999999E-2</v>
       </c>
       <c r="J51">
-        <v>938.8</v>
+        <v>1092.3</v>
       </c>
       <c r="K51" s="2">
-        <v>2.2979036000000001E-2</v>
+        <v>0.114009709</v>
       </c>
       <c r="L51" s="2">
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="M51" s="1">
-        <v>6.8884199999999995E-4</v>
+        <v>1.141134E-3</v>
       </c>
       <c r="N51">
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="O51" s="3">
-        <v>1.478186E-3</v>
+        <v>1.498578E-3</v>
       </c>
       <c r="P51" s="3">
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="Q51">
         <f>V51/10</f>
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="R51">
         <f>MIN(C51,E51,G51,I51,K51,M51,O51)</f>
-        <v>6.8884199999999995E-4</v>
+        <v>1.141134E-3</v>
       </c>
       <c r="S51">
         <f>MIN(D51,F51,H51,J51,L51,N51,P51)</f>
-        <v>932.1</v>
+        <v>1092.3</v>
       </c>
       <c r="T51" s="1">
         <f>K51-O51</f>
-        <v>2.1500850000000002E-2</v>
+        <v>0.112511131</v>
       </c>
       <c r="U51" s="1">
         <f>K51-M51</f>
-        <v>2.2290194000000003E-2</v>
+        <v>0.112868575</v>
       </c>
       <c r="V51">
-        <v>9321</v>
+        <v>10923</v>
       </c>
       <c r="W51" s="1">
-        <v>1.0916893E-2</v>
+        <v>5.3263399000000003E-2</v>
       </c>
       <c r="Y51" s="1">
         <f>W51-M51</f>
-        <v>1.0228051E-2</v>
+        <v>5.2122265000000001E-2</v>
       </c>
       <c r="Z51">
-        <v>9388</v>
+        <v>10923</v>
       </c>
       <c r="AA51" s="1">
-        <v>0.86703777069999999</v>
+        <v>0.1057940991</v>
       </c>
       <c r="AB51" s="1">
         <f>AA51-O51</f>
-        <v>0.86555958469999994</v>
+        <v>0.1042955211</v>
       </c>
       <c r="AC51" s="1">
         <f>AA51-M51</f>
-        <v>0.86634892870000002</v>
+        <v>0.10465296509999999</v>
       </c>
       <c r="AD51" s="1">
-        <v>7.4563900000000002E-3</v>
+        <v>5.6947033000000003E-3</v>
       </c>
       <c r="AE51" s="1">
         <f>AD51-M51</f>
-        <v>6.767548E-3</v>
+        <v>4.5535693E-3</v>
       </c>
       <c r="AF51" s="1">
-        <v>6.4341386E-3</v>
+        <v>5.6947033000000003E-3</v>
       </c>
       <c r="AG51" s="1">
         <f>AF51-M51</f>
-        <v>5.7452965999999998E-3</v>
+        <v>4.5535693E-3</v>
       </c>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C52">
-        <v>0.68774908400000001</v>
+        <v>0.190924228</v>
       </c>
       <c r="D52">
-        <v>880.6</v>
+        <v>923.8</v>
       </c>
       <c r="E52">
-        <v>9.0100962000000007E-2</v>
+        <v>1.7774425E-2</v>
       </c>
       <c r="F52">
-        <v>875.9</v>
+        <v>923.8</v>
       </c>
       <c r="G52">
-        <v>5.4759630000000004E-3</v>
+        <v>1.160130611</v>
       </c>
       <c r="H52">
-        <v>875.9</v>
+        <v>934.4</v>
       </c>
       <c r="I52">
-        <v>6.4094300000000005E-4</v>
+        <v>1.287505E-3</v>
       </c>
       <c r="J52">
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="K52" s="2">
-        <v>1.3168375E-2</v>
+        <v>1.2185395E-2</v>
       </c>
       <c r="L52" s="2">
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="M52" s="1">
-        <v>1.954538E-3</v>
+        <v>3.4683219999999998E-3</v>
       </c>
       <c r="N52">
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="O52" s="3">
-        <v>2.4365509999999999E-3</v>
+        <v>1.15536E-3</v>
       </c>
       <c r="P52" s="3">
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="Q52">
         <f>V52/10</f>
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="R52">
         <f>MIN(C52,E52,G52,I52,K52,M52,O52)</f>
-        <v>6.4094300000000005E-4</v>
+        <v>1.15536E-3</v>
       </c>
       <c r="S52">
         <f>MIN(D52,F52,H52,J52,L52,N52,P52)</f>
-        <v>875.9</v>
+        <v>923.7</v>
       </c>
       <c r="T52" s="1">
         <f>K52-O52</f>
-        <v>1.0731823999999999E-2</v>
+        <v>1.1030035000000001E-2</v>
       </c>
       <c r="U52" s="1">
         <f>K52-M52</f>
-        <v>1.1213836999999999E-2</v>
+        <v>8.7170730000000005E-3</v>
       </c>
       <c r="V52">
-        <v>8759</v>
+        <v>9237</v>
       </c>
       <c r="W52" s="1">
-        <v>8.2898355000000007E-2</v>
+        <v>3.6812709999999998E-3</v>
       </c>
       <c r="Y52" s="1">
         <f>W52-M52</f>
-        <v>8.0943817000000001E-2</v>
+        <v>2.1294900000000004E-4</v>
       </c>
       <c r="Z52">
-        <v>8759</v>
+        <v>9237</v>
       </c>
       <c r="AA52" s="1">
-        <v>0.11421763460000001</v>
+        <v>3.0094529E-3</v>
       </c>
       <c r="AB52" s="1">
         <f>AA52-O52</f>
-        <v>0.11178108360000001</v>
+        <v>1.8540929E-3</v>
       </c>
       <c r="AC52" s="1">
         <f>AA52-M52</f>
-        <v>0.1122630966</v>
+        <v>-4.588690999999998E-4</v>
       </c>
       <c r="AD52" s="1">
-        <v>3.2431019999999998E-4</v>
+        <v>2.5086523999999998E-3</v>
       </c>
       <c r="AE52" s="1">
         <f>AD52-M52</f>
-        <v>-1.6302278E-3</v>
+        <v>-9.596696E-4</v>
       </c>
       <c r="AF52" s="1">
-        <v>3.2431019999999998E-4</v>
+        <v>1.851073E-3</v>
       </c>
       <c r="AG52" s="1">
         <f>AF52-M52</f>
-        <v>-1.6302278E-3</v>
+        <v>-1.6172489999999999E-3</v>
       </c>
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C53">
-        <v>0.53880565899999999</v>
+        <v>0.14338925799999999</v>
       </c>
       <c r="D53">
-        <v>966.6</v>
+        <v>783.5</v>
       </c>
       <c r="E53">
-        <v>2.8779122000000001E-2</v>
+        <v>9.0373299999999999E-4</v>
       </c>
       <c r="F53">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="G53">
-        <v>5.2102599999999995E-4</v>
+        <v>5.136074E-3</v>
       </c>
       <c r="H53">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="I53">
-        <v>2.9679709999999998E-3</v>
+        <v>2.3445969999999999E-3</v>
       </c>
       <c r="J53">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="K53" s="2">
-        <v>5.5576360000000003E-3</v>
+        <v>1.287123E-3</v>
       </c>
       <c r="L53" s="2">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="M53" s="1">
-        <v>1.2195470000000001E-3</v>
+        <v>1.943696E-3</v>
       </c>
       <c r="N53">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="O53" s="3">
-        <v>1.1573359999999999E-3</v>
+        <v>8.8848799999999999E-4</v>
       </c>
       <c r="P53" s="3">
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="Q53">
         <f>V53/10</f>
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="R53">
         <f>MIN(C53,E53,G53,I53,K53,M53,O53)</f>
-        <v>5.2102599999999995E-4</v>
+        <v>8.8848799999999999E-4</v>
       </c>
       <c r="S53">
         <f>MIN(D53,F53,H53,J53,L53,N53,P53)</f>
-        <v>962.9</v>
+        <v>783.5</v>
       </c>
       <c r="T53" s="1">
         <f>K53-O53</f>
-        <v>4.4003000000000002E-3</v>
+        <v>3.9863500000000005E-4</v>
       </c>
       <c r="U53" s="1">
         <f>K53-M53</f>
-        <v>4.3380889999999998E-3</v>
+        <v>-6.5657299999999992E-4</v>
       </c>
       <c r="V53">
-        <v>9629</v>
+        <v>7835</v>
       </c>
       <c r="W53" s="1">
-        <v>1.8123476999999999E-2</v>
+        <v>3.311366E-3</v>
       </c>
       <c r="Y53" s="1">
         <f>W53-M53</f>
-        <v>1.6903929999999998E-2</v>
+        <v>1.3676700000000001E-3</v>
       </c>
       <c r="Z53">
-        <v>9629</v>
+        <v>7835</v>
       </c>
       <c r="AA53" s="1">
-        <v>4.0899926E-3</v>
+        <v>1.9352938999999999E-3</v>
       </c>
       <c r="AB53" s="1">
         <f>AA53-O53</f>
-        <v>2.9326565999999998E-3</v>
+        <v>1.0468058999999999E-3</v>
       </c>
       <c r="AC53" s="1">
         <f>AA53-M53</f>
-        <v>2.8704455999999999E-3</v>
+        <v>-8.4021000000000529E-6</v>
       </c>
       <c r="AD53" s="1">
-        <v>3.972082E-3</v>
+        <v>3.5322270000000001E-4</v>
       </c>
       <c r="AE53" s="1">
         <f>AD53-M53</f>
-        <v>2.752535E-3</v>
+        <v>-1.5904732999999999E-3</v>
       </c>
       <c r="AF53" s="1">
-        <v>3.7661116000000001E-3</v>
+        <v>3.5322270000000001E-4</v>
       </c>
       <c r="AG53" s="1">
         <f>AF53-M53</f>
-        <v>2.5465646000000001E-3</v>
+        <v>-1.5904732999999999E-3</v>
       </c>
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C54">
-        <v>0.34380333499999999</v>
+        <v>0.282810899</v>
       </c>
       <c r="D54">
-        <v>1209.3</v>
+        <v>1154</v>
       </c>
       <c r="E54">
-        <v>5.1851040000000003E-3</v>
+        <v>2.2761750000000001E-3</v>
       </c>
       <c r="F54">
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="G54">
-        <v>2.136789E-3</v>
+        <v>0.32090285000000002</v>
       </c>
       <c r="H54">
-        <v>1207.8</v>
+        <v>1157.7</v>
       </c>
       <c r="I54">
-        <v>3.1558269E-2</v>
+        <v>1.507794E-3</v>
       </c>
       <c r="J54">
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="K54" s="2">
-        <v>1.979953E-3</v>
+        <v>2.252932E-3</v>
       </c>
       <c r="L54" s="2">
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="M54" s="1">
-        <v>5.2893099999999995E-4</v>
+        <v>8.3777700000000005E-4</v>
       </c>
       <c r="N54">
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="O54" s="3">
-        <v>2.358887E-3</v>
+        <v>1.247309E-3</v>
       </c>
       <c r="P54" s="3">
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="Q54">
         <f>V54/10</f>
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="R54">
         <f>MIN(C54,E54,G54,I54,K54,M54,O54)</f>
-        <v>5.2893099999999995E-4</v>
+        <v>8.3777700000000005E-4</v>
       </c>
       <c r="S54">
         <f>MIN(D54,F54,H54,J54,L54,N54,P54)</f>
-        <v>1207.8</v>
+        <v>1154</v>
       </c>
       <c r="T54" s="1">
         <f>K54-O54</f>
-        <v>-3.7893400000000004E-4</v>
+        <v>1.005623E-3</v>
       </c>
       <c r="U54" s="1">
         <f>K54-M54</f>
-        <v>1.4510220000000002E-3</v>
+        <v>1.415155E-3</v>
       </c>
       <c r="V54">
-        <v>12078</v>
+        <v>11540</v>
       </c>
       <c r="W54" s="1">
-        <v>8.2816456999999996E-2</v>
+        <v>9.7413800000000004E-4</v>
       </c>
       <c r="Y54" s="1">
         <f>W54-M54</f>
-        <v>8.2287526E-2</v>
+        <v>1.3636099999999999E-4</v>
       </c>
       <c r="Z54">
-        <v>12093</v>
+        <v>11540</v>
       </c>
       <c r="AA54" s="1">
-        <v>0.12609705069999999</v>
+        <v>7.1935779999999995E-4</v>
       </c>
       <c r="AB54" s="1">
         <f>AA54-O54</f>
-        <v>0.12373816369999999</v>
+        <v>-5.279512000000001E-4</v>
       </c>
       <c r="AC54" s="1">
         <f>AA54-M54</f>
-        <v>0.12556811969999998</v>
+        <v>-1.184192000000001E-4</v>
       </c>
       <c r="AD54" s="1">
-        <v>1.1673402500000001E-2</v>
+        <v>1.4225688E-3</v>
       </c>
       <c r="AE54" s="1">
         <f>AD54-M54</f>
-        <v>1.1144471500000001E-2</v>
+        <v>5.8479179999999993E-4</v>
       </c>
       <c r="AF54" s="1">
-        <v>1.9799524999999998E-3</v>
+        <v>7.1935779999999995E-4</v>
       </c>
       <c r="AG54" s="1">
         <f>AF54-M54</f>
-        <v>1.4510215E-3</v>
+        <v>-1.184192000000001E-4</v>
       </c>
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="C55">
-        <v>0.44609381300000001</v>
+        <v>1.756709418</v>
       </c>
       <c r="D55">
-        <v>950.5</v>
+        <v>1064.3</v>
       </c>
       <c r="E55">
-        <v>-2.3251112000000001E-2</v>
+        <v>7.7337450000000002E-3</v>
       </c>
       <c r="F55">
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="G55">
-        <v>-2.4913718000000001E-2</v>
+        <v>3.6151199999999999E-3</v>
       </c>
       <c r="H55">
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="I55">
-        <v>0.26752491299999998</v>
+        <v>3.0638265000000001E-2</v>
       </c>
       <c r="J55">
-        <v>950.4</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="K55" s="2">
-        <v>1.765618E-3</v>
+        <v>1.7608011999999999E-2</v>
       </c>
       <c r="L55" s="2">
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="M55" s="1">
-        <v>-2.7391552999999999E-2</v>
+        <v>1.410609E-3</v>
       </c>
       <c r="N55">
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="O55" s="3">
-        <v>-3.0681037000000001E-2</v>
+        <v>1.211513E-3</v>
       </c>
       <c r="P55" s="3">
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="Q55">
         <f>V55/10</f>
-        <v>948.9</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="R55">
         <f>MIN(C55,E55,G55,I55,K55,M55,O55)</f>
-        <v>-3.0681037000000001E-2</v>
+        <v>1.211513E-3</v>
       </c>
       <c r="S55">
         <f>MIN(D55,F55,H55,J55,L55,N55,P55)</f>
-        <v>948.6</v>
+        <v>1051.0999999999999</v>
       </c>
       <c r="T55" s="1">
         <f>K55-O55</f>
-        <v>3.2446655000000005E-2</v>
+        <v>1.6396498999999998E-2</v>
       </c>
       <c r="U55" s="1">
         <f>K55-M55</f>
-        <v>2.9157170999999999E-2</v>
+        <v>1.6197402999999999E-2</v>
       </c>
       <c r="V55">
-        <v>9489</v>
+        <v>10511</v>
       </c>
       <c r="W55" s="1">
-        <v>4.4997484999999997E-2</v>
+        <v>0.124361159</v>
       </c>
       <c r="Y55" s="1">
         <f>W55-M55</f>
-        <v>7.2389037999999989E-2</v>
+        <v>0.12295055000000001</v>
       </c>
       <c r="Z55">
-        <v>9486</v>
+        <v>10511</v>
       </c>
       <c r="AA55" s="1">
-        <v>5.3714004500000002E-2</v>
+        <v>7.0679209E-3</v>
       </c>
       <c r="AB55" s="1">
         <f>AA55-O55</f>
-        <v>8.4395041500000004E-2</v>
+        <v>5.8564079E-3</v>
       </c>
       <c r="AC55" s="1">
         <f>AA55-M55</f>
-        <v>8.1105557500000008E-2</v>
+        <v>5.6573118999999998E-3</v>
       </c>
       <c r="AD55" s="1">
-        <v>0.13190189990000001</v>
+        <v>1.42324094E-2</v>
       </c>
       <c r="AE55" s="1">
         <f>AD55-M55</f>
-        <v>0.15929345290000002</v>
+        <v>1.28218004E-2</v>
       </c>
       <c r="AF55" s="1">
-        <v>-1.09578846E-2</v>
+        <v>6.0715070999999999E-3</v>
       </c>
       <c r="AG55" s="1">
         <f>AF55-M55</f>
-        <v>1.6433668399999997E-2</v>
+        <v>4.6608980999999997E-3</v>
       </c>
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C56">
-        <v>0.20309290799999999</v>
+        <v>0.53880565899999999</v>
       </c>
       <c r="D56">
-        <v>1258</v>
+        <v>966.6</v>
       </c>
       <c r="E56">
-        <v>1.7297265999999999E-2</v>
+        <v>2.8779122000000001E-2</v>
       </c>
       <c r="F56">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="G56">
-        <v>7.8081740000000002E-3</v>
+        <v>5.2102599999999995E-4</v>
       </c>
       <c r="H56">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="I56">
-        <v>0.28892647500000002</v>
+        <v>2.9679709999999998E-3</v>
       </c>
       <c r="J56">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="K56" s="2">
-        <v>1.5081377E-2</v>
+        <v>5.5576360000000003E-3</v>
       </c>
       <c r="L56" s="2">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="M56" s="1">
-        <v>1.69637E-3</v>
+        <v>1.2195470000000001E-3</v>
       </c>
       <c r="N56">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="O56" s="3">
-        <v>2.973715E-3</v>
+        <v>1.1573359999999999E-3</v>
       </c>
       <c r="P56" s="3">
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="Q56">
         <f>V56/10</f>
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="R56">
         <f>MIN(C56,E56,G56,I56,K56,M56,O56)</f>
-        <v>1.69637E-3</v>
+        <v>5.2102599999999995E-4</v>
       </c>
       <c r="S56">
         <f>MIN(D56,F56,H56,J56,L56,N56,P56)</f>
-        <v>1258</v>
+        <v>962.9</v>
       </c>
       <c r="T56" s="1">
         <f>K56-O56</f>
-        <v>1.2107662E-2</v>
+        <v>4.4003000000000002E-3</v>
       </c>
       <c r="U56" s="1">
         <f>K56-M56</f>
-        <v>1.3385007000000001E-2</v>
+        <v>4.3380889999999998E-3</v>
       </c>
       <c r="V56">
-        <v>12580</v>
+        <v>9629</v>
       </c>
       <c r="W56" s="1">
-        <v>3.8108377999999998E-2</v>
+        <v>1.8123476999999999E-2</v>
       </c>
       <c r="Y56" s="1">
         <f>W56-M56</f>
-        <v>3.6412007999999996E-2</v>
+        <v>1.6903929999999998E-2</v>
       </c>
       <c r="Z56">
-        <v>12582</v>
+        <v>9629</v>
       </c>
       <c r="AA56" s="1">
-        <v>2.99335188E-2</v>
+        <v>4.0899926E-3</v>
       </c>
       <c r="AB56" s="1">
         <f>AA56-O56</f>
-        <v>2.6959803800000001E-2</v>
+        <v>2.9326565999999998E-3</v>
       </c>
       <c r="AC56" s="1">
         <f>AA56-M56</f>
-        <v>2.82371488E-2</v>
+        <v>2.8704455999999999E-3</v>
       </c>
       <c r="AD56" s="1">
-        <v>2.3891220599999999E-2</v>
+        <v>3.972082E-3</v>
       </c>
       <c r="AE56" s="1">
         <f>AD56-M56</f>
-        <v>2.21948506E-2</v>
+        <v>2.752535E-3</v>
       </c>
       <c r="AF56" s="1">
-        <v>1.5081377E-2</v>
+        <v>3.7661116000000001E-3</v>
       </c>
       <c r="AG56" s="1">
         <f>AF56-M56</f>
-        <v>1.3385007000000001E-2</v>
+        <v>2.5465646000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C57">
-        <v>0.23055405300000001</v>
+        <v>0.99544531999999997</v>
       </c>
       <c r="D57">
-        <v>900.9</v>
+        <v>782.8</v>
       </c>
       <c r="E57">
-        <v>1.384138E-3</v>
+        <v>3.2561830000000002E-3</v>
       </c>
       <c r="F57">
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="G57">
-        <v>4.9855744E-2</v>
+        <v>0.45331886900000001</v>
       </c>
       <c r="H57">
-        <v>900.8</v>
+        <v>779.6</v>
       </c>
       <c r="I57">
-        <v>0.83404774199999998</v>
+        <v>8.1756001999999994E-2</v>
       </c>
       <c r="J57">
-        <v>908</v>
+        <v>776.1</v>
       </c>
       <c r="K57" s="2">
-        <v>4.3477891999999997E-2</v>
+        <v>8.4412350000000001E-3</v>
       </c>
       <c r="L57" s="2">
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="M57" s="1">
-        <v>6.5863809999999997E-3</v>
+        <v>7.7659640000000002E-3</v>
       </c>
       <c r="N57">
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="O57" s="3">
-        <v>2.303841E-3</v>
+        <v>1.5019110000000001E-3</v>
       </c>
       <c r="P57" s="3">
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="Q57">
         <f>V57/10</f>
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="R57">
         <f>MIN(C57,E57,G57,I57,K57,M57,O57)</f>
-        <v>1.384138E-3</v>
+        <v>1.5019110000000001E-3</v>
       </c>
       <c r="S57">
         <f>MIN(D57,F57,H57,J57,L57,N57,P57)</f>
-        <v>900.5</v>
+        <v>776.1</v>
       </c>
       <c r="T57" s="1">
         <f>K57-O57</f>
-        <v>4.1174050999999996E-2</v>
+        <v>6.9393240000000002E-3</v>
       </c>
       <c r="U57" s="1">
         <f>K57-M57</f>
-        <v>3.6891510999999995E-2</v>
+        <v>6.7527099999999986E-4</v>
       </c>
       <c r="V57">
-        <v>9005</v>
+        <v>7761</v>
       </c>
       <c r="W57" s="1">
-        <v>6.9082534000000001E-2</v>
+        <v>4.9550000000000002E-3</v>
       </c>
       <c r="Y57" s="1">
         <f>W57-M57</f>
-        <v>6.2496152999999999E-2</v>
+        <v>-2.810964E-3</v>
       </c>
       <c r="Z57">
-        <v>9005</v>
+        <v>7761</v>
       </c>
       <c r="AA57" s="1">
-        <v>0.18671521069999999</v>
+        <v>1.28037588E-2</v>
       </c>
       <c r="AB57" s="1">
         <f>AA57-O57</f>
-        <v>0.18441136969999999</v>
+        <v>1.1301847800000001E-2</v>
       </c>
       <c r="AC57" s="1">
         <f>AA57-M57</f>
-        <v>0.18012882969999999</v>
+        <v>5.0377948000000002E-3</v>
       </c>
       <c r="AD57" s="1">
-        <v>2.9302409200000001E-2</v>
+        <v>3.8016113E-3</v>
       </c>
       <c r="AE57" s="1">
         <f>AD57-M57</f>
-        <v>2.2716028200000002E-2</v>
+        <v>-3.9643526999999998E-3</v>
       </c>
       <c r="AF57" s="1">
-        <v>1.8253004499999999E-2</v>
+        <v>3.8016113E-3</v>
       </c>
       <c r="AG57" s="1">
         <f>AF57-M57</f>
-        <v>1.1666623500000001E-2</v>
+        <v>-3.9643526999999998E-3</v>
       </c>
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.3">
@@ -40736,6 +40736,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG359">
+    <sortCondition ref="A1:A359"/>
+  </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
